--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E57C5-52B1-4ACD-9082-6FDFBFF643F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8565" windowHeight="2985" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -25,17 +26,23 @@
     <sheet name="E1M6" sheetId="12" r:id="rId11"/>
     <sheet name="Gamma" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="253">
   <si>
     <t>Memory</t>
   </si>
@@ -770,18 +777,42 @@
   </si>
   <si>
     <t>V1.3</t>
+  </si>
+  <si>
+    <t>Demo 4</t>
+  </si>
+  <si>
+    <t>Hash1</t>
+  </si>
+  <si>
+    <t>Hash3</t>
+  </si>
+  <si>
+    <t>Hash4</t>
+  </si>
+  <si>
+    <t>Hash5</t>
+  </si>
+  <si>
+    <t>Demo1</t>
+  </si>
+  <si>
+    <t>Demo2</t>
+  </si>
+  <si>
+    <t>Demo3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,13 +826,33 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -816,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -828,6 +879,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +901,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1061,6 +1116,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66D8-4E49-B1AA-665A46AAA706}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1226,7 +1286,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1402,6 +1462,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1E0-44D3-AB17-1E50AEE345D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1530,6 +1595,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1E0-44D3-AB17-1E50AEE345D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1726,7 +1796,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1956,6 +2026,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94E3-4CC5-9806-B7C38B83A67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2138,6 +2213,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94E3-4CC5-9806-B7C38B83A67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2334,7 +2414,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2540,6 +2620,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B73-4311-ADBC-B5359C62EF55}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2698,6 +2783,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B73-4311-ADBC-B5359C62EF55}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2894,7 +2984,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2908,7 +2998,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3202,6 +3291,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72B2-4EF1-BB50-BD105C723D60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3478,6 +3572,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72B2-4EF1-BB50-BD105C723D60}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3609,7 +3708,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3677,7 +3775,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3960,6 +4058,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABDA-49C1-A04E-1E22745B19A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4212,6 +4315,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABDA-49C1-A04E-1E22745B19A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4410,7 +4518,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4545,6 +4653,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D54-4356-B766-3DB2D31EB3EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4654,6 +4767,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D54-4356-B766-3DB2D31EB3EA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4914,7 +5032,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5095,6 +5213,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5228,6 +5351,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5361,6 +5489,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5494,6 +5627,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10154,7 +10292,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10189,7 +10333,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10224,7 +10374,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10259,7 +10415,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10294,7 +10456,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10329,7 +10497,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10364,7 +10538,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10399,7 +10579,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10679,20 +10865,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10703,7 +10889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10723,7 +10909,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10747,7 +10933,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10771,7 +10957,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10795,7 +10981,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10819,7 +11005,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10843,7 +11029,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -10867,7 +11053,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -10891,7 +11077,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -10915,7 +11101,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -10939,7 +11125,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -10963,7 +11149,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -10987,7 +11173,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -11011,7 +11197,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -11035,7 +11221,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -11059,7 +11245,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -11083,7 +11269,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -11107,7 +11293,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -11131,7 +11317,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -11155,7 +11341,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -11179,7 +11365,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -11203,7 +11389,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -11227,7 +11413,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -11251,7 +11437,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -11275,7 +11461,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -11299,7 +11485,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -11323,7 +11509,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -11347,7 +11533,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -11371,7 +11557,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -11395,7 +11581,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -11419,7 +11605,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -11443,7 +11629,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -11467,7 +11653,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -11491,7 +11677,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -11515,7 +11701,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -11539,7 +11725,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -11563,7 +11749,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -11587,7 +11773,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -11611,7 +11797,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -11635,7 +11821,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -11659,7 +11845,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -11683,7 +11869,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>205</v>
       </c>
@@ -11707,7 +11893,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -11731,7 +11917,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -11755,7 +11941,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>209</v>
       </c>
@@ -11779,7 +11965,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -11803,7 +11989,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -11835,19 +12021,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A2:J209"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:H100"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>206</v>
       </c>
@@ -11860,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>254</v>
       </c>
@@ -11873,7 +12059,7 @@
         <v>1.3152103559870549</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>168</v>
       </c>
@@ -11886,7 +12072,7 @@
         <v>0.86990291262135921</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>253</v>
       </c>
@@ -11899,7 +12085,7 @@
         <v>1.3100323624595469</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>286</v>
       </c>
@@ -11912,7 +12098,7 @@
         <v>1.4809061488673139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>323</v>
       </c>
@@ -11925,7 +12111,7 @@
         <v>1.6724919093851134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>393</v>
       </c>
@@ -11938,7 +12124,7 @@
         <v>2.0349514563106794</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>282</v>
       </c>
@@ -11947,7 +12133,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>261</v>
       </c>
@@ -11956,7 +12142,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>304</v>
       </c>
@@ -11965,7 +12151,7 @@
         <v>10.133333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>331</v>
       </c>
@@ -11974,7 +12160,7 @@
         <v>11.033333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>369</v>
       </c>
@@ -11983,17 +12169,17 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>2517648</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>1668342</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>306</v>
       </c>
@@ -12002,7 +12188,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>664</v>
       </c>
@@ -12011,7 +12197,7 @@
         <v>22.133333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>490</v>
       </c>
@@ -12020,7 +12206,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>358</v>
       </c>
@@ -12029,7 +12215,7 @@
         <v>11.933333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>365</v>
       </c>
@@ -12038,7 +12224,7 @@
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>380</v>
       </c>
@@ -12047,7 +12233,7 @@
         <v>12.666666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>388</v>
       </c>
@@ -12056,7 +12242,7 @@
         <v>12.933333333333334</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>393</v>
       </c>
@@ -12065,7 +12251,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>394</v>
       </c>
@@ -12074,7 +12260,7 @@
         <v>13.133333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>375</v>
       </c>
@@ -12083,7 +12269,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>360</v>
       </c>
@@ -12092,7 +12278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>468</v>
       </c>
@@ -12101,7 +12287,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>424</v>
       </c>
@@ -12110,7 +12296,7 @@
         <v>14.133333333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>375</v>
       </c>
@@ -12119,7 +12305,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>434</v>
       </c>
@@ -12128,7 +12314,7 @@
         <v>14.466666666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>485</v>
       </c>
@@ -12137,7 +12323,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>479</v>
       </c>
@@ -12146,7 +12332,7 @@
         <v>15.966666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>489</v>
       </c>
@@ -12155,7 +12341,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>530</v>
       </c>
@@ -12170,7 +12356,7 @@
         <v>1673430</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>539</v>
       </c>
@@ -12183,7 +12369,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>541</v>
       </c>
@@ -12196,7 +12382,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>545</v>
       </c>
@@ -12208,7 +12394,7 @@
         <v>4715589</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>543</v>
       </c>
@@ -12223,7 +12409,7 @@
         <v>1701177</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>550</v>
       </c>
@@ -12232,7 +12418,7 @@
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>1741</v>
       </c>
@@ -12245,7 +12431,7 @@
         <v>8.3529242431511772</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>7168</v>
       </c>
@@ -12258,17 +12444,17 @@
         <v>9.5573333333333341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="C67" s="2">
         <v>5357786</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="C68" s="2">
         <v>1364423</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>400</v>
       </c>
@@ -12280,7 +12466,7 @@
         <v>3389051</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>411</v>
       </c>
@@ -12292,12 +12478,12 @@
         <v>3099119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="D78" s="2">
         <v>4075793</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" s="2">
         <v>3574494</v>
       </c>
@@ -12306,19 +12492,19 @@
         <v>1.1402433463309771</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="D82">
         <v>4793685</v>
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="D83">
         <v>5226125</v>
       </c>
@@ -12327,12 +12513,12 @@
         <v>1.0902103496579354</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="D87">
         <v>1996134</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="D88">
         <v>1732488</v>
       </c>
@@ -12341,7 +12527,7 @@
         <v>1.1521776774211423</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -12355,7 +12541,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>218</v>
       </c>
@@ -12381,7 +12567,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -12407,7 +12593,7 @@
         <v>13.866666666666667</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -12433,7 +12619,7 @@
         <v>14.633333333333333</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>179</v>
       </c>
@@ -12459,7 +12645,7 @@
         <v>15.933333333333334</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>219</v>
       </c>
@@ -12485,7 +12671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -12511,7 +12697,7 @@
         <v>17.233333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -12537,7 +12723,7 @@
         <v>16.966666666666665</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -12563,7 +12749,7 @@
         <v>16.066666666666666</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -12577,7 +12763,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>218</v>
       </c>
@@ -12600,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>217</v>
       </c>
@@ -12623,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>216</v>
       </c>
@@ -12646,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -12669,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>219</v>
       </c>
@@ -12692,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -12718,7 +12904,7 @@
         <v>19.466666666666665</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -12741,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -12764,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -12778,7 +12964,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>218</v>
       </c>
@@ -12795,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>217</v>
       </c>
@@ -12812,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>216</v>
       </c>
@@ -12829,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -12855,7 +13041,7 @@
         <v>18.533333333333335</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>219</v>
       </c>
@@ -12878,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>220</v>
       </c>
@@ -12904,7 +13090,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -12927,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>223</v>
       </c>
@@ -12950,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -12958,7 +13144,7 @@
         <v>905621</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>227</v>
       </c>
@@ -12970,17 +13156,17 @@
         <v>0.99485104696114601</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="B132">
         <v>901523</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="B135">
         <v>260186</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="B136">
         <v>22705</v>
       </c>
@@ -12989,7 +13175,7 @@
         <v>8.7264495399445016E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="B138">
         <v>478831</v>
       </c>
@@ -12998,12 +13184,12 @@
         <v>9.0847705238393388</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="B139">
         <v>52707</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>231</v>
       </c>
@@ -13011,7 +13197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>232</v>
       </c>
@@ -13026,7 +13212,7 @@
         <v>0.75143043938949883</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>233</v>
       </c>
@@ -13041,12 +13227,12 @@
         <v>0.89314365488222114</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>232</v>
       </c>
@@ -13061,7 +13247,7 @@
         <v>0.77899192551701413</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>233</v>
       </c>
@@ -13076,12 +13262,715 @@
         <v>0.90252258478550629</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>237</v>
       </c>
     </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>245</v>
+      </c>
+      <c r="B161" t="s">
+        <v>246</v>
+      </c>
+      <c r="C161" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161" t="s">
+        <v>247</v>
+      </c>
+      <c r="E161" t="s">
+        <v>248</v>
+      </c>
+      <c r="F161" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>218</v>
+      </c>
+      <c r="B162">
+        <v>11.4</v>
+      </c>
+      <c r="C162">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>12.9</v>
+      </c>
+      <c r="F162">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163">
+        <v>11.8</v>
+      </c>
+      <c r="C163">
+        <v>13.2</v>
+      </c>
+      <c r="D163">
+        <v>13.2</v>
+      </c>
+      <c r="E163">
+        <v>13.1</v>
+      </c>
+      <c r="F163" s="10">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>216</v>
+      </c>
+      <c r="B164">
+        <v>12.2</v>
+      </c>
+      <c r="C164" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="D164">
+        <v>13.4</v>
+      </c>
+      <c r="E164">
+        <v>13.2</v>
+      </c>
+      <c r="F164" s="10">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="C165">
+        <v>13.3</v>
+      </c>
+      <c r="D165">
+        <v>13.4</v>
+      </c>
+      <c r="E165">
+        <v>13.2</v>
+      </c>
+      <c r="F165" s="10">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>219</v>
+      </c>
+      <c r="B166" s="10">
+        <v>13.2</v>
+      </c>
+      <c r="C166">
+        <v>13.2</v>
+      </c>
+      <c r="D166">
+        <v>13.3</v>
+      </c>
+      <c r="E166">
+        <v>13.1</v>
+      </c>
+      <c r="F166" s="10">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>220</v>
+      </c>
+      <c r="B167" s="9">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <v>13.1</v>
+      </c>
+      <c r="E167">
+        <v>12.9</v>
+      </c>
+      <c r="F167">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168">
+        <v>12.7</v>
+      </c>
+      <c r="C168">
+        <v>12.7</v>
+      </c>
+      <c r="D168">
+        <v>12.8</v>
+      </c>
+      <c r="E168">
+        <v>12.6</v>
+      </c>
+      <c r="F168">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>223</v>
+      </c>
+      <c r="B169">
+        <v>12.1</v>
+      </c>
+      <c r="C169">
+        <v>12.1</v>
+      </c>
+      <c r="D169">
+        <v>12.1</v>
+      </c>
+      <c r="E169">
+        <v>12.1</v>
+      </c>
+      <c r="F169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="B171">
+        <f>AVERAGE(B162:B169)</f>
+        <v>12.450000000000001</v>
+      </c>
+      <c r="C171">
+        <f>AVERAGE(C162:C169)</f>
+        <v>12.987500000000001</v>
+      </c>
+      <c r="D171">
+        <f>AVERAGE(D162:D169)</f>
+        <v>12.912499999999998</v>
+      </c>
+      <c r="E171">
+        <f>AVERAGE(E162:E169)</f>
+        <v>12.887499999999999</v>
+      </c>
+      <c r="F171">
+        <f>AVERAGE(F162:F169)</f>
+        <v>12.9125</v>
+      </c>
+      <c r="H171">
+        <f>C164</f>
+        <v>13.4</v>
+      </c>
+      <c r="I171">
+        <f>B167</f>
+        <v>13</v>
+      </c>
+      <c r="J171" s="1">
+        <f>H171/I171</f>
+        <v>1.0307692307692309</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>250</v>
+      </c>
+      <c r="B173" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" t="s">
+        <v>237</v>
+      </c>
+      <c r="D173" t="s">
+        <v>247</v>
+      </c>
+      <c r="E173" t="s">
+        <v>248</v>
+      </c>
+      <c r="F173" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>218</v>
+      </c>
+      <c r="B174">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C174" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="F174">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>217</v>
+      </c>
+      <c r="B175">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C175" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="F175">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>216</v>
+      </c>
+      <c r="B176">
+        <v>21.5</v>
+      </c>
+      <c r="C176" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="F176">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="C177">
+        <v>24.7</v>
+      </c>
+      <c r="F177">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>219</v>
+      </c>
+      <c r="B178" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="C178">
+        <v>24.6</v>
+      </c>
+      <c r="F178" s="10">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>220</v>
+      </c>
+      <c r="B179" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="C179">
+        <v>24.4</v>
+      </c>
+      <c r="F179">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180">
+        <v>24</v>
+      </c>
+      <c r="C180">
+        <v>24</v>
+      </c>
+      <c r="F180">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>223</v>
+      </c>
+      <c r="B181">
+        <v>23.3</v>
+      </c>
+      <c r="C181">
+        <v>23.3</v>
+      </c>
+      <c r="F181">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="B183">
+        <f>AVERAGE(B174:B181)</f>
+        <v>22.837500000000002</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ref="C183:F183" si="13">AVERAGE(C174:C181)</f>
+        <v>24.425000000000004</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="13"/>
+        <v>23.987500000000004</v>
+      </c>
+      <c r="H183">
+        <f>C176</f>
+        <v>24.8</v>
+      </c>
+      <c r="I183">
+        <f>B179</f>
+        <v>24.4</v>
+      </c>
+      <c r="J183" s="1">
+        <f>H183/I183</f>
+        <v>1.0163934426229508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>251</v>
+      </c>
+      <c r="B186" t="s">
+        <v>246</v>
+      </c>
+      <c r="C186" t="s">
+        <v>237</v>
+      </c>
+      <c r="D186" t="s">
+        <v>247</v>
+      </c>
+      <c r="E186" t="s">
+        <v>248</v>
+      </c>
+      <c r="F186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187">
+        <v>20</v>
+      </c>
+      <c r="C187">
+        <v>21.6</v>
+      </c>
+      <c r="F187">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>217</v>
+      </c>
+      <c r="B188">
+        <v>20.5</v>
+      </c>
+      <c r="C188">
+        <v>21.9</v>
+      </c>
+      <c r="F188">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>216</v>
+      </c>
+      <c r="B189">
+        <v>21</v>
+      </c>
+      <c r="C189" s="10">
+        <v>22</v>
+      </c>
+      <c r="F189" s="10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
+        <v>179</v>
+      </c>
+      <c r="B190">
+        <v>21.8</v>
+      </c>
+      <c r="C190" s="10">
+        <v>22</v>
+      </c>
+      <c r="F190" s="10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
+        <v>219</v>
+      </c>
+      <c r="B191" s="10">
+        <v>21.9</v>
+      </c>
+      <c r="C191">
+        <v>21.9</v>
+      </c>
+      <c r="F191" s="10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="C192">
+        <v>21.8</v>
+      </c>
+      <c r="F192">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
+        <v>222</v>
+      </c>
+      <c r="B193">
+        <v>21.5</v>
+      </c>
+      <c r="C193">
+        <v>21.5</v>
+      </c>
+      <c r="F193">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>223</v>
+      </c>
+      <c r="B194">
+        <v>20.9</v>
+      </c>
+      <c r="C194">
+        <v>20.9</v>
+      </c>
+      <c r="F194">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="B196">
+        <f>AVERAGE(B187:B194)</f>
+        <v>21.162499999999998</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:F196" si="14">AVERAGE(C187:C194)</f>
+        <v>21.700000000000003</v>
+      </c>
+      <c r="F196">
+        <f t="shared" ref="F196" si="15">AVERAGE(F187:F194)</f>
+        <v>21.55</v>
+      </c>
+      <c r="H196">
+        <f>C189</f>
+        <v>22</v>
+      </c>
+      <c r="I196">
+        <f>B192</f>
+        <v>21.7</v>
+      </c>
+      <c r="J196" s="1">
+        <f>H196/I196</f>
+        <v>1.0138248847926268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
+        <v>252</v>
+      </c>
+      <c r="B199" t="s">
+        <v>246</v>
+      </c>
+      <c r="C199" t="s">
+        <v>237</v>
+      </c>
+      <c r="D199" t="s">
+        <v>247</v>
+      </c>
+      <c r="E199" t="s">
+        <v>248</v>
+      </c>
+      <c r="F199" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C200" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="F200">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="C201" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" s="11">
+        <v>21.7</v>
+      </c>
+      <c r="C202" s="11">
+        <v>23.2</v>
+      </c>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
+        <v>179</v>
+      </c>
+      <c r="B203" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="C203" s="11">
+        <v>23.1</v>
+      </c>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="10">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="11">
+        <v>23.4</v>
+      </c>
+      <c r="C204" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="12">
+        <v>23</v>
+      </c>
+      <c r="C205" s="11">
+        <v>22.4</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="C206" s="11">
+        <v>22.1</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" s="11">
+        <v>20.8</v>
+      </c>
+      <c r="C207" s="11">
+        <v>20.8</v>
+      </c>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10">
+      <c r="B209">
+        <f>AVERAGE(B200:B207)</f>
+        <v>21.887499999999999</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ref="C209:F209" si="16">AVERAGE(C200:C207)</f>
+        <v>22.625</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="16"/>
+        <v>22.425000000000004</v>
+      </c>
+      <c r="H209">
+        <f>C202</f>
+        <v>23.2</v>
+      </c>
+      <c r="I209">
+        <f>B205</f>
+        <v>23</v>
+      </c>
+      <c r="J209" s="1">
+        <f>H209/I209</f>
+        <v>1.008695652173913</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13089,19 +13978,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -13109,7 +13998,7 @@
         <v>9656</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -13117,7 +14006,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -13125,7 +14014,7 @@
         <v>34540</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -13137,7 +14026,7 @@
         <v>119072</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -13145,7 +14034,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -13159,19 +14048,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>195</v>
       </c>
@@ -13185,7 +14074,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13205,7 +14094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13226,7 +14115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13247,7 +14136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13268,7 +14157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13289,7 +14178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13310,7 +14199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13331,7 +14220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13352,7 +14241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13373,7 +14262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13394,7 +14283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13415,7 +14304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13436,7 +14325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -13457,7 +14346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -13478,7 +14367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -13499,7 +14388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
@@ -13520,7 +14409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -13541,7 +14430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -13562,7 +14451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>18</v>
       </c>
@@ -13583,7 +14472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>19</v>
       </c>
@@ -13604,7 +14493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20</v>
       </c>
@@ -13625,7 +14514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>21</v>
       </c>
@@ -13646,7 +14535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>22</v>
       </c>
@@ -13667,7 +14556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>23</v>
       </c>
@@ -13688,7 +14577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>24</v>
       </c>
@@ -13709,7 +14598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>25</v>
       </c>
@@ -13730,7 +14619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>26</v>
       </c>
@@ -13751,7 +14640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>27</v>
       </c>
@@ -13772,7 +14661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>28</v>
       </c>
@@ -13793,7 +14682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>29</v>
       </c>
@@ -13814,7 +14703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>30</v>
       </c>
@@ -13836,7 +14725,7 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>31</v>
       </c>
@@ -13857,7 +14746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35">
         <v>1</v>
       </c>
@@ -13873,20 +14762,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13897,7 +14786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13917,7 +14806,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -13941,7 +14830,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -13965,7 +14854,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -13989,7 +14878,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -14013,7 +14902,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -14037,7 +14926,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -14061,7 +14950,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -14085,7 +14974,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -14109,7 +14998,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -14133,7 +15022,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -14157,7 +15046,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -14181,7 +15070,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -14205,7 +15094,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -14229,7 +15118,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -14253,7 +15142,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -14277,7 +15166,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -14301,7 +15190,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -14325,7 +15214,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -14349,7 +15238,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -14373,7 +15262,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -14397,7 +15286,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -14421,7 +15310,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -14445,7 +15334,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -14469,7 +15358,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -14493,7 +15382,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -14517,7 +15406,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -14541,7 +15430,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -14565,7 +15454,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -14589,7 +15478,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -14613,7 +15502,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -14637,7 +15526,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -14661,7 +15550,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -14685,7 +15574,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -14716,19 +15605,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14739,7 +15628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14759,7 +15648,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -14783,7 +15672,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -14807,7 +15696,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -14831,7 +15720,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -14855,7 +15744,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -14879,7 +15768,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -14903,7 +15792,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -14927,7 +15816,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -14951,7 +15840,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -14975,7 +15864,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -14999,7 +15888,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -15023,7 +15912,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -15047,7 +15936,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -15071,7 +15960,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -15095,7 +15984,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -15119,7 +16008,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -15143,7 +16032,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -15167,7 +16056,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -15191,7 +16080,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -15215,7 +16104,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -15239,7 +16128,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -15263,7 +16152,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -15287,7 +16176,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -15311,7 +16200,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -15335,7 +16224,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -15359,7 +16248,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -15383,7 +16272,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -15407,7 +16296,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -15431,7 +16320,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -15455,7 +16344,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -15479,7 +16368,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -15503,7 +16392,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -15527,7 +16416,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -15551,7 +16440,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -15575,7 +16464,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -15599,7 +16488,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -15623,7 +16512,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>173</v>
       </c>
@@ -15647,7 +16536,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -15671,7 +16560,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -15695,7 +16584,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -15719,7 +16608,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>202</v>
       </c>
@@ -15743,7 +16632,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -15767,7 +16656,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -15791,7 +16680,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -15815,7 +16704,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -15839,7 +16728,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -15863,7 +16752,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -15887,7 +16776,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -15911,7 +16800,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -15935,7 +16824,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>242</v>
       </c>
@@ -15959,7 +16848,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>244</v>
       </c>
@@ -15990,19 +16879,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16013,7 +16902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16033,7 +16922,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -16057,7 +16946,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -16081,7 +16970,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -16105,7 +16994,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -16129,7 +17018,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -16153,7 +17042,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -16177,7 +17066,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16201,7 +17090,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -16225,7 +17114,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -16249,7 +17138,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -16273,7 +17162,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -16297,7 +17186,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -16321,7 +17210,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -16345,7 +17234,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -16369,7 +17258,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -16393,7 +17282,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -16417,7 +17306,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -16441,7 +17330,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -16465,7 +17354,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -16489,7 +17378,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -16513,7 +17402,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -16537,7 +17426,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -16561,7 +17450,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -16585,7 +17474,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -16609,7 +17498,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -16633,7 +17522,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -16657,7 +17546,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -16681,7 +17570,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -16705,7 +17594,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -16729,7 +17618,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>173</v>
       </c>
@@ -16753,7 +17642,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>187</v>
       </c>
@@ -16777,7 +17666,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -16801,7 +17690,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -16825,7 +17714,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -16849,7 +17738,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -16873,7 +17762,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -16897,7 +17786,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -16921,7 +17810,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>207</v>
       </c>
@@ -16945,7 +17834,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -16969,7 +17858,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>209</v>
       </c>
@@ -16993,7 +17882,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -17017,7 +17906,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -17041,7 +17930,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -17072,20 +17961,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D71" sqref="B71:D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>66</v>
       </c>
@@ -17096,7 +17985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -17111,7 +18000,7 @@
         <v>0.56345312376589529</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -17126,7 +18015,7 @@
         <v>0.7234658674658675</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -17141,7 +18030,7 @@
         <v>0.73081494557222715</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -17156,7 +18045,7 @@
         <v>0.75995842572062089</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -17171,7 +18060,7 @@
         <v>0.84724963924963925</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -17186,7 +18075,7 @@
         <v>0.81078144712430422</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -17201,7 +18090,7 @@
         <v>0.8253872595626417</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -17216,7 +18105,7 @@
         <v>0.91994637620444075</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -17231,7 +18120,7 @@
         <v>0.99959706959706962</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <v>609637</v>
       </c>
@@ -17243,7 +18132,7 @@
         <v>0.94832498683642885</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <v>303246</v>
       </c>
@@ -17255,7 +18144,7 @@
         <v>0.89774968177651149</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>221584</v>
       </c>
@@ -17267,7 +18156,7 @@
         <v>0.77475810527835942</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>385236</v>
       </c>
@@ -17279,7 +18168,7 @@
         <v>0.73509485094850946</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>900701</v>
       </c>
@@ -17291,7 +18180,7 @@
         <v>0.76511073041997291</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>1324687</v>
       </c>
@@ -17303,7 +18192,7 @@
         <v>0.79933750387827462</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>19403050</v>
       </c>
@@ -17315,7 +18204,7 @@
         <v>50.218181818181819</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>12898540</v>
       </c>
@@ -17327,10 +18216,10 @@
         <v>50.218181818181819</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>25321632</v>
       </c>
@@ -17342,7 +18231,7 @@
         <v>33.556363636363635</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>7490979</v>
       </c>
@@ -17354,7 +18243,7 @@
         <v>25.624639540253476</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>15277914</v>
       </c>
@@ -17366,7 +18255,7 @@
         <v>25.625054930309791</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>12156075</v>
       </c>
@@ -17378,16 +18267,16 @@
         <v>25.625454545454545</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="B34">
         <v>8079665</v>
       </c>
@@ -17399,7 +18288,7 @@
         <v>38.858554767343996</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="B35">
         <v>12576521</v>
       </c>
@@ -17411,7 +18300,7 @@
         <v>36.413470920519657</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="B36">
         <v>25831030</v>
       </c>
@@ -17423,7 +18312,7 @@
         <v>48.462470755763015</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="B37">
         <v>53728812</v>
       </c>
@@ -17435,10 +18324,10 @@
         <v>62.306194228461095</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -17453,7 +18342,7 @@
         <v>0.92145725622219554</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40">
         <v>345381</v>
       </c>
@@ -17465,7 +18354,7 @@
         <v>0.95271598611388586</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41">
         <v>533011</v>
       </c>
@@ -17477,7 +18366,7 @@
         <v>0.82765834100984781</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="B42">
         <v>862335</v>
       </c>
@@ -17489,7 +18378,7 @@
         <v>0.68459125513866426</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -17504,7 +18393,7 @@
         <v>0.99984238671545178</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45">
         <v>684522</v>
       </c>
@@ -17516,7 +18405,7 @@
         <v>0.91751470369104282</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46">
         <v>996768</v>
       </c>
@@ -17528,7 +18417,7 @@
         <v>0.86730312369578477</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47">
         <v>2370729</v>
       </c>
@@ -17540,7 +18429,7 @@
         <v>0.91913289119085306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="B49">
         <v>7348896</v>
       </c>
@@ -17552,7 +18441,7 @@
         <v>20.683636363636364</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="B50">
         <v>23102298</v>
       </c>
@@ -17564,7 +18453,7 @@
         <v>33.749533250940075</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="B51">
         <v>40569034</v>
       </c>
@@ -17576,7 +18465,7 @@
         <v>40.700578268965295</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="B52">
         <v>90746637</v>
       </c>
@@ -17588,7 +18477,7 @@
         <v>38.277946150740974</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -17603,7 +18492,7 @@
         <v>0.99962566844919787</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="B55">
         <v>530970</v>
       </c>
@@ -17615,7 +18504,7 @@
         <v>0.96944648473548412</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="B56">
         <v>771196</v>
       </c>
@@ -17627,7 +18516,7 @@
         <v>0.93051960850419346</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57">
         <v>234366</v>
       </c>
@@ -17639,7 +18528,7 @@
         <v>0.85302902298114913</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="B58">
         <v>686728</v>
       </c>
@@ -17651,7 +18540,7 @@
         <v>0.8837356274973498</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="B60">
         <v>149600</v>
       </c>
@@ -17663,7 +18552,7 @@
         <v>2.0363636363636362</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="B61">
         <v>530972</v>
       </c>
@@ -17675,7 +18564,7 @@
         <v>2.6790263893387976</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62">
         <v>771197</v>
       </c>
@@ -17687,7 +18576,7 @@
         <v>3.4343896565987677</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="B63">
         <v>234366</v>
       </c>
@@ -17699,7 +18588,7 @@
         <v>5.0088920747890056</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="B64">
         <v>686730</v>
       </c>
@@ -17711,7 +18600,7 @@
         <v>4.890044122144074</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68">
         <v>255563</v>
       </c>
@@ -17723,7 +18612,7 @@
         <v>0.85847716609994407</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71">
         <v>255565</v>
       </c>
@@ -17742,21 +18631,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>156</v>
       </c>
@@ -17779,7 +18668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -17805,7 +18694,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -17831,11 +18720,11 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -17864,7 +18753,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -17893,7 +18782,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -17922,7 +18811,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -17951,7 +18840,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -17980,7 +18869,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -18009,7 +18898,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -18038,7 +18927,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -18067,7 +18956,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -18096,7 +18985,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>164</v>
       </c>
@@ -18125,7 +19014,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -18154,7 +19043,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -18183,7 +19072,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -18212,7 +19101,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -18241,7 +19130,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -18270,7 +19159,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -18299,7 +19188,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -18328,7 +19217,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -18357,7 +19246,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -18386,7 +19275,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -18415,7 +19304,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -18444,7 +19333,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -18473,7 +19362,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -18502,7 +19391,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -18531,7 +19420,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -18560,7 +19449,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -18589,7 +19478,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -18618,7 +19507,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -18647,7 +19536,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -18676,7 +19565,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="2">
         <v>20836</v>
       </c>
@@ -18702,7 +19591,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -18731,7 +19620,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -18760,7 +19649,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="2">
         <v>20804</v>
       </c>
@@ -18786,7 +19675,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -18815,7 +19704,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -18844,7 +19733,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -18873,7 +19762,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -18902,7 +19791,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>205</v>
       </c>
@@ -18931,7 +19820,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>211</v>
       </c>
@@ -18960,7 +19849,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -18989,7 +19878,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>213</v>
       </c>
@@ -19018,7 +19907,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -19047,7 +19936,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -19076,7 +19965,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>225</v>
       </c>
@@ -19105,7 +19994,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>228</v>
       </c>
@@ -19134,7 +20023,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>229</v>
       </c>
@@ -19163,7 +20052,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>230</v>
       </c>
@@ -19192,7 +20081,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>235</v>
       </c>
@@ -19221,7 +20110,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -19250,7 +20139,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -19279,7 +20168,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>240</v>
       </c>
@@ -19308,7 +20197,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>241</v>
       </c>
@@ -19337,7 +20226,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>242</v>
       </c>
@@ -19366,7 +20255,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>244</v>
       </c>
@@ -19401,14 +20290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -19425,7 +20314,7 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -19466,7 +20355,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -19515,7 +20404,7 @@
         <v>5.4607508532423132E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -19564,7 +20453,7 @@
         <v>0.1179361179361178</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -19613,7 +20502,7 @@
         <v>8.9005235602094279E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -19662,7 +20551,7 @@
         <v>0.24390243902439046</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -19711,7 +20600,7 @@
         <v>0.12743628185907041</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -19760,7 +20649,7 @@
         <v>0.16314779270633384</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -19809,7 +20698,7 @@
         <v>0.19179600886917969</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -19858,7 +20747,7 @@
         <v>8.5858585858585856E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -19907,7 +20796,7 @@
         <v>0.15683646112600536</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -19956,7 +20845,7 @@
         <v>0.17042606516290726</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -20005,7 +20894,7 @@
         <v>8.5661080074487916E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -20054,7 +20943,7 @@
         <v>0.12903225806451601</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -20103,7 +20992,7 @@
         <v>6.4000000000000057E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -20152,7 +21041,7 @@
         <v>0.22183908045977008</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -20201,7 +21090,7 @@
         <v>0.12997347480106103</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -20250,7 +21139,7 @@
         <v>0.11624203821656054</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -20299,7 +21188,7 @@
         <v>0.17348066298342535</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -20348,7 +21237,7 @@
         <v>4.5508982035928236E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -20397,7 +21286,7 @@
         <v>0.12750263435194942</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -20446,7 +21335,7 @@
         <v>0.14217252396166136</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -20495,7 +21384,7 @@
         <v>0.1789617486338797</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -20544,7 +21433,7 @@
         <v>0.16287215411558664</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -20593,7 +21482,7 @@
         <v>7.8988941548183034E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -20642,7 +21531,7 @@
         <v>8.9866156787762996E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -20691,7 +21580,7 @@
         <v>7.946026986506749E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -20740,7 +21629,7 @@
         <v>0.36294416243654815</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -20789,7 +21678,7 @@
         <v>0.20809898762654666</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -20838,7 +21727,7 @@
         <v>0.10947368421052617</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -20887,7 +21776,7 @@
         <v>-4.7169811320754707E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -20936,7 +21825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -20985,7 +21874,7 @@
         <v>0.40392156862745088</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -21034,7 +21923,7 @@
         <v>0.15974440894568676</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -21083,7 +21972,7 @@
         <v>0.14453781512605035</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -21132,7 +22021,7 @@
         <v>6.3260340632603551E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -21181,7 +22070,7 @@
         <v>3.076923076923066E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -21392,7 +22281,163 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J3:J3</xm:f>
+              <xm:sqref>K3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J4:J4</xm:f>
+              <xm:sqref>K4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J5:J5</xm:f>
+              <xm:sqref>K5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J6:J6</xm:f>
+              <xm:sqref>K6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J7:J7</xm:f>
+              <xm:sqref>K7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J8:J8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J9:J9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J10:J10</xm:f>
+              <xm:sqref>K10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J11:J11</xm:f>
+              <xm:sqref>K11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J12:J12</xm:f>
+              <xm:sqref>K12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J13:J13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J14:J14</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J15:J15</xm:f>
+              <xm:sqref>K15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J16:J16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J17:J17</xm:f>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J18:J18</xm:f>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J19:J19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J20:J20</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J21:J21</xm:f>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J22:J22</xm:f>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J23:J23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J24:J24</xm:f>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J25:J25</xm:f>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J26:J26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J27:J27</xm:f>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J28:J28</xm:f>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J29:J29</xm:f>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J30:J30</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J31:J31</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J32:J32</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J33:J33</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J34:J34</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J35:J35</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J36:J36</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J37:J37</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -21548,162 +22593,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J3:J3</xm:f>
-              <xm:sqref>K3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J4:J4</xm:f>
-              <xm:sqref>K4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J5:J5</xm:f>
-              <xm:sqref>K5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J6:J6</xm:f>
-              <xm:sqref>K6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J7:J7</xm:f>
-              <xm:sqref>K7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J8:J8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J9:J9</xm:f>
-              <xm:sqref>K9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J10:J10</xm:f>
-              <xm:sqref>K10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J11:J11</xm:f>
-              <xm:sqref>K11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J12:J12</xm:f>
-              <xm:sqref>K12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J13:J13</xm:f>
-              <xm:sqref>K13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J14:J14</xm:f>
-              <xm:sqref>K14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J15:J15</xm:f>
-              <xm:sqref>K15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J16:J16</xm:f>
-              <xm:sqref>K16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J17:J17</xm:f>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J18:J18</xm:f>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J19:J19</xm:f>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J20:J20</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J21:J21</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J22:J22</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J23:J23</xm:f>
-              <xm:sqref>K23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J24:J24</xm:f>
-              <xm:sqref>K24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J25:J25</xm:f>
-              <xm:sqref>K25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J26:J26</xm:f>
-              <xm:sqref>K26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J27:J27</xm:f>
-              <xm:sqref>K27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J28:J28</xm:f>
-              <xm:sqref>K28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J29:J29</xm:f>
-              <xm:sqref>K29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J30:J30</xm:f>
-              <xm:sqref>K30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J31:J31</xm:f>
-              <xm:sqref>K31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J32:J32</xm:f>
-              <xm:sqref>K32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J33:J33</xm:f>
-              <xm:sqref>K33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J34:J34</xm:f>
-              <xm:sqref>K34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J35:J35</xm:f>
-              <xm:sqref>K35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J36:J36</xm:f>
-              <xm:sqref>K36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J37:J37</xm:f>
-              <xm:sqref>K37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -21711,14 +22600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -21735,7 +22624,7 @@
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -21776,7 +22665,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -21825,7 +22714,7 @@
         <v>6.7395264116575593E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -21874,7 +22763,7 @@
         <v>6.991525423728806E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -21923,7 +22812,7 @@
         <v>0.26693227091633465</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -21972,7 +22861,7 @@
         <v>0.23414071510957313</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -22021,7 +22910,7 @@
         <v>0.27576974564926382</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -22070,7 +22959,7 @@
         <v>0.22063492063492052</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -22119,7 +23008,7 @@
         <v>0.1498929336188437</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -22168,7 +23057,7 @@
         <v>0.31743666169895657</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -22217,7 +23106,7 @@
         <v>0.26436781609195403</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -22266,7 +23155,7 @@
         <v>0.10593900481540919</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -22315,7 +23204,7 @@
         <v>0.17662337662337646</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -22364,7 +23253,7 @@
         <v>0.19841269841269837</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -22413,7 +23302,7 @@
         <v>0.16172506738544468</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -22462,7 +23351,7 @@
         <v>0.15880893300248133</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -22511,7 +23400,7 @@
         <v>0.18925831202046028</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -22560,7 +23449,7 @@
         <v>0.20107719928186718</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -22609,7 +23498,7 @@
         <v>0.1568627450980391</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -22658,7 +23547,7 @@
         <v>0.6638935108153079</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -22707,7 +23596,7 @@
         <v>0.26420890937019981</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -22756,7 +23645,7 @@
         <v>0.27194244604316542</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -22805,7 +23694,7 @@
         <v>0.19191919191919204</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -22854,7 +23743,7 @@
         <v>0.17849462365591395</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -22903,7 +23792,7 @@
         <v>0.27472527472527464</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -22952,7 +23841,7 @@
         <v>0.18546845124282996</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -23001,7 +23890,7 @@
         <v>0.21120000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -23050,7 +23939,7 @@
         <v>0.1920668058455115</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -23099,7 +23988,7 @@
         <v>0.15594059405940586</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -23148,7 +24037,7 @@
         <v>0.28216374269005851</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -23197,7 +24086,7 @@
         <v>0.2584269662921348</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -23246,7 +24135,7 @@
         <v>0.24626865671641784</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -23286,7 +24175,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -23380,7 +24269,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000003000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom2 Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -23396,22 +24301,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom2 Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -23419,14 +24308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="7"/>
@@ -23434,7 +24323,7 @@
     <col min="5" max="5" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -23448,12 +24337,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -23468,172 +24357,172 @@
         <v>23.462264150943398</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>120</v>
       </c>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E57C5-52B1-4ACD-9082-6FDFBFF643F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF65878-34BB-41A8-A1DA-EAB16E486022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="2940" windowWidth="21570" windowHeight="11370" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="274">
   <si>
     <t>Memory</t>
   </si>
@@ -801,6 +801,69 @@
   </si>
   <si>
     <t>Demo3</t>
+  </si>
+  <si>
+    <t>V1.9</t>
+  </si>
+  <si>
+    <t>V1.9 Os</t>
+  </si>
+  <si>
+    <t>16x</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>V1.9 Unroll</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>No MM</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>FC F8</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>LOS</t>
+  </si>
+  <si>
+    <t>VRAM Spare</t>
+  </si>
+  <si>
+    <t>asas</t>
+  </si>
+  <si>
+    <t>New div</t>
+  </si>
+  <si>
+    <t>New u64 div</t>
+  </si>
+  <si>
+    <t>I_getTime</t>
+  </si>
+  <si>
+    <t>FPS (real gba)</t>
   </si>
 </sst>
 </file>
@@ -10443,16 +10506,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10484,13 +10547,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -12022,10 +12085,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:J209"/>
+  <dimension ref="A2:P278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="J272" sqref="J272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13777,7 +13840,7 @@
         <v>21.162499999999998</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:F196" si="14">AVERAGE(C187:C194)</f>
+        <f t="shared" ref="C196" si="14">AVERAGE(C187:C194)</f>
         <v>21.700000000000003</v>
       </c>
       <c r="F196">
@@ -13943,7 +14006,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="1:10">
       <c r="B209">
         <f>AVERAGE(B200:B207)</f>
         <v>21.887499999999999</v>
@@ -13967,6 +14030,845 @@
       <c r="J209" s="1">
         <f>H209/I209</f>
         <v>1.008695652173913</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
+        <v>250</v>
+      </c>
+      <c r="B214" t="s">
+        <v>232</v>
+      </c>
+      <c r="C214" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215">
+        <v>24.7</v>
+      </c>
+      <c r="B215">
+        <v>24.8</v>
+      </c>
+      <c r="C215">
+        <v>25.2</v>
+      </c>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
+        <v>159</v>
+      </c>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218">
+        <v>24.7</v>
+      </c>
+      <c r="B218">
+        <v>24.9</v>
+      </c>
+      <c r="C218">
+        <v>25.2</v>
+      </c>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221">
+        <v>24.7</v>
+      </c>
+      <c r="B221">
+        <v>25</v>
+      </c>
+      <c r="C221">
+        <v>25.6</v>
+      </c>
+      <c r="D221">
+        <v>26.2</v>
+      </c>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="225" spans="1:16">
+      <c r="B225" t="s">
+        <v>258</v>
+      </c>
+      <c r="C225" t="s">
+        <v>260</v>
+      </c>
+      <c r="D225" t="s">
+        <v>264</v>
+      </c>
+      <c r="F225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
+      <c r="A226" t="s">
+        <v>259</v>
+      </c>
+      <c r="B226">
+        <v>26.2</v>
+      </c>
+      <c r="C226">
+        <v>26.2</v>
+      </c>
+      <c r="D226">
+        <v>26</v>
+      </c>
+      <c r="H226">
+        <v>26.2</v>
+      </c>
+      <c r="I226">
+        <v>26.1</v>
+      </c>
+      <c r="J226">
+        <v>26.1</v>
+      </c>
+      <c r="L226">
+        <v>26.2</v>
+      </c>
+      <c r="M226">
+        <v>25</v>
+      </c>
+      <c r="N226">
+        <v>27.2</v>
+      </c>
+      <c r="P226">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
+      <c r="A227" t="s">
+        <v>261</v>
+      </c>
+      <c r="B227">
+        <v>23.5</v>
+      </c>
+      <c r="C227">
+        <v>23.4</v>
+      </c>
+      <c r="D227">
+        <v>22.8</v>
+      </c>
+      <c r="H227">
+        <v>23.4</v>
+      </c>
+      <c r="I227">
+        <v>23.5</v>
+      </c>
+      <c r="J227">
+        <v>23.4</v>
+      </c>
+      <c r="L227">
+        <v>23.5</v>
+      </c>
+      <c r="M227">
+        <v>22.5</v>
+      </c>
+      <c r="N227">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16">
+      <c r="A228" t="s">
+        <v>262</v>
+      </c>
+      <c r="B228">
+        <v>24.6</v>
+      </c>
+      <c r="C228">
+        <v>24.2</v>
+      </c>
+      <c r="D228">
+        <v>22</v>
+      </c>
+      <c r="F228">
+        <v>24.1</v>
+      </c>
+      <c r="G228">
+        <v>24.2</v>
+      </c>
+      <c r="H228">
+        <v>24.6</v>
+      </c>
+      <c r="I228">
+        <v>24.5</v>
+      </c>
+      <c r="J228">
+        <v>24.6</v>
+      </c>
+      <c r="L228">
+        <v>25.6</v>
+      </c>
+      <c r="M228">
+        <v>23.6</v>
+      </c>
+      <c r="N228">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16">
+      <c r="A229" t="s">
+        <v>263</v>
+      </c>
+      <c r="B229">
+        <v>13.6</v>
+      </c>
+      <c r="C229">
+        <v>13.5</v>
+      </c>
+      <c r="D229">
+        <v>12.8</v>
+      </c>
+      <c r="H229">
+        <v>13.6</v>
+      </c>
+      <c r="I229">
+        <v>13.7</v>
+      </c>
+      <c r="J229">
+        <v>13.6</v>
+      </c>
+      <c r="L229">
+        <v>13.7</v>
+      </c>
+      <c r="M229">
+        <v>13.4</v>
+      </c>
+      <c r="N229">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16">
+      <c r="A232" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232">
+        <v>26.1</v>
+      </c>
+      <c r="C232">
+        <v>26.7</v>
+      </c>
+      <c r="E232">
+        <v>26.5</v>
+      </c>
+      <c r="G232">
+        <v>26.7</v>
+      </c>
+      <c r="H232">
+        <v>26.9</v>
+      </c>
+      <c r="I232">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
+      <c r="A233" t="s">
+        <v>261</v>
+      </c>
+      <c r="B233">
+        <v>23.4</v>
+      </c>
+      <c r="C233">
+        <v>23.4</v>
+      </c>
+      <c r="E233">
+        <v>23.3</v>
+      </c>
+      <c r="G233">
+        <v>23.4</v>
+      </c>
+      <c r="H233">
+        <v>23.7</v>
+      </c>
+      <c r="I233">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="A234" t="s">
+        <v>262</v>
+      </c>
+      <c r="B234">
+        <v>24.6</v>
+      </c>
+      <c r="C234">
+        <v>24.6</v>
+      </c>
+      <c r="E234">
+        <v>24.4</v>
+      </c>
+      <c r="G234">
+        <v>24.6</v>
+      </c>
+      <c r="H234">
+        <v>25.1</v>
+      </c>
+      <c r="I234">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
+      <c r="A235" t="s">
+        <v>263</v>
+      </c>
+      <c r="B235">
+        <v>13.6</v>
+      </c>
+      <c r="C235">
+        <v>13.6</v>
+      </c>
+      <c r="E235">
+        <v>13.6</v>
+      </c>
+      <c r="G235">
+        <v>13.6</v>
+      </c>
+      <c r="H235">
+        <v>14.5</v>
+      </c>
+      <c r="I235">
+        <v>14.7</v>
+      </c>
+      <c r="J235">
+        <v>14</v>
+      </c>
+      <c r="K235">
+        <v>15.5</v>
+      </c>
+      <c r="L235">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" t="s">
+        <v>259</v>
+      </c>
+      <c r="B241">
+        <v>26.2</v>
+      </c>
+      <c r="C241">
+        <v>26.2</v>
+      </c>
+      <c r="D241">
+        <v>26.4</v>
+      </c>
+      <c r="E241">
+        <v>26.4</v>
+      </c>
+      <c r="F241">
+        <v>26.4</v>
+      </c>
+      <c r="G241">
+        <v>26.9</v>
+      </c>
+      <c r="H241">
+        <v>30.1</v>
+      </c>
+      <c r="I241" s="1">
+        <f>G241/B241</f>
+        <v>1.0267175572519083</v>
+      </c>
+      <c r="J241" s="1">
+        <f>H241/B241</f>
+        <v>1.1488549618320612</v>
+      </c>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" t="s">
+        <v>261</v>
+      </c>
+      <c r="B242">
+        <v>23.4</v>
+      </c>
+      <c r="C242">
+        <v>23.6</v>
+      </c>
+      <c r="D242">
+        <v>23.7</v>
+      </c>
+      <c r="E242">
+        <v>23.7</v>
+      </c>
+      <c r="F242">
+        <v>23.8</v>
+      </c>
+      <c r="G242">
+        <v>23.7</v>
+      </c>
+      <c r="H242">
+        <v>25.3</v>
+      </c>
+      <c r="I242" s="1">
+        <f t="shared" ref="I242:I244" si="17">F242/B242</f>
+        <v>1.0170940170940173</v>
+      </c>
+      <c r="J242" s="1">
+        <f>H242/B242</f>
+        <v>1.0811965811965814</v>
+      </c>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" t="s">
+        <v>262</v>
+      </c>
+      <c r="B243">
+        <v>24.8</v>
+      </c>
+      <c r="C243">
+        <v>25.3</v>
+      </c>
+      <c r="D243">
+        <v>25.4</v>
+      </c>
+      <c r="E243">
+        <v>25.4</v>
+      </c>
+      <c r="F243">
+        <v>25.5</v>
+      </c>
+      <c r="G243">
+        <v>25.5</v>
+      </c>
+      <c r="H243">
+        <v>27.3</v>
+      </c>
+      <c r="I243" s="1">
+        <f t="shared" si="17"/>
+        <v>1.0282258064516128</v>
+      </c>
+      <c r="J243" s="1">
+        <f>H243/B243</f>
+        <v>1.1008064516129032</v>
+      </c>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" t="s">
+        <v>263</v>
+      </c>
+      <c r="B244">
+        <v>13.5</v>
+      </c>
+      <c r="C244">
+        <v>14.2</v>
+      </c>
+      <c r="D244">
+        <v>14.3</v>
+      </c>
+      <c r="E244">
+        <v>14.4</v>
+      </c>
+      <c r="F244">
+        <v>14.4</v>
+      </c>
+      <c r="G244">
+        <v>14.4</v>
+      </c>
+      <c r="H244">
+        <v>16.7</v>
+      </c>
+      <c r="I244" s="1">
+        <f t="shared" si="17"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="J244" s="1">
+        <f>H244/B244</f>
+        <v>1.2370370370370369</v>
+      </c>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" t="s">
+        <v>259</v>
+      </c>
+      <c r="B248">
+        <v>26.9</v>
+      </c>
+      <c r="C248">
+        <v>27</v>
+      </c>
+      <c r="D248">
+        <v>26.9</v>
+      </c>
+      <c r="F248" s="1">
+        <f>D248/B248</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" t="s">
+        <v>261</v>
+      </c>
+      <c r="B249">
+        <v>23.7</v>
+      </c>
+      <c r="C249">
+        <v>23.8</v>
+      </c>
+      <c r="D249">
+        <v>23.9</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" ref="F249" si="18">D249/B249</f>
+        <v>1.0084388185654007</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250">
+        <v>25.5</v>
+      </c>
+      <c r="C250">
+        <v>25.5</v>
+      </c>
+      <c r="D250">
+        <v>25.7</v>
+      </c>
+      <c r="F250" s="1">
+        <f>D250/B250</f>
+        <v>1.0078431372549019</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" t="s">
+        <v>263</v>
+      </c>
+      <c r="B251">
+        <v>14.4</v>
+      </c>
+      <c r="C251">
+        <v>14.5</v>
+      </c>
+      <c r="D251">
+        <v>14.6</v>
+      </c>
+      <c r="E251">
+        <v>15</v>
+      </c>
+      <c r="F251" s="1">
+        <f>D251/B251</f>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="G251" s="1">
+        <f>E251/B251</f>
+        <v>1.0416666666666667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+      <c r="B253">
+        <v>27</v>
+      </c>
+      <c r="C253">
+        <v>26.9</v>
+      </c>
+      <c r="D253">
+        <v>27</v>
+      </c>
+      <c r="E253">
+        <v>27</v>
+      </c>
+      <c r="G253">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254">
+        <v>23.8</v>
+      </c>
+      <c r="C254">
+        <v>23.8</v>
+      </c>
+      <c r="D254">
+        <v>23.8</v>
+      </c>
+      <c r="E254">
+        <v>23.8</v>
+      </c>
+      <c r="G254">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255">
+        <v>25.6</v>
+      </c>
+      <c r="C255">
+        <v>25.5</v>
+      </c>
+      <c r="D255">
+        <v>25.6</v>
+      </c>
+      <c r="E255">
+        <v>25.6</v>
+      </c>
+      <c r="G255">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" t="s">
+        <v>263</v>
+      </c>
+      <c r="B256">
+        <v>14.5</v>
+      </c>
+      <c r="C256">
+        <v>14.5</v>
+      </c>
+      <c r="D256">
+        <v>14.6</v>
+      </c>
+      <c r="E256">
+        <v>14.6</v>
+      </c>
+      <c r="G256">
+        <v>14.3</v>
+      </c>
+      <c r="H256">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>27</v>
+      </c>
+      <c r="C258">
+        <v>28</v>
+      </c>
+      <c r="D258" s="1">
+        <f>C258/B258</f>
+        <v>1.037037037037037</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259">
+        <v>23.8</v>
+      </c>
+      <c r="C259">
+        <v>24.5</v>
+      </c>
+      <c r="D259" s="1">
+        <f>C259/B259</f>
+        <v>1.0294117647058822</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260">
+        <v>25.6</v>
+      </c>
+      <c r="C260">
+        <v>26.2</v>
+      </c>
+      <c r="D260" s="1">
+        <f>C260/B260</f>
+        <v>1.0234375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
+        <v>14.5</v>
+      </c>
+      <c r="C261">
+        <v>14.7</v>
+      </c>
+      <c r="D261" s="1">
+        <f>C261/B261</f>
+        <v>1.0137931034482759</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>261</v>
+      </c>
+      <c r="B264">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>262</v>
+      </c>
+      <c r="B265">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>259</v>
+      </c>
+      <c r="B267">
+        <v>28</v>
+      </c>
+      <c r="C267">
+        <v>28.8</v>
+      </c>
+      <c r="D267">
+        <v>28.9</v>
+      </c>
+      <c r="E267" s="1">
+        <f>D267/B267</f>
+        <v>1.032142857142857</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>261</v>
+      </c>
+      <c r="B268">
+        <v>24.5</v>
+      </c>
+      <c r="C268">
+        <v>25.2</v>
+      </c>
+      <c r="D268">
+        <v>25.3</v>
+      </c>
+      <c r="E268" s="1">
+        <f t="shared" ref="E268:E270" si="19">D268/B268</f>
+        <v>1.0326530612244897</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>262</v>
+      </c>
+      <c r="B269">
+        <v>26.2</v>
+      </c>
+      <c r="C269">
+        <v>27.2</v>
+      </c>
+      <c r="D269">
+        <v>27.3</v>
+      </c>
+      <c r="E269" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0419847328244276</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>263</v>
+      </c>
+      <c r="B270">
+        <v>14.7</v>
+      </c>
+      <c r="C270">
+        <v>15.4</v>
+      </c>
+      <c r="D270">
+        <v>15.5</v>
+      </c>
+      <c r="E270" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0544217687074831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>124210</v>
+      </c>
+      <c r="B274">
+        <v>29444</v>
+      </c>
+      <c r="C274" s="1">
+        <f>B274/A274</f>
+        <v>0.23705015699219065</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>742611</v>
+      </c>
+      <c r="B275">
+        <v>204679</v>
+      </c>
+      <c r="C275" s="1">
+        <f>B275/A275</f>
+        <v>0.2756207489520085</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>457391</v>
+      </c>
+      <c r="B276">
+        <v>147332</v>
+      </c>
+      <c r="C276" s="1">
+        <f>B276/A276</f>
+        <v>0.32211390254727357</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>891854</v>
+      </c>
+      <c r="B277">
+        <v>302813</v>
+      </c>
+      <c r="C277" s="1">
+        <f>B277/A277</f>
+        <v>0.33953203102750001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>700363</v>
+      </c>
+      <c r="B278">
+        <v>352809</v>
+      </c>
+      <c r="C278" s="1">
+        <f>B278/A278</f>
+        <v>0.50375162594254697</v>
       </c>
     </row>
   </sheetData>
@@ -17962,10 +18864,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D71" sqref="B71:D71"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18624,6 +19526,30 @@
         <v>4.779840745015945</v>
       </c>
     </row>
+    <row r="77" spans="2:4">
+      <c r="B77">
+        <v>75736</v>
+      </c>
+      <c r="C77">
+        <v>122</v>
+      </c>
+      <c r="D77" s="1">
+        <f>(B77-C77)/B77</f>
+        <v>0.99838914122742162</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78">
+        <v>219440</v>
+      </c>
+      <c r="C78">
+        <v>17985</v>
+      </c>
+      <c r="D78" s="1">
+        <f>(B78-C78)/B78</f>
+        <v>0.91804137805322639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18632,24 +19558,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
     <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D1" t="s">
@@ -18672,7 +19599,7 @@
       <c r="A2" t="s">
         <v>81</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>944</v>
       </c>
       <c r="D2" s="2">
@@ -18698,7 +19625,7 @@
       <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>924</v>
       </c>
       <c r="D3" s="2">
@@ -18731,7 +19658,7 @@
       <c r="B5" s="2">
         <v>8124</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>900</v>
       </c>
       <c r="D5" s="2">
@@ -18760,7 +19687,7 @@
       <c r="B6" s="2">
         <v>8984</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>900</v>
       </c>
       <c r="D6" s="2">
@@ -18789,7 +19716,7 @@
       <c r="B7" s="2">
         <v>10568</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>900</v>
       </c>
       <c r="D7" s="2">
@@ -18818,7 +19745,7 @@
       <c r="B8" s="2">
         <v>12544</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>900</v>
       </c>
       <c r="D8" s="2">
@@ -18847,7 +19774,7 @@
       <c r="B9" s="2">
         <v>15736</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>900</v>
       </c>
       <c r="D9" s="2">
@@ -18876,7 +19803,7 @@
       <c r="B10" s="2">
         <v>16672</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>900</v>
       </c>
       <c r="D10" s="2">
@@ -18905,7 +19832,7 @@
       <c r="B11" s="2">
         <v>17080</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>900</v>
       </c>
       <c r="D11" s="2">
@@ -18934,7 +19861,7 @@
       <c r="B12" s="2">
         <v>17316</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>900</v>
       </c>
       <c r="D12" s="2">
@@ -20269,7 +21196,7 @@
         <v>6904</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" ref="E58" si="125">C58+D58+B58</f>
+        <f t="shared" ref="E58:E59" si="125">C58+D58+B58</f>
         <v>31888</v>
       </c>
       <c r="F58" s="2">
@@ -20284,17 +21211,308 @@
         <v>32768</v>
       </c>
     </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="2">
+        <v>22004</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4080</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="125"/>
+        <v>32984</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" ref="F59" si="128">H59-E59</f>
+        <v>-216</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" ref="G59" si="129">1-(F59/H59)</f>
+        <v>1.006591796875</v>
+      </c>
+      <c r="H59">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="2">
+        <v>19216</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4080</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6896</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ref="E60" si="130">C60+D60+B60</f>
+        <v>30192</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" ref="F60" si="131">H60-E60</f>
+        <v>2576</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" ref="G60" si="132">1-(F60/H60)</f>
+        <v>0.92138671875</v>
+      </c>
+      <c r="H60">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20558</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4080</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6896</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ref="E61:E62" si="133">C61+D61+B61</f>
+        <v>31534</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" ref="F61" si="134">H61-E61</f>
+        <v>1234</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" ref="G61" si="135">1-(F61/H61)</f>
+        <v>0.96234130859375</v>
+      </c>
+      <c r="H61">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="2">
+        <v>19920</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4080</v>
+      </c>
+      <c r="D62" s="2">
+        <v>6896</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="133"/>
+        <v>30896</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ref="F62" si="136">H62-E62</f>
+        <v>1872</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" ref="G62" si="137">1-(F62/H62)</f>
+        <v>0.94287109375</v>
+      </c>
+      <c r="H62">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="2">
+        <v>21212</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4080</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6896</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" ref="E63:E64" si="138">C63+D63+B63</f>
+        <v>32188</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" ref="F63" si="139">H63-E63</f>
+        <v>580</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" ref="G63" si="140">1-(F63/H63)</f>
+        <v>0.9822998046875</v>
+      </c>
+      <c r="H63">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" s="2">
+        <v>21156</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6900</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="138"/>
+        <v>31144</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" ref="F64" si="141">H64-E64</f>
+        <v>1624</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" ref="G64" si="142">1-(F64/H64)</f>
+        <v>0.950439453125</v>
+      </c>
+      <c r="H64">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="2">
+        <v>21796</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6900</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ref="E65" si="143">C65+D65+B65</f>
+        <v>31784</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ref="F65" si="144">H65-E65</f>
+        <v>984</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" ref="G65" si="145">1-(F65/H65)</f>
+        <v>0.969970703125</v>
+      </c>
+      <c r="H65">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="2">
+        <v>21860</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="146">C66+D66+B66</f>
+        <v>31840</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ref="F66" si="147">H66-E66</f>
+        <v>928</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" ref="G66" si="148">1-(F66/H66)</f>
+        <v>0.9716796875</v>
+      </c>
+      <c r="H66">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="2">
+        <v>21752</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67" si="149">C67+D67+B67</f>
+        <v>31732</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67" si="150">H67-E67</f>
+        <v>1036</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67" si="151">1-(F67/H67)</f>
+        <v>0.9683837890625</v>
+      </c>
+      <c r="H67">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="2">
+        <v>21824</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ref="E68" si="152">C68+D68+B68</f>
+        <v>31804</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68" si="153">H68-E68</f>
+        <v>964</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" ref="G68" si="154">1-(F68/H68)</f>
+        <v>0.9705810546875</v>
+      </c>
+      <c r="H68">
+        <v>32768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20311,10 +21529,13 @@
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -20352,10 +21573,19 @@
         <v>199</v>
       </c>
       <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -20396,15 +21626,25 @@
         <v>618</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L31" si="4">K2/30</f>
+        <f t="shared" ref="L2:N31" si="4">K2/30</f>
         <v>20.6</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M37" si="5">(L2/G2)-1</f>
-        <v>5.4607508532423132E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>623</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="4"/>
+        <v>20.766666666666666</v>
+      </c>
+      <c r="O2" s="4">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(O2/G2)-1</f>
+        <v>0.12627986348122855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -20412,11 +21652,11 @@
         <v>152668</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C37" si="6">$E$2-B3</f>
+        <f t="shared" ref="C3:C37" si="5">$E$2-B3</f>
         <v>109476</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D37" si="7">1-(C3/$E$2)</f>
+        <f t="shared" ref="D3:D37" si="6">1-(C3/$E$2)</f>
         <v>0.5823822021484375</v>
       </c>
       <c r="E3">
@@ -20448,12 +21688,22 @@
         <f t="shared" si="4"/>
         <v>15.166666666666666</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" si="5"/>
-        <v>0.1179361179361178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>448</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="4"/>
+        <v>14.933333333333334</v>
+      </c>
+      <c r="O3" s="4">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P37" si="7">(O3/G3)-1</f>
+        <v>0.17936117936117935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -20461,11 +21711,11 @@
         <v>167620</v>
       </c>
       <c r="C4">
+        <f t="shared" si="5"/>
+        <v>94524</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="6"/>
-        <v>94524</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="7"/>
         <v>0.6394195556640625</v>
       </c>
       <c r="E4">
@@ -20497,12 +21747,22 @@
         <f t="shared" si="4"/>
         <v>27.733333333333334</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" si="5"/>
-        <v>8.9005235602094279E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>945</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="4"/>
+        <v>31.5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33507853403141374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -20510,11 +21770,11 @@
         <v>134604</v>
       </c>
       <c r="C5">
+        <f t="shared" si="5"/>
+        <v>127540</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="6"/>
-        <v>127540</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="7"/>
         <v>0.5134735107421875</v>
       </c>
       <c r="E5">
@@ -20543,15 +21803,25 @@
         <v>1071</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" ref="L5:L10" si="8">K5/30</f>
+        <f t="shared" ref="L5:N10" si="8">K5/30</f>
         <v>35.700000000000003</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" si="5"/>
-        <v>0.24390243902439046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>1078</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="8"/>
+        <v>35.93333333333333</v>
+      </c>
+      <c r="O5" s="4">
+        <v>35</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21951219512195119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -20559,11 +21829,11 @@
         <v>133620</v>
       </c>
       <c r="C6">
+        <f t="shared" si="5"/>
+        <v>128524</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="6"/>
-        <v>128524</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="7"/>
         <v>0.5097198486328125</v>
       </c>
       <c r="E6">
@@ -20595,12 +21865,22 @@
         <f t="shared" si="8"/>
         <v>25.066666666666666</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="5"/>
-        <v>0.12743628185907041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>789</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="8"/>
+        <v>26.3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25937031484257855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -20608,11 +21888,11 @@
         <v>197068</v>
       </c>
       <c r="C7">
+        <f t="shared" si="5"/>
+        <v>65076</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="6"/>
-        <v>65076</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="7"/>
         <v>0.7517547607421875</v>
       </c>
       <c r="E7">
@@ -20644,12 +21924,22 @@
         <f t="shared" si="8"/>
         <v>20.2</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="5"/>
-        <v>0.16314779270633384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>630</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="O7" s="4">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.32437619961612274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -20657,11 +21947,11 @@
         <v>154032</v>
       </c>
       <c r="C8">
+        <f t="shared" si="5"/>
+        <v>108112</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="6"/>
-        <v>108112</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="7"/>
         <v>0.58758544921875</v>
       </c>
       <c r="E8">
@@ -20693,12 +21983,22 @@
         <f t="shared" si="8"/>
         <v>35.833333333333336</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="5"/>
-        <v>0.19179600886917969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>1077</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="8"/>
+        <v>35.9</v>
+      </c>
+      <c r="O8" s="4">
+        <v>35</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.16407982261640797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -20706,11 +22006,11 @@
         <v>103356</v>
       </c>
       <c r="C9">
+        <f t="shared" si="5"/>
+        <v>158788</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="6"/>
-        <v>158788</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="7"/>
         <v>0.3942718505859375</v>
       </c>
       <c r="E9">
@@ -20742,12 +22042,22 @@
         <f t="shared" si="8"/>
         <v>35.833333333333336</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="5"/>
-        <v>8.5858585858585856E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>1080</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="O9" s="4">
+        <v>35</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="7"/>
+        <v>6.0606060606060552E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -20755,11 +22065,11 @@
         <v>129824</v>
       </c>
       <c r="C10">
+        <f t="shared" si="5"/>
+        <v>132320</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="6"/>
-        <v>132320</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="7"/>
         <v>0.4952392578125</v>
       </c>
       <c r="E10">
@@ -20791,12 +22101,22 @@
         <f t="shared" si="8"/>
         <v>28.766666666666666</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="5"/>
-        <v>0.15683646112600536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>952</v>
+      </c>
+      <c r="N10" s="4">
+        <f>M10/30</f>
+        <v>31.733333333333334</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -20804,11 +22124,11 @@
         <v>97796</v>
       </c>
       <c r="C11">
+        <f t="shared" si="5"/>
+        <v>164348</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="6"/>
-        <v>164348</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="7"/>
         <v>0.3730621337890625</v>
       </c>
       <c r="E11">
@@ -20840,12 +22160,22 @@
         <f t="shared" si="4"/>
         <v>31.133333333333333</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.17042606516290726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>1047</v>
+      </c>
+      <c r="N11" s="4">
+        <f>M11/30</f>
+        <v>34.9</v>
+      </c>
+      <c r="O11" s="4">
+        <v>35</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.3157894736842104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -20853,11 +22183,11 @@
         <v>197248</v>
       </c>
       <c r="C12">
+        <f t="shared" si="5"/>
+        <v>64896</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="6"/>
-        <v>64896</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="7"/>
         <v>0.75244140625</v>
       </c>
       <c r="E12">
@@ -20889,12 +22219,22 @@
         <f t="shared" si="4"/>
         <v>19.433333333333334</v>
       </c>
-      <c r="M12" s="1">
-        <f t="shared" si="5"/>
-        <v>8.5661080074487916E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>652</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="4"/>
+        <v>21.733333333333334</v>
+      </c>
+      <c r="O12" s="4">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34078212290502807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -20902,11 +22242,11 @@
         <v>138752</v>
       </c>
       <c r="C13">
+        <f t="shared" si="5"/>
+        <v>123392</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="6"/>
-        <v>123392</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="7"/>
         <v>0.529296875</v>
       </c>
       <c r="E13">
@@ -20938,12 +22278,22 @@
         <f t="shared" si="4"/>
         <v>19.833333333333332</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.12903225806451601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13">
+        <v>639</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="4"/>
+        <v>21.3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>22</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25237191650853896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -20951,11 +22301,11 @@
         <v>164136</v>
       </c>
       <c r="C14">
+        <f t="shared" si="5"/>
+        <v>98008</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="6"/>
-        <v>98008</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="7"/>
         <v>0.626129150390625</v>
       </c>
       <c r="E14">
@@ -20984,15 +22334,25 @@
         <v>665</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" ref="L14:L19" si="9">K14/30</f>
+        <f t="shared" ref="L14:N19" si="9">K14/30</f>
         <v>22.166666666666668</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="5"/>
-        <v>6.4000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14">
+        <v>758</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="9"/>
+        <v>25.266666666666666</v>
+      </c>
+      <c r="O14" s="4">
+        <v>27</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.29600000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -21000,11 +22360,11 @@
         <v>181388</v>
       </c>
       <c r="C15">
+        <f t="shared" si="5"/>
+        <v>80756</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="6"/>
-        <v>80756</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="7"/>
         <v>0.6919403076171875</v>
       </c>
       <c r="E15">
@@ -21036,12 +22396,22 @@
         <f t="shared" si="9"/>
         <v>35.43333333333333</v>
       </c>
-      <c r="M15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.22183908045977008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15">
+        <v>1081</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="9"/>
+        <v>36.033333333333331</v>
+      </c>
+      <c r="O15" s="4">
+        <v>35</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2068965517241379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -21049,11 +22419,11 @@
         <v>163660</v>
       </c>
       <c r="C16">
+        <f t="shared" si="5"/>
+        <v>98484</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="6"/>
-        <v>98484</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="7"/>
         <v>0.6243133544921875</v>
       </c>
       <c r="E16">
@@ -21085,12 +22455,22 @@
         <f t="shared" si="9"/>
         <v>28.4</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" si="5"/>
-        <v>0.12997347480106103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16">
+        <v>991</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="9"/>
+        <v>33.033333333333331</v>
+      </c>
+      <c r="O16" s="4">
+        <v>35</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.39257294429708223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -21098,11 +22478,11 @@
         <v>197616</v>
       </c>
       <c r="C17">
+        <f t="shared" si="5"/>
+        <v>64528</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="6"/>
-        <v>64528</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="7"/>
         <v>0.75384521484375</v>
       </c>
       <c r="E17">
@@ -21134,12 +22514,22 @@
         <f t="shared" si="9"/>
         <v>23.366666666666667</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11624203821656054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17">
+        <v>771</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="9"/>
+        <v>25.7</v>
+      </c>
+      <c r="O17" s="4">
+        <v>28</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33757961783439483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -21147,11 +22537,11 @@
         <v>74292</v>
       </c>
       <c r="C18">
+        <f t="shared" si="5"/>
+        <v>187852</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="6"/>
-        <v>187852</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="7"/>
         <v>0.2834014892578125</v>
       </c>
       <c r="E18">
@@ -21183,12 +22573,22 @@
         <f t="shared" si="9"/>
         <v>35.4</v>
       </c>
-      <c r="M18" s="1">
-        <f t="shared" si="5"/>
-        <v>0.17348066298342535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18">
+        <v>1083</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="9"/>
+        <v>36.1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>35</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="7"/>
+        <v>0.16022099447513805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -21196,11 +22596,11 @@
         <v>70880</v>
       </c>
       <c r="C19">
+        <f t="shared" si="5"/>
+        <v>191264</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>191264</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="7"/>
         <v>0.2703857421875</v>
       </c>
       <c r="E19">
@@ -21232,12 +22632,22 @@
         <f t="shared" si="9"/>
         <v>29.1</v>
       </c>
-      <c r="M19" s="1">
-        <f t="shared" si="5"/>
-        <v>4.5508982035928236E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19">
+        <v>935</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="9"/>
+        <v>31.166666666666668</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -21245,11 +22655,11 @@
         <v>80580</v>
       </c>
       <c r="C20">
+        <f t="shared" si="5"/>
+        <v>181564</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="6"/>
-        <v>181564</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="7"/>
         <v>0.3073883056640625</v>
       </c>
       <c r="E20">
@@ -21281,12 +22691,22 @@
         <f t="shared" si="4"/>
         <v>35.666666666666664</v>
       </c>
-      <c r="M20" s="1">
-        <f t="shared" si="5"/>
-        <v>0.12750263435194942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20">
+        <v>1083</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="4"/>
+        <v>36.1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>35</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10642781875658591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -21294,11 +22714,11 @@
         <v>113980</v>
       </c>
       <c r="C21">
+        <f t="shared" si="5"/>
+        <v>148164</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="6"/>
-        <v>148164</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="7"/>
         <v>0.4347991943359375</v>
       </c>
       <c r="E21">
@@ -21330,12 +22750,22 @@
         <f t="shared" si="4"/>
         <v>23.833333333333332</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="5"/>
-        <v>0.14217252396166136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21">
+        <v>820</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="4"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="O21" s="4">
+        <v>29</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="7"/>
+        <v>0.38977635782747599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -21343,11 +22773,11 @@
         <v>151444</v>
       </c>
       <c r="C22">
+        <f t="shared" si="5"/>
+        <v>110700</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="6"/>
-        <v>110700</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="7"/>
         <v>0.5777130126953125</v>
       </c>
       <c r="E22">
@@ -21379,12 +22809,22 @@
         <f t="shared" si="4"/>
         <v>28.766666666666666</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" si="5"/>
-        <v>0.1789617486338797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22">
+        <v>980</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="4"/>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="O22" s="4">
+        <v>35</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.43442622950819687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -21392,11 +22832,11 @@
         <v>168112</v>
       </c>
       <c r="C23">
+        <f t="shared" si="5"/>
+        <v>94032</v>
+      </c>
+      <c r="D23" s="1">
         <f t="shared" si="6"/>
-        <v>94032</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="7"/>
         <v>0.64129638671875</v>
       </c>
       <c r="E23">
@@ -21425,15 +22865,25 @@
         <v>664</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:L28" si="10">K23/30</f>
+        <f t="shared" ref="L23:N28" si="10">K23/30</f>
         <v>22.133333333333333</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" si="5"/>
-        <v>0.16287215411558664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23">
+        <v>715</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="10"/>
+        <v>23.833333333333332</v>
+      </c>
+      <c r="O23" s="4">
+        <v>26</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36602451838879158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -21441,11 +22891,11 @@
         <v>183988</v>
       </c>
       <c r="C24">
+        <f t="shared" si="5"/>
+        <v>78156</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="6"/>
-        <v>78156</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="7"/>
         <v>0.7018585205078125</v>
       </c>
       <c r="E24">
@@ -21477,12 +22927,22 @@
         <f t="shared" si="10"/>
         <v>22.766666666666666</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" si="5"/>
-        <v>7.8988941548183034E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24">
+        <v>752</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="10"/>
+        <v>25.066666666666666</v>
+      </c>
+      <c r="O24" s="4">
+        <v>26</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="7"/>
+        <v>0.23222748815165861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -21490,11 +22950,11 @@
         <v>156788</v>
       </c>
       <c r="C25">
+        <f t="shared" si="5"/>
+        <v>105356</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>105356</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="7"/>
         <v>0.5980987548828125</v>
       </c>
       <c r="E25">
@@ -21526,12 +22986,22 @@
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="M25" s="1">
-        <f t="shared" si="5"/>
-        <v>8.9866156787762996E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25">
+        <v>768</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="10"/>
+        <v>25.6</v>
+      </c>
+      <c r="O25" s="4">
+        <v>27</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="7"/>
+        <v>0.54875717017208414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -21539,11 +23009,11 @@
         <v>136976</v>
       </c>
       <c r="C26">
+        <f t="shared" si="5"/>
+        <v>125168</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>125168</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="7"/>
         <v>0.52252197265625</v>
       </c>
       <c r="E26">
@@ -21575,12 +23045,22 @@
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" si="5"/>
-        <v>7.946026986506749E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26">
+        <v>808</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="10"/>
+        <v>26.933333333333334</v>
+      </c>
+      <c r="O26" s="4">
+        <v>29</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -21588,11 +23068,11 @@
         <v>68728</v>
       </c>
       <c r="C27">
+        <f t="shared" si="5"/>
+        <v>193416</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>193416</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="7"/>
         <v>0.262176513671875</v>
       </c>
       <c r="E27">
@@ -21624,12 +23104,22 @@
         <f t="shared" si="10"/>
         <v>35.799999999999997</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36294416243654815</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27">
+        <v>1075</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="10"/>
+        <v>35.833333333333336</v>
+      </c>
+      <c r="O27" s="4">
+        <v>35</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.3324873096446701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -21637,11 +23127,11 @@
         <v>119224</v>
       </c>
       <c r="C28">
+        <f t="shared" si="5"/>
+        <v>142920</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>142920</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="7"/>
         <v>0.454803466796875</v>
       </c>
       <c r="E28">
@@ -21673,12 +23163,22 @@
         <f t="shared" si="10"/>
         <v>35.799999999999997</v>
       </c>
-      <c r="M28" s="1">
-        <f t="shared" si="5"/>
-        <v>0.20809898762654666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28">
+        <v>1080</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -21686,11 +23186,11 @@
         <v>106076</v>
       </c>
       <c r="C29">
+        <f t="shared" si="5"/>
+        <v>156068</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>156068</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="7"/>
         <v>0.4046478271484375</v>
       </c>
       <c r="E29">
@@ -21722,12 +23222,22 @@
         <f t="shared" si="4"/>
         <v>17.566666666666666</v>
       </c>
-      <c r="M29" s="1">
-        <f t="shared" si="5"/>
-        <v>0.10947368421052617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29">
+        <v>555</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="4"/>
+        <v>18.5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>20</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="7"/>
+        <v>0.26315789473684204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -21735,11 +23245,11 @@
         <v>142768</v>
       </c>
       <c r="C30">
+        <f t="shared" si="5"/>
+        <v>119376</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>119376</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="7"/>
         <v>0.54461669921875</v>
       </c>
       <c r="E30">
@@ -21771,12 +23281,22 @@
         <f t="shared" si="4"/>
         <v>6.7333333333333334</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.7169811320754707E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30">
+        <v>230</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="4"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="O30" s="4">
+        <v>8</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="7"/>
+        <v>0.13207547169811318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -21784,11 +23304,11 @@
         <v>161720</v>
       </c>
       <c r="C31">
+        <f t="shared" si="5"/>
+        <v>100424</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>100424</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="7"/>
         <v>0.616912841796875</v>
       </c>
       <c r="E31">
@@ -21820,12 +23340,22 @@
         <f t="shared" si="4"/>
         <v>11.733333333333333</v>
       </c>
-      <c r="M31" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31">
+        <v>380</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="4"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="O31" s="4">
+        <v>14</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="7"/>
+        <v>0.19318181818181834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -21833,11 +23363,11 @@
         <v>110740</v>
       </c>
       <c r="C32">
+        <f t="shared" si="5"/>
+        <v>151404</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>151404</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="7"/>
         <v>0.4224395751953125</v>
       </c>
       <c r="E32">
@@ -21866,15 +23396,25 @@
         <v>1074</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32:L37" si="11">K32/30</f>
+        <f t="shared" ref="L32:N37" si="11">K32/30</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="M32" s="1">
-        <f t="shared" si="5"/>
-        <v>0.40392156862745088</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32">
+        <v>1076</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="11"/>
+        <v>35.866666666666667</v>
+      </c>
+      <c r="O32" s="4">
+        <v>35</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="7"/>
+        <v>0.37254901960784315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -21882,11 +23422,11 @@
         <v>168980</v>
       </c>
       <c r="C33">
+        <f t="shared" si="5"/>
+        <v>93164</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="6"/>
-        <v>93164</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="7"/>
         <v>0.6446075439453125</v>
       </c>
       <c r="E33">
@@ -21918,12 +23458,22 @@
         <f t="shared" si="11"/>
         <v>24.2</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="5"/>
-        <v>0.15974440894568676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33">
+        <v>785</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="11"/>
+        <v>26.166666666666668</v>
+      </c>
+      <c r="O33" s="4">
+        <v>29</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.38977635782747599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -21931,11 +23481,11 @@
         <v>184264</v>
       </c>
       <c r="C34">
+        <f t="shared" si="5"/>
+        <v>77880</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" si="6"/>
-        <v>77880</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="7"/>
         <v>0.702911376953125</v>
       </c>
       <c r="E34">
@@ -21967,12 +23517,22 @@
         <f t="shared" si="11"/>
         <v>22.7</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" si="5"/>
-        <v>0.14453781512605035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34">
+        <v>787</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="11"/>
+        <v>26.233333333333334</v>
+      </c>
+      <c r="O34" s="4">
+        <v>28</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="7"/>
+        <v>0.41176470588235303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -21980,11 +23540,11 @@
         <v>195892</v>
       </c>
       <c r="C35">
+        <f t="shared" si="5"/>
+        <v>66252</v>
+      </c>
+      <c r="D35" s="1">
         <f t="shared" si="6"/>
-        <v>66252</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="7"/>
         <v>0.7472686767578125</v>
       </c>
       <c r="E35">
@@ -22016,12 +23576,22 @@
         <f t="shared" si="11"/>
         <v>14.566666666666666</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="5"/>
-        <v>6.3260340632603551E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35">
+        <v>467</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="11"/>
+        <v>15.566666666666666</v>
+      </c>
+      <c r="O35" s="4">
+        <v>17</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="7"/>
+        <v>0.24087591240875916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -22029,11 +23599,11 @@
         <v>186336</v>
       </c>
       <c r="C36">
+        <f t="shared" si="5"/>
+        <v>75808</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>75808</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="7"/>
         <v>0.7108154296875</v>
       </c>
       <c r="E36">
@@ -22065,12 +23635,22 @@
         <f t="shared" si="11"/>
         <v>11.166666666666666</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="5"/>
-        <v>3.076923076923066E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36">
+        <v>370</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="11"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="O36" s="4">
+        <v>13</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -22078,11 +23658,11 @@
         <v>198756</v>
       </c>
       <c r="C37">
+        <f t="shared" si="5"/>
+        <v>63388</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>63388</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="7"/>
         <v>0.7581939697265625</v>
       </c>
       <c r="E37">
@@ -22114,14 +23694,24 @@
         <f t="shared" si="11"/>
         <v>9.4</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="5"/>
-        <v>8.4615384615384759E-2</v>
+      <c r="M37">
+        <v>271</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="11"/>
+        <v>9.0333333333333332</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C37">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="-16384"/>
         <cfvo type="num" val="0"/>
@@ -22133,7 +23723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="10"/>
         <cfvo type="num" val="15"/>
@@ -22145,7 +23735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="10"/>
         <cfvo type="num" val="15"/>
@@ -22157,6 +23747,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I28">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I19">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I37">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L10 N2:N10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -22168,7 +23794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I19">
+  <conditionalFormatting sqref="L24:L28 N24:N28">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -22180,7 +23806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I37">
+  <conditionalFormatting sqref="L15:L19 N15:N19">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -22192,7 +23818,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L10">
+  <conditionalFormatting sqref="L33:L37 N33:N37">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L14 N11:N14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L23 N20:N23">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L32 N29:N32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -22204,83 +23878,168 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L28">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L37">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L14">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L23">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L32">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -22437,162 +24196,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -22601,10 +24204,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O31" activeCellId="4" sqref="G31 I31 L31 N31 O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22621,10 +24224,13 @@
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -22662,10 +24268,19 @@
         <v>199</v>
       </c>
       <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -22709,12 +24324,22 @@
         <f t="shared" ref="L2" si="4">K2/30</f>
         <v>19.533333333333335</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M31" si="5">(L2/G2)-1</f>
-        <v>6.7395264116575593E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>610</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" ref="N2:N31" si="5">M2/30</f>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="O2" s="4">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(O2/G2)-1</f>
+        <v>0.14754098360655732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -22758,12 +24383,22 @@
         <f t="shared" ref="L3" si="8">K3/30</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
+        <v>494</v>
+      </c>
+      <c r="N3" s="4">
         <f t="shared" si="5"/>
-        <v>6.991525423728806E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.466666666666665</v>
+      </c>
+      <c r="O3" s="4">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P31" si="9">(O3/G3)-1</f>
+        <v>0.14406779661016955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -22804,15 +24439,25 @@
         <v>954</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4" si="9">K4/30</f>
+        <f t="shared" ref="L4" si="10">K4/30</f>
         <v>31.8</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
+        <v>1072</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="5"/>
-        <v>0.26693227091633465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>35.733333333333334</v>
+      </c>
+      <c r="O4" s="4">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.39442231075697198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -22853,15 +24498,25 @@
         <v>1070</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" ref="L5:L31" si="10">K5/30</f>
+        <f t="shared" ref="L5:L31" si="11">K5/30</f>
         <v>35.666666666666664</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
+        <v>1079</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="5"/>
-        <v>0.23414071510957313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>35.966666666666669</v>
+      </c>
+      <c r="O5" s="4">
+        <v>35</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.21107266435986172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -22902,15 +24557,25 @@
         <v>953</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31.766666666666666</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
+        <v>1076</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="5"/>
-        <v>0.27576974564926382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>35.866666666666667</v>
+      </c>
+      <c r="O6" s="4">
+        <v>35</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.40562248995983952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -22951,15 +24616,25 @@
         <v>769</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25.633333333333333</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
+        <v>853</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="5"/>
-        <v>0.22063492063492052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28.433333333333334</v>
+      </c>
+      <c r="O7" s="4">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -23000,15 +24675,25 @@
         <v>1074</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35.799999999999997</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
+        <v>1081</v>
+      </c>
+      <c r="N8" s="4">
         <f t="shared" si="5"/>
-        <v>0.1498929336188437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36.033333333333331</v>
+      </c>
+      <c r="O8" s="4">
+        <v>35</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.12419700214132767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -23049,15 +24734,25 @@
         <v>884</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.466666666666665</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
+        <v>953</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" si="5"/>
-        <v>0.31743666169895657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>31.766666666666666</v>
+      </c>
+      <c r="O9" s="4">
+        <v>35</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.5648286140089418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -23098,15 +24793,25 @@
         <v>880</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.333333333333332</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
+        <v>999</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="5"/>
-        <v>0.26436781609195403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O10" s="4">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.50862068965517238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -23147,15 +24852,25 @@
         <v>689</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22.966666666666665</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
+        <v>769</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="5"/>
-        <v>0.10593900481540919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>25.633333333333333</v>
+      </c>
+      <c r="O11" s="4">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.348314606741573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -23196,15 +24911,25 @@
         <v>453</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
+        <v>477</v>
+      </c>
+      <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>0.17662337662337646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.9</v>
+      </c>
+      <c r="O12" s="4">
+        <v>17</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.32467532467532467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -23245,15 +24970,25 @@
         <v>604</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.133333333333333</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
+        <v>641</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>0.19841269841269837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.366666666666667</v>
+      </c>
+      <c r="O13" s="4">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.36904761904761907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -23294,15 +25029,25 @@
         <v>431</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14.366666666666667</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
+        <v>526</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>0.16172506738544468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.533333333333335</v>
+      </c>
+      <c r="O14" s="4">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.53638814016172498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -23343,15 +25088,25 @@
         <v>467</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.566666666666666</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
+        <v>468</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>0.15880893300248133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.6</v>
+      </c>
+      <c r="O15" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.22828784119106693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -23392,15 +25147,25 @@
         <v>465</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.5</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
+        <v>541</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="5"/>
-        <v>0.18925831202046028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.033333333333335</v>
+      </c>
+      <c r="O16" s="4">
+        <v>20</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.53452685421994883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -23441,15 +25206,25 @@
         <v>669</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22.3</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
+        <v>691</v>
+      </c>
+      <c r="N17" s="4">
         <f t="shared" si="5"/>
-        <v>0.20107719928186718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.033333333333335</v>
+      </c>
+      <c r="O17" s="4">
+        <v>24</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.29263913824057441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -23490,15 +25265,25 @@
         <v>472</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.733333333333333</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
+        <v>523</v>
+      </c>
+      <c r="N18" s="4">
         <f t="shared" si="5"/>
-        <v>0.1568627450980391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.433333333333334</v>
+      </c>
+      <c r="O18" s="4">
+        <v>19</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.39705882352941191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -23539,15 +25324,25 @@
         <v>1000</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
+        <v>1072</v>
+      </c>
+      <c r="N19" s="4">
         <f t="shared" si="5"/>
-        <v>0.6638935108153079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>35.733333333333334</v>
+      </c>
+      <c r="O19" s="4">
+        <v>35</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.74708818635607299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -23588,15 +25383,25 @@
         <v>823</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27.433333333333334</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
+        <v>930</v>
+      </c>
+      <c r="N20" s="4">
         <f t="shared" si="5"/>
-        <v>0.26420890937019981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="O20" s="4">
+        <v>34</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="9"/>
+        <v>0.56682027649769595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -23637,15 +25442,25 @@
         <v>884</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.466666666666665</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
+        <v>1020</v>
+      </c>
+      <c r="N21" s="4">
         <f t="shared" si="5"/>
-        <v>0.27194244604316542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>34</v>
+      </c>
+      <c r="O21" s="4">
+        <v>35</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="9"/>
+        <v>0.51079136690647475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -23686,15 +25501,25 @@
         <v>590</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.666666666666668</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
+        <v>627</v>
+      </c>
+      <c r="N22" s="4">
         <f t="shared" si="5"/>
-        <v>0.19191919191919204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.9</v>
+      </c>
+      <c r="O22" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.35151515151515156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -23735,15 +25560,25 @@
         <v>548</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18.266666666666666</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
+        <v>610</v>
+      </c>
+      <c r="N23" s="4">
         <f t="shared" si="5"/>
-        <v>0.17849462365591395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="O23" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.37419354838709684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -23784,15 +25619,25 @@
         <v>696</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23.2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
+        <v>813</v>
+      </c>
+      <c r="N24" s="4">
         <f t="shared" si="5"/>
-        <v>0.27472527472527464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>27.1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>30</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.64835164835164849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -23833,15 +25678,25 @@
         <v>620</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20.666666666666668</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
+        <v>699</v>
+      </c>
+      <c r="N25" s="4">
         <f t="shared" si="5"/>
-        <v>0.18546845124282996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>23.3</v>
+      </c>
+      <c r="O25" s="4">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.43403441682600374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -23882,15 +25737,25 @@
         <v>757</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25.233333333333334</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
+        <v>778</v>
+      </c>
+      <c r="N26" s="4">
         <f t="shared" si="5"/>
-        <v>0.21120000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>25.933333333333334</v>
+      </c>
+      <c r="O26" s="4">
+        <v>28</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="9"/>
+        <v>0.34400000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -23931,15 +25796,25 @@
         <v>571</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19.033333333333335</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
+        <v>601</v>
+      </c>
+      <c r="N27" s="4">
         <f t="shared" si="5"/>
-        <v>0.1920668058455115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>20.033333333333335</v>
+      </c>
+      <c r="O27" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="9"/>
+        <v>0.33402922755741127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -23980,15 +25855,25 @@
         <v>467</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.566666666666666</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28" s="4">
         <f t="shared" si="5"/>
-        <v>0.15594059405940586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O28" s="4">
+        <v>18</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.33663366336633671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -24029,15 +25914,25 @@
         <v>877</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.233333333333334</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
+        <v>1013</v>
+      </c>
+      <c r="N29" s="4">
         <f t="shared" si="5"/>
-        <v>0.28216374269005851</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>33.766666666666666</v>
+      </c>
+      <c r="O29" s="4">
+        <v>35</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.5350877192982455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -24078,15 +25973,25 @@
         <v>896</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.866666666666667</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
+        <v>1008</v>
+      </c>
+      <c r="N30" s="4">
         <f t="shared" si="5"/>
-        <v>0.2584269662921348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>33.6</v>
+      </c>
+      <c r="O30" s="4">
+        <v>35</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.47471910112359539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -24127,15 +26032,25 @@
         <v>501</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16.7</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
+        <v>587</v>
+      </c>
+      <c r="N31" s="4">
         <f t="shared" si="5"/>
-        <v>0.24626865671641784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>19.566666666666666</v>
+      </c>
+      <c r="O31" s="4">
+        <v>20</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="9"/>
+        <v>0.49253731343283569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -24173,9 +26088,11 @@
         <v>0.25921375921375911</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -24213,11 +26130,13 @@
         <v>0.20564042303172747</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="1"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C33">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-16384"/>
         <cfvo type="num" val="0"/>
@@ -24229,6 +26148,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -24240,7 +26171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I33">
+  <conditionalFormatting sqref="L2:L33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -24252,7 +26183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L33">
+  <conditionalFormatting sqref="N2:O33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -24269,6 +26200,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000003000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -24285,7 +26232,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -24296,8 +26243,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF65878-34BB-41A8-A1DA-EAB16E486022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A93941-258C-4B62-B857-E3C19B2B7248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2940" windowWidth="21570" windowHeight="11370" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,13 @@
     <sheet name="IWRAM" sheetId="6" r:id="rId6"/>
     <sheet name="Doom Levels" sheetId="8" r:id="rId7"/>
     <sheet name="Doom2 Levels" sheetId="9" r:id="rId8"/>
-    <sheet name="Playthroughs" sheetId="14" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
-    <sheet name="E1M6" sheetId="12" r:id="rId11"/>
-    <sheet name="Gamma" sheetId="13" r:id="rId12"/>
+    <sheet name="Sigil Levels" sheetId="17" r:id="rId9"/>
+    <sheet name="Plutonia Levels" sheetId="15" r:id="rId10"/>
+    <sheet name="TNT Levels" sheetId="16" r:id="rId11"/>
+    <sheet name="Playthroughs" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId13"/>
+    <sheet name="E1M6" sheetId="12" r:id="rId14"/>
+    <sheet name="Gamma" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="283">
   <si>
     <t>Memory</t>
   </si>
@@ -865,6 +868,33 @@
   <si>
     <t>FPS (real gba)</t>
   </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>sides</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>block links</t>
+  </si>
+  <si>
+    <t>subsectos</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>specials</t>
+  </si>
+  <si>
+    <t>group lines</t>
+  </si>
 </sst>
 </file>
 
@@ -1030,10 +1060,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Globals!$B$2:$B$48</c:f>
+              <c:f>Globals!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>112960</c:v>
                 </c:pt>
@@ -1174,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>25656</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10929,7 +10962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
@@ -10960,7 +10993,7 @@
         <v>112960</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D48" si="0">$F$3-B2</f>
+        <f t="shared" ref="D2:D49" si="0">$F$3-B2</f>
         <v>149184</v>
       </c>
       <c r="E2" s="1">
@@ -10988,7 +11021,7 @@
         <v>210400</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E48" si="2">1-(D3/$F$3)</f>
+        <f t="shared" ref="E3:E49" si="2">1-(D3/$F$3)</f>
         <v>0.1973876953125</v>
       </c>
       <c r="F3">
@@ -11016,7 +11049,7 @@
         <v>0.19654083251953125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F48" si="3">256*1024</f>
+        <f t="shared" ref="F4:F49" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -11700,7 +11733,7 @@
         <v>10592</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C48" si="4">B32-B33</f>
+        <f t="shared" ref="C33:C49" si="4">B32-B33</f>
         <v>456</v>
       </c>
       <c r="D33">
@@ -12072,6 +12105,30 @@
         <v>9.7869873046875E-2</v>
       </c>
       <c r="F48">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49">
+        <v>24128</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>1528</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>238016</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2041015625E-2</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -12084,11 +12141,1825 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>117480</v>
+      </c>
+      <c r="C2">
+        <f>$E$2-B2</f>
+        <v>144664</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1-(C2/$E$2)</f>
+        <v>0.448150634765625</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="0">256*1024</f>
+        <v>262144</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G33" si="1">F2/30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>130088</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C33" si="2">$E$2-B3</f>
+        <v>132056</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D33" si="3">1-(C3/$E$2)</f>
+        <v>0.496246337890625</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>128084</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>134060</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4886016845703125</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>149536</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>112608</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5704345703125</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>134320</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>127824</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51239013671875</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>163368</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>98776</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.623199462890625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>98408</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>163736</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.375396728515625</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>166324</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>95820</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6344757080078125</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>203620</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>58524</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7767486572265625</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>130528</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>131616</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4979248046875</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>148072</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>114072</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.564849853515625</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>172084</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>90060</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6564483642578125</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>156956</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>105188</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5987396240234375</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>146208</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>115936</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5577392578125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>162296</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>99848</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.619110107421875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>141304</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>120840</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.539031982421875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18">
+        <v>165228</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>96916</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6302947998046875</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19">
+        <v>183092</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>79052</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6984405517578125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20">
+        <v>150760</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>111384</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.575103759765625</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21">
+        <v>165728</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>96416</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6322021484375</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22">
+        <v>112774</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>149370</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43019866943359375</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23">
+        <v>209108</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>53036</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7976837158203125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24">
+        <v>274288</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>-12144</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.04632568359375</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25">
+        <v>150508</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>111636</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5741424560546875</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <v>187544</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>74600</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.715423583984375</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27">
+        <v>205348</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>56796</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7833404541015625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>180836</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>81308</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6898345947265625</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29">
+        <v>293096</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>-30952</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.118072509765625</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30">
+        <v>216236</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>45908</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8248748779296875</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>144748</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>117396</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5521697998046875</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-16384"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="16384"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A92DD2-3E1D-4398-BAA6-068F8779D1E4}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <f>$E$2-B2</f>
+        <v>262144</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1-(C2/$E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="0">256*1024</f>
+        <v>262144</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G33" si="1">F2/30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C33" si="2">$E$2-B3</f>
+        <v>262144</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D33" si="3">1-(C3/$E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-16384"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="16384"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.2268518518518518E-3</v>
+      </c>
+      <c r="C3">
+        <v>2487</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/(B3*86400)</f>
+        <v>23.462264150943398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:P278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="J272" sqref="J272"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="G287" sqref="D283:G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14655,7 +16526,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -14670,7 +16541,7 @@
         <v>1.037037037037037</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -14685,7 +16556,7 @@
         <v>1.0294117647058822</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -14700,7 +16571,7 @@
         <v>1.0234375</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -14715,7 +16586,7 @@
         <v>1.0137931034482759</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -14723,7 +16594,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
         <v>261</v>
       </c>
@@ -14731,7 +16602,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
         <v>262</v>
       </c>
@@ -14739,7 +16610,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
         <v>259</v>
       </c>
@@ -14752,12 +16623,21 @@
       <c r="D267">
         <v>28.9</v>
       </c>
-      <c r="E267" s="1">
-        <f>D267/B267</f>
-        <v>1.032142857142857</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="E267">
+        <v>29.1</v>
+      </c>
+      <c r="F267">
+        <v>29</v>
+      </c>
+      <c r="G267">
+        <v>29.1</v>
+      </c>
+      <c r="I267" s="1">
+        <f t="shared" ref="I267:I269" si="19">G267/B267</f>
+        <v>1.0392857142857144</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>261</v>
       </c>
@@ -14770,12 +16650,21 @@
       <c r="D268">
         <v>25.3</v>
       </c>
-      <c r="E268" s="1">
-        <f t="shared" ref="E268:E270" si="19">D268/B268</f>
-        <v>1.0326530612244897</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="E268">
+        <v>25.4</v>
+      </c>
+      <c r="F268">
+        <v>25.6</v>
+      </c>
+      <c r="G268">
+        <v>25.8</v>
+      </c>
+      <c r="I268" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0530612244897959</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>262</v>
       </c>
@@ -14788,12 +16677,21 @@
       <c r="D269">
         <v>27.3</v>
       </c>
-      <c r="E269" s="1">
+      <c r="E269">
+        <v>27.5</v>
+      </c>
+      <c r="F269">
+        <v>27.7</v>
+      </c>
+      <c r="G269">
+        <v>27.8</v>
+      </c>
+      <c r="I269" s="1">
         <f t="shared" si="19"/>
-        <v>1.0419847328244276</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>1.0610687022900764</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>263</v>
       </c>
@@ -14806,9 +16704,21 @@
       <c r="D270">
         <v>15.5</v>
       </c>
-      <c r="E270" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0544217687074831</v>
+      <c r="E270">
+        <v>15.5</v>
+      </c>
+      <c r="F270">
+        <v>15.6</v>
+      </c>
+      <c r="G270">
+        <v>15.8</v>
+      </c>
+      <c r="H270">
+        <v>15.7</v>
+      </c>
+      <c r="I270" s="1">
+        <f>G270/B270</f>
+        <v>1.0748299319727892</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -14879,7 +16789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -14949,7 +16859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -15668,7 +17578,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21512,7 +23422,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="A10" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24206,8 +26116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O31" activeCellId="4" sqref="G31 I31 L31 N31 O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26255,227 +28165,356 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E70020B-64A4-492D-9830-6A4BD6B3C292}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>243</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>194672</v>
+      </c>
+      <c r="C2">
+        <f>$E$2-B2</f>
+        <v>67472</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1-(C2/$E$2)</f>
+        <v>0.74261474609375</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E10" si="0">256*1024</f>
+        <v>262144</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="7">
-        <v>1.2268518518518518E-3</v>
+      <c r="B3">
+        <v>193260</v>
       </c>
       <c r="C3">
-        <v>2487</v>
-      </c>
-      <c r="D3" s="4">
-        <f>C3/(B3*86400)</f>
-        <v>23.462264150943398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f t="shared" ref="C3:C10" si="1">$E$2-B3</f>
+        <v>68884</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D10" si="2">1-(C3/$E$2)</f>
+        <v>0.7372283935546875</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4">
+        <v>159596</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>102548</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6088104248046875</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5">
+        <v>334084</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>-71940</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2744293212890625</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6">
+        <v>249652</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>12492</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9523468017578125</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7">
+        <v>384784</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-122640</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.46783447265625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8">
+        <v>416804</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-154660</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5899810791015625</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9">
+        <v>196672</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>65472</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.750244140625</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>114</v>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="B33">
+        <v>38480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>275</v>
+      </c>
+      <c r="B34">
+        <v>105440</v>
+      </c>
+      <c r="C34">
+        <v>66960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>276</v>
+      </c>
+      <c r="B35">
+        <v>179980</v>
+      </c>
+      <c r="C35">
+        <v>285420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>277</v>
+      </c>
+      <c r="B36">
+        <v>45032</v>
+      </c>
+      <c r="C36">
+        <v>330452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>278</v>
+      </c>
+      <c r="B37">
+        <v>6136</v>
+      </c>
+      <c r="C37">
+        <v>337440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38">
+        <v>33736</v>
+      </c>
+      <c r="C38">
+        <v>371176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39">
+        <v>35928</v>
+      </c>
+      <c r="C39">
+        <v>407104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40">
+        <f>C40-C39</f>
+        <v>48136</v>
+      </c>
+      <c r="C40">
+        <v>455240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41">
+        <f>C41-C40</f>
+        <v>2076</v>
+      </c>
+      <c r="C41">
+        <v>457316</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="-16384"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="16384"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -26488,6 +28527,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A93941-258C-4B62-B857-E3C19B2B7248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58763E81-8346-4A79-A960-34C49D0C0FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="3600" windowWidth="21570" windowHeight="11370" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="283">
   <si>
     <t>Memory</t>
   </si>
@@ -1381,6 +1381,802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gamma!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gamma!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gamma!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gamma!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gamma!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>??</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gamma!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gamma!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new_component = old_component * 3 / 4 + 8;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gamma!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F408-42B0-A418-A30D6CC62D61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-360653888"/>
+        <c:axId val="-360652256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-360653888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360652256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-360652256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360653888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1958,10 +2754,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$B$2:$B$53</c:f>
+              <c:f>E1M1!$B$2:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>572432</c:v>
                 </c:pt>
@@ -2117,6 +2913,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>96152</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,10 +3375,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$B$2:$B$45</c:f>
+              <c:f>E1M2!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>367176</c:v>
                 </c:pt>
@@ -2711,6 +3510,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>152668</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>138664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,10 +4079,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>98096</c:v>
+                  <c:v>89472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152668</c:v>
+                  <c:v>138664</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>167620</c:v>
@@ -4614,6 +5416,1207 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sigil Levels'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sigil Levels'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>E1M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E1M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E1M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E1M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E1M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E1M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E1M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E1M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>E1M9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sigil Levels'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>194672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>416804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99F9-43A3-B393-BE0D6749D227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="660357008"/>
+        <c:axId val="663569568"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sigil Levels'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sigil Levels'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>E1M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E1M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>E1M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E1M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E1M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>E1M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E1M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E1M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>E1M9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sigil Levels'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99F9-43A3-B393-BE0D6749D227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="660357008"/>
+        <c:axId val="663569568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="660357008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663569568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663569568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660357008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plutonia Levels'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Plutonia Levels'!$A$2:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>MAP01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAP05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MAP06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAP07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MAP08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAP09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MAP10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAP11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MAP12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAP13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MAP14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MAP15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MAP16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MAP17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MAP18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MAP19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MAP20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MAP21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MAP22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MAP23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MAP24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MAP25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MAP26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MAP27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>MAP28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>MAP29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>MAP30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MAP31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>MAP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plutonia Levels'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>117480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166324</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203620</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>146208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>141304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>183092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165728</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112774</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>209108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>257364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150508</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>205348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180836</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>272356</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>216236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>144748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2057-4D17-B577-DAC7D2626432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="595279120"/>
+        <c:axId val="251507616"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plutonia Levels'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Plutonia Levels'!$A$2:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>MAP01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAP05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MAP06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAP07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MAP08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAP09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MAP10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAP11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MAP12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAP13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MAP14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MAP15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MAP16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MAP17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MAP18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MAP19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MAP20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MAP21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MAP22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MAP23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MAP24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MAP25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MAP26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MAP27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>MAP28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>MAP29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>MAP30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MAP31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>MAP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plutonia Levels'!$E$2:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2057-4D17-B577-DAC7D2626432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="595279120"/>
+        <c:axId val="251507616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="595279120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251507616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="251507616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595279120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5127,803 +7130,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gamma!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G = 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Gamma!$B$2:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F408-42B0-A418-A30D6CC62D61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gamma!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>G = 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Gamma!$C$2:$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F408-42B0-A418-A30D6CC62D61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gamma!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>??</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Gamma!$D$2:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F408-42B0-A418-A30D6CC62D61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gamma!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>new_component = old_component * 3 / 4 + 8;</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Gamma!$E$2:$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F408-42B0-A418-A30D6CC62D61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-360653888"/>
-        <c:axId val="-360652256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-360653888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-360652256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-360652256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-360653888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6243,7 +7490,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9340,7 +11143,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9448,11 +11251,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9463,11 +11261,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9499,9 +11292,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10371,6 +12161,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10392,6 +12698,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10621,23 +12968,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30C5558-4CFF-4C3B-BEAE-7297C31334A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10662,23 +13009,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3818ECEA-3711-4FE2-B127-BE5A13421B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10964,8 +13352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12142,10 +14530,794 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>117480</v>
+      </c>
+      <c r="C2">
+        <f>$E$2-B2</f>
+        <v>144664</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1-(C2/$E$2)</f>
+        <v>0.448150634765625</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="0">256*1024</f>
+        <v>262144</v>
+      </c>
+      <c r="F2" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>130088</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C33" si="1">$E$2-B3</f>
+        <v>132056</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D33" si="2">1-(C3/$E$2)</f>
+        <v>0.496246337890625</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F3" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>128084</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>134060</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4886016845703125</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F4" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>149536</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>112608</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5704345703125</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F5" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>134320</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>127824</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51239013671875</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F6" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>163368</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>98776</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.623199462890625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F7" s="4">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>98408</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>163736</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.375396728515625</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>166324</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>95820</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6344757080078125</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>203620</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>58524</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7767486572265625</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>130528</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>131616</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4979248046875</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F11" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>148072</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>114072</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.564849853515625</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F12" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>172084</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>90060</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6564483642578125</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F13" s="4">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>156956</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>105188</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5987396240234375</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F14" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>146208</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>115936</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5577392578125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F15" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>162296</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>99848</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.619110107421875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F16" s="4">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>141304</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>120840</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.539031982421875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18">
+        <v>165228</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>96916</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6302947998046875</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F18" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19">
+        <v>183092</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>79052</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6984405517578125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20">
+        <v>150760</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>111384</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.575103759765625</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21">
+        <v>165728</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>96416</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6322021484375</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22">
+        <v>112774</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>149370</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43019866943359375</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23">
+        <v>209108</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>53036</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7976837158203125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24">
+        <v>257364</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>4780</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9817657470703125</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25">
+        <v>150508</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>111636</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5741424560546875</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <v>187544</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>74600</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.715423583984375</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27">
+        <v>205348</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>56796</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7833404541015625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>180836</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>81308</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6898345947265625</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29">
+        <v>272356</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-10212</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0389556884765625</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30">
+        <v>216236</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>45908</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8248748779296875</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>144748</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>117396</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5521697998046875</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C33">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="-16384"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="16384"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="15"/>
+        <cfvo type="num" val="20"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A92DD2-3E1D-4398-BAA6-068F8779D1E4}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12187,15 +15359,15 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>117480</v>
+        <v>91172</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>144664</v>
+        <v>170972</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.448150634765625</v>
+        <v>0.3477935791015625</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" si="0">256*1024</f>
@@ -12211,15 +15383,15 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>130088</v>
+        <v>111500</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C33" si="2">$E$2-B3</f>
-        <v>132056</v>
+        <v>150644</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D33" si="3">1-(C3/$E$2)</f>
-        <v>0.496246337890625</v>
+        <v>0.4253387451171875</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -12235,15 +15407,15 @@
         <v>123</v>
       </c>
       <c r="B4">
-        <v>128084</v>
+        <v>140936</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>134060</v>
+        <v>121208</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>0.4886016845703125</v>
+        <v>0.537628173828125</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -12259,15 +15431,15 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>149536</v>
+        <v>177676</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>112608</v>
+        <v>84468</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>0.5704345703125</v>
+        <v>0.6777801513671875</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -12283,15 +15455,15 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>134320</v>
+        <v>157600</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>127824</v>
+        <v>104544</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>0.51239013671875</v>
+        <v>0.6011962890625</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -12307,15 +15479,15 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>163368</v>
+        <v>109716</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>98776</v>
+        <v>152428</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>0.623199462890625</v>
+        <v>0.4185333251953125</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -12331,827 +15503,15 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>98408</v>
+        <v>151076</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>163736</v>
+        <v>111068</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>0.375396728515625</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>166324</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>95820</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="3"/>
-        <v>0.6344757080078125</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10">
-        <v>203620</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>58524</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.7767486572265625</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11">
-        <v>130528</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>131616</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>0.4979248046875</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12">
-        <v>148072</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>114072</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>0.564849853515625</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13">
-        <v>172084</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>90060</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.6564483642578125</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
-        <v>156956</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>105188</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5987396240234375</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15">
-        <v>146208</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>115936</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5577392578125</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16">
-        <v>162296</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>99848</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>0.619110107421875</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17">
-        <v>141304</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>120840</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>0.539031982421875</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18">
-        <v>165228</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>96916</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>0.6302947998046875</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19">
-        <v>183092</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>79052</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>0.6984405517578125</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20">
-        <v>150760</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>111384</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>0.575103759765625</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21">
-        <v>165728</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>96416</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>0.6322021484375</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22">
-        <v>112774</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>149370</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>0.43019866943359375</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23">
-        <v>209108</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>53036</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>0.7976837158203125</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24">
-        <v>274288</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>-12144</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>1.04632568359375</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25">
-        <v>150508</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>111636</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5741424560546875</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26">
-        <v>187544</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>74600</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>0.715423583984375</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27">
-        <v>205348</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="2"/>
-        <v>56796</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>0.7833404541015625</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28">
-        <v>180836</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>81308</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.6898345947265625</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29">
-        <v>293096</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="2"/>
-        <v>-30952</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>1.118072509765625</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30">
-        <v>216236</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
-        <v>45908</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>0.8248748779296875</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31">
-        <v>144748</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>117396</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5521697998046875</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C33">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="-16384"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="16384"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G33">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="num" val="15"/>
-        <cfvo type="num" val="20"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A92DD2-3E1D-4398-BAA6-068F8779D1E4}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2">
-        <f>$E$2-B2</f>
-        <v>262144</v>
-      </c>
-      <c r="D2" s="1">
-        <f>1-(C2/$E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E33" si="0">256*1024</f>
-        <v>262144</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" ref="G2:G33" si="1">F2/30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C33" si="2">$E$2-B3</f>
-        <v>262144</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D33" si="3">1-(C3/$E$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G3" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5763092041015625</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -13956,10 +16316,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:P278"/>
+  <dimension ref="A2:Q278"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="G287" sqref="D283:G287"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15201,7 +17561,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>245</v>
       </c>
@@ -15221,7 +17581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>218</v>
       </c>
@@ -15241,7 +17601,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>217</v>
       </c>
@@ -15261,7 +17621,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>216</v>
       </c>
@@ -15281,7 +17641,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -15301,7 +17661,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>219</v>
       </c>
@@ -15321,7 +17681,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>220</v>
       </c>
@@ -15341,7 +17701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>222</v>
       </c>
@@ -15361,7 +17721,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>223</v>
       </c>
@@ -15381,7 +17741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:11">
       <c r="B171">
         <f>AVERAGE(B162:B169)</f>
         <v>12.450000000000001</v>
@@ -15410,12 +17770,12 @@
         <f>B167</f>
         <v>13</v>
       </c>
-      <c r="J171" s="1">
+      <c r="K171" s="1">
         <f>H171/I171</f>
         <v>1.0307692307692309</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>250</v>
       </c>
@@ -15435,7 +17795,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>218</v>
       </c>
@@ -15449,7 +17809,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>217</v>
       </c>
@@ -15463,7 +17823,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>216</v>
       </c>
@@ -15477,7 +17837,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -15491,7 +17851,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>219</v>
       </c>
@@ -15505,7 +17865,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>220</v>
       </c>
@@ -15519,7 +17879,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>222</v>
       </c>
@@ -15533,7 +17893,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>223</v>
       </c>
@@ -15547,7 +17907,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:11">
       <c r="B183">
         <f>AVERAGE(B174:B181)</f>
         <v>22.837500000000002</v>
@@ -15568,12 +17928,12 @@
         <f>B179</f>
         <v>24.4</v>
       </c>
-      <c r="J183" s="1">
+      <c r="K183" s="1">
         <f>H183/I183</f>
         <v>1.0163934426229508</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>251</v>
       </c>
@@ -15593,7 +17953,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -15607,7 +17967,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -15621,7 +17981,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>216</v>
       </c>
@@ -15635,7 +17995,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -15649,7 +18009,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -15663,7 +18023,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>220</v>
       </c>
@@ -15677,7 +18037,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -15691,7 +18051,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -15705,7 +18065,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:11">
       <c r="B196">
         <f>AVERAGE(B187:B194)</f>
         <v>21.162499999999998</v>
@@ -15726,12 +18086,12 @@
         <f>B192</f>
         <v>21.7</v>
       </c>
-      <c r="J196" s="1">
+      <c r="K196" s="1">
         <f>H196/I196</f>
         <v>1.0138248847926268</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -15751,7 +18111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>218</v>
       </c>
@@ -15765,7 +18125,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -15781,7 +18141,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -15797,7 +18157,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>179</v>
       </c>
@@ -15813,7 +18173,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>219</v>
       </c>
@@ -15829,7 +18189,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>220</v>
       </c>
@@ -15845,7 +18205,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -15861,7 +18221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -15877,7 +18237,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:11">
       <c r="B209">
         <f>AVERAGE(B200:B207)</f>
         <v>21.887499999999999</v>
@@ -15898,17 +18258,17 @@
         <f>B205</f>
         <v>23</v>
       </c>
-      <c r="J209" s="1">
+      <c r="K209" s="1">
         <f>H209/I209</f>
         <v>1.008695652173913</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>250</v>
       </c>
@@ -15919,7 +18279,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:11">
       <c r="A215">
         <v>24.7</v>
       </c>
@@ -15931,16 +18291,16 @@
       </c>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:11">
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>159</v>
       </c>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:11">
       <c r="A218">
         <v>24.7</v>
       </c>
@@ -15952,12 +18312,12 @@
       </c>
       <c r="E218" s="1"/>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:11">
       <c r="A221">
         <v>24.7</v>
       </c>
@@ -15972,7 +18332,7 @@
       </c>
       <c r="E221" s="1"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:17">
       <c r="B225" t="s">
         <v>258</v>
       </c>
@@ -15986,7 +18346,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>259</v>
       </c>
@@ -16005,23 +18365,23 @@
       <c r="I226">
         <v>26.1</v>
       </c>
-      <c r="J226">
+      <c r="K226">
         <v>26.1</v>
       </c>
-      <c r="L226">
+      <c r="M226">
         <v>26.2</v>
       </c>
-      <c r="M226">
+      <c r="N226">
         <v>25</v>
       </c>
-      <c r="N226">
+      <c r="O226">
         <v>27.2</v>
       </c>
-      <c r="P226">
+      <c r="Q226">
         <v>26.1</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>261</v>
       </c>
@@ -16040,20 +18400,20 @@
       <c r="I227">
         <v>23.5</v>
       </c>
-      <c r="J227">
+      <c r="K227">
         <v>23.4</v>
       </c>
-      <c r="L227">
+      <c r="M227">
         <v>23.5</v>
       </c>
-      <c r="M227">
+      <c r="N227">
         <v>22.5</v>
       </c>
-      <c r="N227">
+      <c r="O227">
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -16078,20 +18438,20 @@
       <c r="I228">
         <v>24.5</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>24.6</v>
       </c>
-      <c r="L228">
+      <c r="M228">
         <v>25.6</v>
       </c>
-      <c r="M228">
+      <c r="N228">
         <v>23.6</v>
       </c>
-      <c r="N228">
+      <c r="O228">
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>263</v>
       </c>
@@ -16110,20 +18470,20 @@
       <c r="I229">
         <v>13.7</v>
       </c>
-      <c r="J229">
+      <c r="K229">
         <v>13.6</v>
       </c>
-      <c r="L229">
+      <c r="M229">
         <v>13.7</v>
       </c>
-      <c r="M229">
+      <c r="N229">
         <v>13.4</v>
       </c>
-      <c r="N229">
+      <c r="O229">
         <v>13.8</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>259</v>
       </c>
@@ -16146,7 +18506,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>261</v>
       </c>
@@ -16169,7 +18529,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>262</v>
       </c>
@@ -16192,7 +18552,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>263</v>
       </c>
@@ -16214,17 +18574,17 @@
       <c r="I235">
         <v>14.7</v>
       </c>
-      <c r="J235">
+      <c r="K235">
         <v>14</v>
       </c>
-      <c r="K235">
+      <c r="L235">
         <v>15.5</v>
       </c>
-      <c r="L235">
+      <c r="M235">
         <v>14.8</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>259</v>
       </c>
@@ -16253,13 +18613,14 @@
         <f>G241/B241</f>
         <v>1.0267175572519083</v>
       </c>
-      <c r="J241" s="1">
+      <c r="J241" s="1"/>
+      <c r="K241" s="1">
         <f>H241/B241</f>
         <v>1.1488549618320612</v>
       </c>
-      <c r="K241" s="1"/>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>261</v>
       </c>
@@ -16288,13 +18649,14 @@
         <f t="shared" ref="I242:I244" si="17">F242/B242</f>
         <v>1.0170940170940173</v>
       </c>
-      <c r="J242" s="1">
+      <c r="J242" s="1"/>
+      <c r="K242" s="1">
         <f>H242/B242</f>
         <v>1.0811965811965814</v>
       </c>
-      <c r="K242" s="1"/>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -16323,13 +18685,14 @@
         <f t="shared" si="17"/>
         <v>1.0282258064516128</v>
       </c>
-      <c r="J243" s="1">
+      <c r="J243" s="1"/>
+      <c r="K243" s="1">
         <f>H243/B243</f>
         <v>1.1008064516129032</v>
       </c>
-      <c r="K243" s="1"/>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>263</v>
       </c>
@@ -16358,13 +18721,14 @@
         <f t="shared" si="17"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="J244" s="1">
+      <c r="J244" s="1"/>
+      <c r="K244" s="1">
         <f>H244/B244</f>
         <v>1.2370370370370369</v>
       </c>
-      <c r="K244" s="1"/>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L244" s="1"/>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -16382,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -16400,7 +18764,7 @@
         <v>1.0084388185654007</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -16418,7 +18782,7 @@
         <v>1.0078431372549019</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -16443,7 +18807,7 @@
         <v>1.0416666666666667</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -16463,7 +18827,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>261</v>
       </c>
@@ -16483,7 +18847,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>262</v>
       </c>
@@ -16503,7 +18867,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>263</v>
       </c>
@@ -16526,7 +18890,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -16541,7 +18905,7 @@
         <v>1.037037037037037</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -16556,7 +18920,7 @@
         <v>1.0294117647058822</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -16571,7 +18935,7 @@
         <v>1.0234375</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -16586,7 +18950,7 @@
         <v>1.0137931034482759</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -16594,7 +18958,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>261</v>
       </c>
@@ -16602,7 +18966,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>262</v>
       </c>
@@ -16610,7 +18974,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:11">
       <c r="A267" t="s">
         <v>259</v>
       </c>
@@ -16632,12 +18996,22 @@
       <c r="G267">
         <v>29.1</v>
       </c>
-      <c r="I267" s="1">
-        <f t="shared" ref="I267:I269" si="19">G267/B267</f>
-        <v>1.0392857142857144</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="H267">
+        <v>29.9</v>
+      </c>
+      <c r="I267">
+        <v>29.9</v>
+      </c>
+      <c r="J267" s="1">
+        <f>I267/B267</f>
+        <v>1.0678571428571428</v>
+      </c>
+      <c r="K267" s="1">
+        <f>H267/G267</f>
+        <v>1.0274914089347078</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" t="s">
         <v>261</v>
       </c>
@@ -16659,12 +19033,22 @@
       <c r="G268">
         <v>25.8</v>
       </c>
-      <c r="I268" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0530612244897959</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="H268">
+        <v>26.4</v>
+      </c>
+      <c r="I268">
+        <v>26.4</v>
+      </c>
+      <c r="J268" s="1">
+        <f>I268/B268</f>
+        <v>1.0775510204081633</v>
+      </c>
+      <c r="K268" s="1">
+        <f>H268/G268</f>
+        <v>1.0232558139534882</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" t="s">
         <v>262</v>
       </c>
@@ -16686,12 +19070,22 @@
       <c r="G269">
         <v>27.8</v>
       </c>
-      <c r="I269" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0610687022900764</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="H269">
+        <v>28.5</v>
+      </c>
+      <c r="I269">
+        <v>28.5</v>
+      </c>
+      <c r="J269" s="1">
+        <f>I269/B269</f>
+        <v>1.0877862595419847</v>
+      </c>
+      <c r="K269" s="1">
+        <f>H269/G269</f>
+        <v>1.025179856115108</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" t="s">
         <v>263</v>
       </c>
@@ -16714,11 +19108,18 @@
         <v>15.8</v>
       </c>
       <c r="H270">
-        <v>15.7</v>
-      </c>
-      <c r="I270" s="1">
-        <f>G270/B270</f>
-        <v>1.0748299319727892</v>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I270">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J270" s="1">
+        <f>I270/B270</f>
+        <v>1.0952380952380953</v>
+      </c>
+      <c r="K270" s="1">
+        <f>H270/G270</f>
+        <v>1.018987341772152</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -16794,7 +19195,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16864,7 +19265,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17577,8 +19978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18418,10 +20819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18448,15 +20849,15 @@
         <v>572432</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D53" si="0">$F$2-B2</f>
+        <f t="shared" ref="D2:D54" si="0">$F$2-B2</f>
         <v>-310288</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E53" si="1">1-(D2/$F$2)</f>
+        <f t="shared" ref="E2:E54" si="1">1-(D2/$F$2)</f>
         <v>2.18365478515625</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F53" si="2">256*1024</f>
+        <f t="shared" ref="F2:F54" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -18468,7 +20869,7 @@
         <v>533516</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C53" si="3">B2-B3</f>
+        <f t="shared" ref="C3:C54" si="3">B2-B3</f>
         <v>38916</v>
       </c>
       <c r="D3">
@@ -19680,6 +22081,30 @@
         <v>0.366790771484375</v>
       </c>
       <c r="F53">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54">
+        <v>89472</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>6680</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>172672</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34130859375</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -19692,10 +22117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19722,15 +22147,15 @@
         <v>367176</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D45" si="0">$F$2-B2</f>
+        <f t="shared" ref="D2:D46" si="0">$F$2-B2</f>
         <v>-105032</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E45" si="1">1-(D2/$F$2)</f>
+        <f t="shared" ref="E2:E46" si="1">1-(D2/$F$2)</f>
         <v>1.400665283203125</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F45" si="2">256*1024</f>
+        <f t="shared" ref="F2:F46" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -20366,7 +22791,7 @@
         <v>252316</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C45" si="4">B28-B29</f>
+        <f t="shared" ref="C29:C46" si="4">B28-B29</f>
         <v>4132</v>
       </c>
       <c r="D29">
@@ -20762,6 +23187,30 @@
         <v>0.5823822021484375</v>
       </c>
       <c r="F45">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46">
+        <v>138664</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>14004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>123480</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.528961181640625</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -21470,7 +23919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
@@ -23421,8 +25870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23500,15 +25949,15 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>98096</v>
+        <v>89472</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>164048</v>
+        <v>172672</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.37420654296875</v>
+        <v>0.34130859375</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E37" si="0">256*1024</f>
@@ -23559,15 +26008,15 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>152668</v>
+        <v>138664</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C37" si="5">$E$2-B3</f>
-        <v>109476</v>
+        <v>123480</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D37" si="6">1-(C3/$E$2)</f>
-        <v>0.5823822021484375</v>
+        <v>0.528961181640625</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -26117,7 +28566,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O13"/>
+      <selection activeCell="O1" sqref="O1:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28168,8 +30617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E70020B-64A4-492D-9830-6A4BD6B3C292}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28527,5 +30976,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58763E81-8346-4A79-A960-34C49D0C0FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A5B7A3-8677-44C1-A174-B459518F1EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="3600" windowWidth="21570" windowHeight="11370" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="480" windowWidth="21570" windowHeight="11370" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="285">
   <si>
     <t>Memory</t>
   </si>
@@ -895,6 +889,12 @@
   <si>
     <t>group lines</t>
   </si>
+  <si>
+    <t>RDiv1</t>
+  </si>
+  <si>
+    <t>RDiv2</t>
+  </si>
 </sst>
 </file>
 
@@ -960,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -976,6 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14533,7 +14534,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16316,15 +16317,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:Q278"/>
+  <dimension ref="A2:Q284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="I268" sqref="I268"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="F284" sqref="F283:F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -19122,7 +19124,7 @@
         <v>1.018987341772152</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>124210</v>
       </c>
@@ -19134,7 +19136,7 @@
         <v>0.23705015699219065</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>742611</v>
       </c>
@@ -19145,8 +19147,9 @@
         <f>B275/A275</f>
         <v>0.2756207489520085</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>457391</v>
       </c>
@@ -19157,8 +19160,9 @@
         <f>B276/A276</f>
         <v>0.32211390254727357</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>891854</v>
       </c>
@@ -19169,8 +19173,9 @@
         <f>B277/A277</f>
         <v>0.33953203102750001</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>700363</v>
       </c>
@@ -19181,6 +19186,36 @@
         <f>B278/A278</f>
         <v>0.50375162594254697</v>
       </c>
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="1:11">
+      <c r="K279" s="1"/>
+    </row>
+    <row r="282" spans="1:11">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282">
+        <v>23</v>
+      </c>
+      <c r="C282" s="13">
+        <v>362609</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="C283" s="13">
+        <v>398478</v>
+      </c>
+      <c r="D283" s="1">
+        <f>C283/C282</f>
+        <v>1.0989192215306294</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
+      <c r="C284" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25870,8 +25905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28243,6 +28278,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J3:J3</xm:f>
+              <xm:sqref>K3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J4:J4</xm:f>
+              <xm:sqref>K4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J5:J5</xm:f>
+              <xm:sqref>K5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J6:J6</xm:f>
+              <xm:sqref>K6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J7:J7</xm:f>
+              <xm:sqref>K7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J8:J8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J9:J9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J10:J10</xm:f>
+              <xm:sqref>K10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J11:J11</xm:f>
+              <xm:sqref>K11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J12:J12</xm:f>
+              <xm:sqref>K12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J13:J13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J14:J14</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J15:J15</xm:f>
+              <xm:sqref>K15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J16:J16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J17:J17</xm:f>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J18:J18</xm:f>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J19:J19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J20:J20</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J21:J21</xm:f>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J22:J22</xm:f>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J23:J23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J24:J24</xm:f>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J25:J25</xm:f>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J26:J26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J27:J27</xm:f>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J28:J28</xm:f>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J29:J29</xm:f>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J30:J30</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J31:J31</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J32:J32</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J33:J33</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J34:J34</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J35:J35</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J36:J36</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J37:J37</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -28399,162 +28590,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J3:J3</xm:f>
-              <xm:sqref>K3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J4:J4</xm:f>
-              <xm:sqref>K4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J5:J5</xm:f>
-              <xm:sqref>K5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J6:J6</xm:f>
-              <xm:sqref>K6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J7:J7</xm:f>
-              <xm:sqref>K7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J8:J8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J9:J9</xm:f>
-              <xm:sqref>K9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J10:J10</xm:f>
-              <xm:sqref>K10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J11:J11</xm:f>
-              <xm:sqref>K11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J12:J12</xm:f>
-              <xm:sqref>K12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J13:J13</xm:f>
-              <xm:sqref>K13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J14:J14</xm:f>
-              <xm:sqref>K14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J15:J15</xm:f>
-              <xm:sqref>K15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J16:J16</xm:f>
-              <xm:sqref>K16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J17:J17</xm:f>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J18:J18</xm:f>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J19:J19</xm:f>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J20:J20</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J21:J21</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J22:J22</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J23:J23</xm:f>
-              <xm:sqref>K23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J24:J24</xm:f>
-              <xm:sqref>K24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J25:J25</xm:f>
-              <xm:sqref>K25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J26:J26</xm:f>
-              <xm:sqref>K26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J27:J27</xm:f>
-              <xm:sqref>K27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J28:J28</xm:f>
-              <xm:sqref>K28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J29:J29</xm:f>
-              <xm:sqref>K29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J30:J30</xm:f>
-              <xm:sqref>K30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J31:J31</xm:f>
-              <xm:sqref>K31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J32:J32</xm:f>
-              <xm:sqref>K32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J33:J33</xm:f>
-              <xm:sqref>K33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J34:J34</xm:f>
-              <xm:sqref>K34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J35:J35</xm:f>
-              <xm:sqref>K35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J36:J36</xm:f>
-              <xm:sqref>K36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J37:J37</xm:f>
-              <xm:sqref>K37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -30559,7 +30594,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30570,8 +30605,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30591,7 +30626,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30602,8 +30637,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A5B7A3-8677-44C1-A174-B459518F1EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B706AF-D9A1-41DF-9816-503F80E0271F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="480" windowWidth="21570" windowHeight="11370" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="292">
   <si>
     <t>Memory</t>
   </si>
@@ -894,6 +894,27 @@
   </si>
   <si>
     <t>RDiv2</t>
+  </si>
+  <si>
+    <t>FDiv</t>
+  </si>
+  <si>
+    <t>RDiv Clz</t>
+  </si>
+  <si>
+    <t>Rdiv If1</t>
+  </si>
+  <si>
+    <t>Rdiv If2</t>
+  </si>
+  <si>
+    <t>Rdiv If3</t>
+  </si>
+  <si>
+    <t>Rdiv If4</t>
+  </si>
+  <si>
+    <t>Rdiv If5</t>
   </si>
 </sst>
 </file>
@@ -16317,10 +16338,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:Q284"/>
+  <dimension ref="A2:Q291"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="F284" sqref="F283:F284"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19216,6 +19237,90 @@
     </row>
     <row r="284" spans="1:11">
       <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="1:11">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="C285">
+        <v>28.9</v>
+      </c>
+      <c r="D285" s="1">
+        <f>C285/C285</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286">
+        <v>29.3</v>
+      </c>
+      <c r="D286" s="1">
+        <f t="shared" ref="D286:D287" si="19">C286/C$285</f>
+        <v>1.013840830449827</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287">
+        <v>29.5</v>
+      </c>
+      <c r="D287" s="1">
+        <f t="shared" si="19"/>
+        <v>1.0207612456747406</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="C288">
+        <v>29.5</v>
+      </c>
+      <c r="D288" s="1">
+        <f>C288/C$285</f>
+        <v>1.0207612456747406</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="C289">
+        <v>29.6</v>
+      </c>
+      <c r="D289" s="1">
+        <f>C289/C$285</f>
+        <v>1.0242214532871974</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="C290">
+        <v>29.6</v>
+      </c>
+      <c r="D290" s="1">
+        <f>C290/C$285</f>
+        <v>1.0242214532871974</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291">
+        <v>29.6</v>
+      </c>
+      <c r="D291" s="1">
+        <f>C291/C$285</f>
+        <v>1.0242214532871974</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25905,7 +26010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -28278,6 +28383,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -28434,162 +28695,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -30594,7 +30699,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30605,8 +30710,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30626,7 +30731,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30637,8 +30742,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B706AF-D9A1-41DF-9816-503F80E0271F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D500E6-1CB9-41BC-B98E-0721B0E02A9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -13374,8 +13374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14555,7 +14555,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16340,8 +16340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:Q291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
+    <sheetView topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20118,8 +20118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20961,8 +20961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22260,7 +22260,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23365,8 +23365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24059,8 +24059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26010,8 +26010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28383,6 +28383,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J3:J3</xm:f>
+              <xm:sqref>K3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J4:J4</xm:f>
+              <xm:sqref>K4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J5:J5</xm:f>
+              <xm:sqref>K5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J6:J6</xm:f>
+              <xm:sqref>K6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J7:J7</xm:f>
+              <xm:sqref>K7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J8:J8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J9:J9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J10:J10</xm:f>
+              <xm:sqref>K10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J11:J11</xm:f>
+              <xm:sqref>K11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J12:J12</xm:f>
+              <xm:sqref>K12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J13:J13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J14:J14</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J15:J15</xm:f>
+              <xm:sqref>K15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J16:J16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J17:J17</xm:f>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J18:J18</xm:f>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J19:J19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J20:J20</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J21:J21</xm:f>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J22:J22</xm:f>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J23:J23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J24:J24</xm:f>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J25:J25</xm:f>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J26:J26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J27:J27</xm:f>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J28:J28</xm:f>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J29:J29</xm:f>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J30:J30</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J31:J31</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J32:J32</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J33:J33</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J34:J34</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J35:J35</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J36:J36</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J37:J37</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -28539,162 +28695,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J3:J3</xm:f>
-              <xm:sqref>K3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J4:J4</xm:f>
-              <xm:sqref>K4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J5:J5</xm:f>
-              <xm:sqref>K5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J6:J6</xm:f>
-              <xm:sqref>K6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J7:J7</xm:f>
-              <xm:sqref>K7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J8:J8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J9:J9</xm:f>
-              <xm:sqref>K9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J10:J10</xm:f>
-              <xm:sqref>K10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J11:J11</xm:f>
-              <xm:sqref>K11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J12:J12</xm:f>
-              <xm:sqref>K12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J13:J13</xm:f>
-              <xm:sqref>K13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J14:J14</xm:f>
-              <xm:sqref>K14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J15:J15</xm:f>
-              <xm:sqref>K15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J16:J16</xm:f>
-              <xm:sqref>K16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J17:J17</xm:f>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J18:J18</xm:f>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J19:J19</xm:f>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J20:J20</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J21:J21</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J22:J22</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J23:J23</xm:f>
-              <xm:sqref>K23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J24:J24</xm:f>
-              <xm:sqref>K24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J25:J25</xm:f>
-              <xm:sqref>K25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J26:J26</xm:f>
-              <xm:sqref>K26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J27:J27</xm:f>
-              <xm:sqref>K27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J28:J28</xm:f>
-              <xm:sqref>K28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J29:J29</xm:f>
-              <xm:sqref>K29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J30:J30</xm:f>
-              <xm:sqref>K30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J31:J31</xm:f>
-              <xm:sqref>K31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J32:J32</xm:f>
-              <xm:sqref>K32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J33:J33</xm:f>
-              <xm:sqref>K33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J34:J34</xm:f>
-              <xm:sqref>K34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J35:J35</xm:f>
-              <xm:sqref>K35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J36:J36</xm:f>
-              <xm:sqref>K36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J37:J37</xm:f>
-              <xm:sqref>K37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -28706,7 +28706,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O31"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30699,7 +30699,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30710,8 +30710,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30731,7 +30731,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30742,8 +30742,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30757,11 +30757,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E70020B-64A4-492D-9830-6A4BD6B3C292}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C41" sqref="A34:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D500E6-1CB9-41BC-B98E-0721B0E02A9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3293F6B-57CB-4F3B-BC91-680564B85BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="295">
   <si>
     <t>Memory</t>
   </si>
@@ -916,6 +923,15 @@
   <si>
     <t>Rdiv If5</t>
   </si>
+  <si>
+    <t>Trim Zone</t>
+  </si>
+  <si>
+    <t>Zone Trim</t>
+  </si>
+  <si>
+    <t>Mobj trim</t>
+  </si>
 </sst>
 </file>
 
@@ -2776,10 +2792,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$B$2:$B$54</c:f>
+              <c:f>E1M1!$B$2:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>572432</c:v>
                 </c:pt>
@@ -2938,6 +2954,15 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>89472</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>89112</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88752</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>88032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3397,10 +3422,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$B$2:$B$46</c:f>
+              <c:f>E1M2!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>367176</c:v>
                 </c:pt>
@@ -3535,6 +3560,15 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>138664</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>137944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>137224</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>135784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,109 +4135,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>89472</c:v>
+                  <c:v>88032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138664</c:v>
+                  <c:v>135784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167620</c:v>
+                  <c:v>138600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134604</c:v>
+                  <c:v>111940</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133620</c:v>
+                  <c:v>109564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197068</c:v>
+                  <c:v>164392</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>154032</c:v>
+                  <c:v>126912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103356</c:v>
+                  <c:v>86504</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>129824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97796</c:v>
+                  <c:v>78900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197248</c:v>
+                  <c:v>164800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>138752</c:v>
+                  <c:v>113988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164136</c:v>
+                  <c:v>136888</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>181388</c:v>
+                  <c:v>151832</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>163660</c:v>
+                  <c:v>135492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>197616</c:v>
+                  <c:v>165864</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74292</c:v>
+                  <c:v>60808</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>70880</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80580</c:v>
+                  <c:v>64272</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>113980</c:v>
+                  <c:v>92964</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>151444</c:v>
+                  <c:v>122872</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168112</c:v>
+                  <c:v>139744</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183988</c:v>
+                  <c:v>152552</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156788</c:v>
+                  <c:v>129080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136976</c:v>
+                  <c:v>112722</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68728</c:v>
+                  <c:v>54224</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>119224</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>106076</c:v>
+                  <c:v>85404</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>142768</c:v>
+                  <c:v>117112</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>161720</c:v>
+                  <c:v>134592</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110740</c:v>
+                  <c:v>89492</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>168980</c:v>
+                  <c:v>140220</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>184264</c:v>
+                  <c:v>152684</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>195892</c:v>
+                  <c:v>162748</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>186336</c:v>
+                  <c:v>153964</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>198756</c:v>
@@ -5554,28 +5588,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>194672</c:v>
+                  <c:v>193056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193260</c:v>
+                  <c:v>191532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>159596</c:v>
+                  <c:v>156940</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334084</c:v>
+                  <c:v>330172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249652</c:v>
+                  <c:v>248084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384784</c:v>
+                  <c:v>380064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>416804</c:v>
+                  <c:v>412212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196672</c:v>
+                  <c:v>194480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13374,7 +13408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -14554,8 +14588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20959,10 +20993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20989,15 +21023,15 @@
         <v>572432</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D54" si="0">$F$2-B2</f>
+        <f t="shared" ref="D2:D57" si="0">$F$2-B2</f>
         <v>-310288</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E54" si="1">1-(D2/$F$2)</f>
+        <f t="shared" ref="E2:E57" si="1">1-(D2/$F$2)</f>
         <v>2.18365478515625</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F54" si="2">256*1024</f>
+        <f t="shared" ref="F2:F57" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -21009,7 +21043,7 @@
         <v>533516</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C54" si="3">B2-B3</f>
+        <f t="shared" ref="C3:C57" si="3">B2-B3</f>
         <v>38916</v>
       </c>
       <c r="D3">
@@ -22245,6 +22279,78 @@
         <v>0.34130859375</v>
       </c>
       <c r="F54">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55">
+        <v>89112</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>173032</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.339935302734375</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56">
+        <v>88752</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>173392</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33856201171875</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57">
+        <v>88032</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>174112</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3358154296875</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -22257,10 +22363,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C47" sqref="C47:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22287,15 +22393,15 @@
         <v>367176</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D46" si="0">$F$2-B2</f>
+        <f t="shared" ref="D2:D49" si="0">$F$2-B2</f>
         <v>-105032</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E46" si="1">1-(D2/$F$2)</f>
+        <f t="shared" ref="E2:E49" si="1">1-(D2/$F$2)</f>
         <v>1.400665283203125</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F46" si="2">256*1024</f>
+        <f t="shared" ref="F2:F49" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -22931,7 +23037,7 @@
         <v>252316</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C46" si="4">B28-B29</f>
+        <f t="shared" ref="C29:C49" si="4">B28-B29</f>
         <v>4132</v>
       </c>
       <c r="D29">
@@ -23351,6 +23457,78 @@
         <v>0.528961181640625</v>
       </c>
       <c r="F46">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47">
+        <v>137944</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>124200</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.526214599609375</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48">
+        <v>137224</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>124920</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.523468017578125</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49">
+        <v>135784</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>126360</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.517974853515625</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -26010,8 +26188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26089,15 +26267,15 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>89472</v>
+        <v>88032</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>172672</v>
+        <v>174112</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.34130859375</v>
+        <v>0.3358154296875</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E37" si="0">256*1024</f>
@@ -26148,15 +26326,15 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>138664</v>
+        <v>135784</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C37" si="5">$E$2-B3</f>
-        <v>123480</v>
+        <v>126360</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D37" si="6">1-(C3/$E$2)</f>
-        <v>0.528961181640625</v>
+        <v>0.517974853515625</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -26207,15 +26385,15 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>167620</v>
+        <v>138600</v>
       </c>
       <c r="C4">
         <f t="shared" si="5"/>
-        <v>94524</v>
+        <v>123544</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="6"/>
-        <v>0.6394195556640625</v>
+        <v>0.528717041015625</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -26266,15 +26444,15 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>134604</v>
+        <v>111940</v>
       </c>
       <c r="C5">
         <f t="shared" si="5"/>
-        <v>127540</v>
+        <v>150204</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="6"/>
-        <v>0.5134735107421875</v>
+        <v>0.4270172119140625</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -26325,15 +26503,15 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>133620</v>
+        <v>109564</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
-        <v>128524</v>
+        <v>152580</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="6"/>
-        <v>0.5097198486328125</v>
+        <v>0.4179534912109375</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -26384,15 +26562,15 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>197068</v>
+        <v>164392</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
-        <v>65076</v>
+        <v>97752</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="6"/>
-        <v>0.7517547607421875</v>
+        <v>0.627105712890625</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -26443,15 +26621,15 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>154032</v>
+        <v>126912</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
-        <v>108112</v>
+        <v>135232</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="6"/>
-        <v>0.58758544921875</v>
+        <v>0.484130859375</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -26502,15 +26680,15 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>103356</v>
+        <v>86504</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
-        <v>158788</v>
+        <v>175640</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="6"/>
-        <v>0.3942718505859375</v>
+        <v>0.329986572265625</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -26620,15 +26798,15 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>97796</v>
+        <v>78900</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
-        <v>164348</v>
+        <v>183244</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="6"/>
-        <v>0.3730621337890625</v>
+        <v>0.3009796142578125</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -26679,15 +26857,15 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>197248</v>
+        <v>164800</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
-        <v>64896</v>
+        <v>97344</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="6"/>
-        <v>0.75244140625</v>
+        <v>0.628662109375</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -26738,15 +26916,15 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>138752</v>
+        <v>113988</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
-        <v>123392</v>
+        <v>148156</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="6"/>
-        <v>0.529296875</v>
+        <v>0.4348297119140625</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -26797,15 +26975,15 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>164136</v>
+        <v>136888</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
-        <v>98008</v>
+        <v>125256</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="6"/>
-        <v>0.626129150390625</v>
+        <v>0.522186279296875</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -26856,15 +27034,15 @@
         <v>98</v>
       </c>
       <c r="B15">
-        <v>181388</v>
+        <v>151832</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
-        <v>80756</v>
+        <v>110312</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="6"/>
-        <v>0.6919403076171875</v>
+        <v>0.579193115234375</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -26915,15 +27093,15 @@
         <v>99</v>
       </c>
       <c r="B16">
-        <v>163660</v>
+        <v>135492</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
-        <v>98484</v>
+        <v>126652</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="6"/>
-        <v>0.6243133544921875</v>
+        <v>0.5168609619140625</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -26974,15 +27152,15 @@
         <v>100</v>
       </c>
       <c r="B17">
-        <v>197616</v>
+        <v>165864</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
-        <v>64528</v>
+        <v>96280</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="6"/>
-        <v>0.75384521484375</v>
+        <v>0.632720947265625</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -27033,15 +27211,15 @@
         <v>101</v>
       </c>
       <c r="B18">
-        <v>74292</v>
+        <v>60808</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
-        <v>187852</v>
+        <v>201336</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="6"/>
-        <v>0.2834014892578125</v>
+        <v>0.231964111328125</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -27151,15 +27329,15 @@
         <v>103</v>
       </c>
       <c r="B20">
-        <v>80580</v>
+        <v>64272</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
-        <v>181564</v>
+        <v>197872</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="6"/>
-        <v>0.3073883056640625</v>
+        <v>0.24517822265625</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -27210,15 +27388,15 @@
         <v>104</v>
       </c>
       <c r="B21">
-        <v>113980</v>
+        <v>92964</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
-        <v>148164</v>
+        <v>169180</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="6"/>
-        <v>0.4347991943359375</v>
+        <v>0.3546295166015625</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -27269,15 +27447,15 @@
         <v>105</v>
       </c>
       <c r="B22">
-        <v>151444</v>
+        <v>122872</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
-        <v>110700</v>
+        <v>139272</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="6"/>
-        <v>0.5777130126953125</v>
+        <v>0.468719482421875</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -27328,15 +27506,15 @@
         <v>106</v>
       </c>
       <c r="B23">
-        <v>168112</v>
+        <v>139744</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
-        <v>94032</v>
+        <v>122400</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="6"/>
-        <v>0.64129638671875</v>
+        <v>0.5330810546875</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -27387,15 +27565,15 @@
         <v>107</v>
       </c>
       <c r="B24">
-        <v>183988</v>
+        <v>152552</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
-        <v>78156</v>
+        <v>109592</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="6"/>
-        <v>0.7018585205078125</v>
+        <v>0.581939697265625</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -27446,15 +27624,15 @@
         <v>108</v>
       </c>
       <c r="B25">
-        <v>156788</v>
+        <v>129080</v>
       </c>
       <c r="C25">
         <f t="shared" si="5"/>
-        <v>105356</v>
+        <v>133064</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>0.5980987548828125</v>
+        <v>0.492401123046875</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -27505,15 +27683,15 @@
         <v>109</v>
       </c>
       <c r="B26">
-        <v>136976</v>
+        <v>112722</v>
       </c>
       <c r="C26">
         <f t="shared" si="5"/>
-        <v>125168</v>
+        <v>149422</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>0.52252197265625</v>
+        <v>0.43000030517578125</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -27564,15 +27742,15 @@
         <v>110</v>
       </c>
       <c r="B27">
-        <v>68728</v>
+        <v>54224</v>
       </c>
       <c r="C27">
         <f t="shared" si="5"/>
-        <v>193416</v>
+        <v>207920</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>0.262176513671875</v>
+        <v>0.20684814453125</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -27682,15 +27860,15 @@
         <v>112</v>
       </c>
       <c r="B29">
-        <v>106076</v>
+        <v>85404</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
-        <v>156068</v>
+        <v>176740</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>0.4046478271484375</v>
+        <v>0.3257904052734375</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -27741,15 +27919,15 @@
         <v>113</v>
       </c>
       <c r="B30">
-        <v>142768</v>
+        <v>117112</v>
       </c>
       <c r="C30">
         <f t="shared" si="5"/>
-        <v>119376</v>
+        <v>145032</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>0.54461669921875</v>
+        <v>0.446746826171875</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -27800,15 +27978,15 @@
         <v>114</v>
       </c>
       <c r="B31">
-        <v>161720</v>
+        <v>134592</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
-        <v>100424</v>
+        <v>127552</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>0.616912841796875</v>
+        <v>0.513427734375</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -27859,15 +28037,15 @@
         <v>115</v>
       </c>
       <c r="B32">
-        <v>110740</v>
+        <v>89492</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
-        <v>151404</v>
+        <v>172652</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>0.4224395751953125</v>
+        <v>0.3413848876953125</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
@@ -27918,15 +28096,15 @@
         <v>116</v>
       </c>
       <c r="B33">
-        <v>168980</v>
+        <v>140220</v>
       </c>
       <c r="C33">
         <f t="shared" si="5"/>
-        <v>93164</v>
+        <v>121924</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="6"/>
-        <v>0.6446075439453125</v>
+        <v>0.5348968505859375</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -27977,15 +28155,15 @@
         <v>117</v>
       </c>
       <c r="B34">
-        <v>184264</v>
+        <v>152684</v>
       </c>
       <c r="C34">
         <f t="shared" si="5"/>
-        <v>77880</v>
+        <v>109460</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="6"/>
-        <v>0.702911376953125</v>
+        <v>0.5824432373046875</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
@@ -28036,15 +28214,15 @@
         <v>118</v>
       </c>
       <c r="B35">
-        <v>195892</v>
+        <v>162748</v>
       </c>
       <c r="C35">
         <f t="shared" si="5"/>
-        <v>66252</v>
+        <v>99396</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="6"/>
-        <v>0.7472686767578125</v>
+        <v>0.6208343505859375</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
@@ -28095,15 +28273,15 @@
         <v>119</v>
       </c>
       <c r="B36">
-        <v>186336</v>
+        <v>153964</v>
       </c>
       <c r="C36">
         <f t="shared" si="5"/>
-        <v>75808</v>
+        <v>108180</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>0.7108154296875</v>
+        <v>0.5873260498046875</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
@@ -28383,6 +28561,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -28539,162 +28873,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -30699,7 +30877,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30710,8 +30888,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30731,7 +30909,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30742,8 +30920,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30757,8 +30935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E70020B-64A4-492D-9830-6A4BD6B3C292}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="A34:C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30791,15 +30969,15 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>194672</v>
+        <v>193056</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>67472</v>
+        <v>69088</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.74261474609375</v>
+        <v>0.7364501953125</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E10" si="0">256*1024</f>
@@ -30814,15 +30992,15 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>193260</v>
+        <v>191532</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C10" si="1">$E$2-B3</f>
-        <v>68884</v>
+        <v>70612</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D10" si="2">1-(C3/$E$2)</f>
-        <v>0.7372283935546875</v>
+        <v>0.7306365966796875</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -30837,15 +31015,15 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>159596</v>
+        <v>156940</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>102548</v>
+        <v>105204</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>0.6088104248046875</v>
+        <v>0.5986785888671875</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -30860,15 +31038,15 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>334084</v>
+        <v>330172</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>-71940</v>
+        <v>-68028</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>1.2744293212890625</v>
+        <v>1.2595062255859375</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -30883,15 +31061,15 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>249652</v>
+        <v>248084</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>12492</v>
+        <v>14060</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>0.9523468017578125</v>
+        <v>0.9463653564453125</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -30906,15 +31084,15 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>384784</v>
+        <v>380064</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>-122640</v>
+        <v>-117920</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>1.46783447265625</v>
+        <v>1.4498291015625</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -30929,15 +31107,15 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>416804</v>
+        <v>412212</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-154660</v>
+        <v>-150068</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>1.5899810791015625</v>
+        <v>1.5724639892578125</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -30952,15 +31130,15 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>196672</v>
+        <v>194480</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>65472</v>
+        <v>67664</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>0.750244140625</v>
+        <v>0.74188232421875</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3293F6B-57CB-4F3B-BC91-680564B85BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A219D-219A-4F82-9902-37908716A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6121,70 +6121,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>117480</c:v>
+                  <c:v>116520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130088</c:v>
+                  <c:v>126952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128084</c:v>
+                  <c:v>127656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149536</c:v>
+                  <c:v>145288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134320</c:v>
+                  <c:v>135428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163368</c:v>
+                  <c:v>162480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98408</c:v>
+                  <c:v>98660</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166324</c:v>
+                  <c:v>162952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>203620</c:v>
+                  <c:v>201832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130528</c:v>
+                  <c:v>130184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148072</c:v>
+                  <c:v>143244</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172084</c:v>
+                  <c:v>168366</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156956</c:v>
+                  <c:v>151312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>146208</c:v>
+                  <c:v>142376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>162296</c:v>
+                  <c:v>159172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>141304</c:v>
+                  <c:v>137944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>165228</c:v>
+                  <c:v>161924</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>183092</c:v>
+                  <c:v>175588</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150760</c:v>
+                  <c:v>148360</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165728</c:v>
+                  <c:v>162380</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>112774</c:v>
+                  <c:v>114288</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>209108</c:v>
+                  <c:v>203392</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>257364</c:v>
@@ -14589,7 +14589,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14627,15 +14627,15 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>117480</v>
+        <v>116520</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>144664</v>
+        <v>145624</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.448150634765625</v>
+        <v>0.444488525390625</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" si="0">256*1024</f>
@@ -14650,15 +14650,15 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>130088</v>
+        <v>126952</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C33" si="1">$E$2-B3</f>
-        <v>132056</v>
+        <v>135192</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D33" si="2">1-(C3/$E$2)</f>
-        <v>0.496246337890625</v>
+        <v>0.484283447265625</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -14673,15 +14673,15 @@
         <v>123</v>
       </c>
       <c r="B4">
-        <v>128084</v>
+        <v>127656</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>134060</v>
+        <v>134488</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>0.4886016845703125</v>
+        <v>0.486968994140625</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -14696,15 +14696,15 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>149536</v>
+        <v>145288</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>112608</v>
+        <v>116856</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>0.5704345703125</v>
+        <v>0.554229736328125</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -14719,15 +14719,15 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>134320</v>
+        <v>135428</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>127824</v>
+        <v>126716</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>0.51239013671875</v>
+        <v>0.5166168212890625</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -14742,15 +14742,15 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>163368</v>
+        <v>162480</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>98776</v>
+        <v>99664</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>0.623199462890625</v>
+        <v>0.61981201171875</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -14765,15 +14765,15 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>98408</v>
+        <v>98660</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>163736</v>
+        <v>163484</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>0.375396728515625</v>
+        <v>0.3763580322265625</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -14788,15 +14788,15 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>166324</v>
+        <v>162952</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>95820</v>
+        <v>99192</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>0.6344757080078125</v>
+        <v>0.621612548828125</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -14811,15 +14811,15 @@
         <v>129</v>
       </c>
       <c r="B10">
-        <v>203620</v>
+        <v>201832</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>58524</v>
+        <v>60312</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>0.7767486572265625</v>
+        <v>0.769927978515625</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -14834,15 +14834,15 @@
         <v>130</v>
       </c>
       <c r="B11">
-        <v>130528</v>
+        <v>130184</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>131616</v>
+        <v>131960</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>0.4979248046875</v>
+        <v>0.496612548828125</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -14857,15 +14857,15 @@
         <v>131</v>
       </c>
       <c r="B12">
-        <v>148072</v>
+        <v>143244</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>114072</v>
+        <v>118900</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>0.564849853515625</v>
+        <v>0.5464324951171875</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -14880,15 +14880,15 @@
         <v>132</v>
       </c>
       <c r="B13">
-        <v>172084</v>
+        <v>168366</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>90060</v>
+        <v>93778</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>0.6564483642578125</v>
+        <v>0.64226531982421875</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -14903,15 +14903,15 @@
         <v>133</v>
       </c>
       <c r="B14">
-        <v>156956</v>
+        <v>151312</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>105188</v>
+        <v>110832</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>0.5987396240234375</v>
+        <v>0.57720947265625</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -14926,15 +14926,15 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>146208</v>
+        <v>142376</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>115936</v>
+        <v>119768</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>0.5577392578125</v>
+        <v>0.543121337890625</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -14949,15 +14949,15 @@
         <v>135</v>
       </c>
       <c r="B16">
-        <v>162296</v>
+        <v>159172</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>99848</v>
+        <v>102972</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>0.619110107421875</v>
+        <v>0.6071929931640625</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -14972,15 +14972,15 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <v>141304</v>
+        <v>137944</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>120840</v>
+        <v>124200</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>0.539031982421875</v>
+        <v>0.526214599609375</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -14995,15 +14995,15 @@
         <v>137</v>
       </c>
       <c r="B18">
-        <v>165228</v>
+        <v>161924</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>96916</v>
+        <v>100220</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>0.6302947998046875</v>
+        <v>0.6176910400390625</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -15018,15 +15018,15 @@
         <v>138</v>
       </c>
       <c r="B19">
-        <v>183092</v>
+        <v>175588</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>79052</v>
+        <v>86556</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>0.6984405517578125</v>
+        <v>0.6698150634765625</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -15041,15 +15041,15 @@
         <v>139</v>
       </c>
       <c r="B20">
-        <v>150760</v>
+        <v>148360</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>111384</v>
+        <v>113784</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>0.575103759765625</v>
+        <v>0.565948486328125</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -15064,15 +15064,15 @@
         <v>140</v>
       </c>
       <c r="B21">
-        <v>165728</v>
+        <v>162380</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>96416</v>
+        <v>99764</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>0.6322021484375</v>
+        <v>0.6194305419921875</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -15085,15 +15085,15 @@
         <v>141</v>
       </c>
       <c r="B22">
-        <v>112774</v>
+        <v>114288</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>149370</v>
+        <v>147856</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>0.43019866943359375</v>
+        <v>0.43597412109375</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -15106,15 +15106,15 @@
         <v>142</v>
       </c>
       <c r="B23">
-        <v>209108</v>
+        <v>203392</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>53036</v>
+        <v>58752</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>0.7976837158203125</v>
+        <v>0.77587890625</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -20995,7 +20995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55:C57"/>
     </sheetView>
   </sheetViews>
@@ -26188,8 +26188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28561,6 +28561,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J3:J3</xm:f>
+              <xm:sqref>K3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J4:J4</xm:f>
+              <xm:sqref>K4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J5:J5</xm:f>
+              <xm:sqref>K5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J6:J6</xm:f>
+              <xm:sqref>K6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J7:J7</xm:f>
+              <xm:sqref>K7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J8:J8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J9:J9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J10:J10</xm:f>
+              <xm:sqref>K10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J11:J11</xm:f>
+              <xm:sqref>K11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J12:J12</xm:f>
+              <xm:sqref>K12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J13:J13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J14:J14</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J15:J15</xm:f>
+              <xm:sqref>K15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J16:J16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J17:J17</xm:f>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J18:J18</xm:f>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J19:J19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J20:J20</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J21:J21</xm:f>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J22:J22</xm:f>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J23:J23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J24:J24</xm:f>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J25:J25</xm:f>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J26:J26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J27:J27</xm:f>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J28:J28</xm:f>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J29:J29</xm:f>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J30:J30</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J31:J31</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J32:J32</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J33:J33</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J34:J34</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J35:J35</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J36:J36</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J37:J37</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -28717,162 +28873,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J3:J3</xm:f>
-              <xm:sqref>K3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J4:J4</xm:f>
-              <xm:sqref>K4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J5:J5</xm:f>
-              <xm:sqref>K5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J6:J6</xm:f>
-              <xm:sqref>K6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J7:J7</xm:f>
-              <xm:sqref>K7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J8:J8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J9:J9</xm:f>
-              <xm:sqref>K9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J10:J10</xm:f>
-              <xm:sqref>K10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J11:J11</xm:f>
-              <xm:sqref>K11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J12:J12</xm:f>
-              <xm:sqref>K12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J13:J13</xm:f>
-              <xm:sqref>K13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J14:J14</xm:f>
-              <xm:sqref>K14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J15:J15</xm:f>
-              <xm:sqref>K15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J16:J16</xm:f>
-              <xm:sqref>K16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J17:J17</xm:f>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J18:J18</xm:f>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J19:J19</xm:f>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J20:J20</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J21:J21</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J22:J22</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J23:J23</xm:f>
-              <xm:sqref>K23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J24:J24</xm:f>
-              <xm:sqref>K24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J25:J25</xm:f>
-              <xm:sqref>K25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J26:J26</xm:f>
-              <xm:sqref>K26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J27:J27</xm:f>
-              <xm:sqref>K27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J28:J28</xm:f>
-              <xm:sqref>K28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J29:J29</xm:f>
-              <xm:sqref>K29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J30:J30</xm:f>
-              <xm:sqref>K30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J31:J31</xm:f>
-              <xm:sqref>K31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J32:J32</xm:f>
-              <xm:sqref>K32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J33:J33</xm:f>
-              <xm:sqref>K33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J34:J34</xm:f>
-              <xm:sqref>K34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J35:J35</xm:f>
-              <xm:sqref>K35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J36:J36</xm:f>
-              <xm:sqref>K36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J37:J37</xm:f>
-              <xm:sqref>K37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -30877,7 +30877,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30888,8 +30888,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -30909,7 +30909,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -30920,8 +30920,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A219D-219A-4F82-9902-37908716A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF63A8-8BD6-4EAE-84A8-DDC1CE777006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -1470,6 +1470,520 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 ways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 ways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 ways</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 ways</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 ways</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 ways</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$95:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.966666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.066666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D54-4356-B766-3DB2D31EB3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-360647904"/>
+        <c:axId val="-360648992"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hit rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$95:$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1 ways</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 ways</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 ways</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 ways</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 ways</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 ways</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 ways</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128 ways</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$95:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.30395383960035627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37901556134375208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53091758194240246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77086259094854659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80581321367578607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99931013548938985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99909994239631339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99908201296197696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D54-4356-B766-3DB2D31EB3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-360654432"/>
+        <c:axId val="-360651168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-360647904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360648992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-360648992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360647904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-360651168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360654432"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-360654432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-360651168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -6187,7 +6701,7 @@
                   <c:v>203392</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>257364</c:v>
+                  <c:v>245248</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>150508</c:v>
@@ -6202,13 +6716,19 @@
                   <c:v>180836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>272356</c:v>
+                  <c:v>258596</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>216236</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>144748</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>144152</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>182048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,6 +7239,261 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TNT Levels'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TNT Levels'!$A$2:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>MAP01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAP02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAP04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAP05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MAP06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAP07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MAP08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAP09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MAP10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAP11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MAP12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAP13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MAP14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MAP15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MAP16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MAP17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MAP18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MAP19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MAP20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MAP21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MAP22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MAP23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MAP24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MAP25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MAP26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MAP27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>MAP28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>MAP29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>MAP30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MAP31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>MAP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TNT Levels'!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>92080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110640</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>227124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169956</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>179892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162496</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190946</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>253324</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>230488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201840</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>130528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>178932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>237540</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>129252</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>205560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>183604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>227004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>169192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D00F-4FC8-BC54-171AACD79B53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="595279120"/>
+        <c:axId val="251507616"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -6727,11 +7502,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$94</c:f>
+              <c:f>'TNT Levels'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FPS</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6750,59 +7525,209 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:f>'TNT Levels'!$A$2:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1 ways</c:v>
+                  <c:v>MAP01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2 ways</c:v>
+                  <c:v>MAP02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4 ways</c:v>
+                  <c:v>MAP03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8 ways</c:v>
+                  <c:v>MAP04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16 ways</c:v>
+                  <c:v>MAP05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32 ways</c:v>
+                  <c:v>MAP06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MAP07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MAP08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MAP09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MAP10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MAP11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MAP12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MAP13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MAP14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MAP15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MAP16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MAP17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MAP18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MAP19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>MAP20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>MAP21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MAP22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MAP23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MAP24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>MAP25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>MAP26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>MAP27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>MAP28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>MAP29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>MAP30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>MAP31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>MAP32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$95:$H$102</c:f>
+              <c:f>'TNT Levels'!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>13.7</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.866666666666667</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.633333333333333</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.933333333333334</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.233333333333334</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.966666666666665</c:v>
+                  <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.066666666666666</c:v>
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6810,7 +7735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D54-4356-B766-3DB2D31EB3EA}"/>
+              <c16:uniqueId val="{00000001-D00F-4FC8-BC54-171AACD79B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6824,125 +7749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-360647904"/>
-        <c:axId val="-360648992"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$94</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hit rate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$95:$A$102</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1 ways</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 ways</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 ways</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8 ways</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16 ways</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32 ways</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64 ways</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128 ways</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$95:$E$102</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.30395383960035627</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37901556134375208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53091758194240246</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77086259094854659</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80581321367578607</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99931013548938985</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99909994239631339</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99908201296197696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D54-4356-B766-3DB2D31EB3EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-360654432"/>
-        <c:axId val="-360651168"/>
+        <c:axId val="595279120"/>
+        <c:axId val="251507616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-360647904"/>
+        <c:axId val="595279120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6985,7 +7796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360648992"/>
+        <c:crossAx val="251507616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6993,7 +7804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-360648992"/>
+        <c:axId val="251507616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7044,72 +7855,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360647904"/>
+        <c:crossAx val="595279120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-360651168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-360654432"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="-360654432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-360651168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7227,6 +7976,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8618,6 +9407,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12775,6 +14080,47 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13106,27 +14452,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8836CEB3-B5BE-4E69-BAF0-645B4CCED401}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14588,13 +15936,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
@@ -15127,15 +16475,15 @@
         <v>143</v>
       </c>
       <c r="B24">
-        <v>257364</v>
+        <v>245248</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>4780</v>
+        <v>16896</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>0.9817657470703125</v>
+        <v>0.935546875</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -15232,15 +16580,15 @@
         <v>148</v>
       </c>
       <c r="B29">
-        <v>272356</v>
+        <v>258596</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>-10212</v>
+        <v>3548</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>1.0389556884765625</v>
+        <v>0.9864654541015625</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -15294,13 +16642,16 @@
       <c r="A32" t="s">
         <v>151</v>
       </c>
+      <c r="B32">
+        <v>144152</v>
+      </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>262144</v>
+        <v>117992</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.549896240234375</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
@@ -15312,13 +16663,16 @@
       <c r="A33" t="s">
         <v>152</v>
       </c>
+      <c r="B33">
+        <v>182048</v>
+      </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>262144</v>
+        <v>80096</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.6944580078125</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -15364,7 +16718,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15373,7 +16728,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15415,15 +16770,15 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>91172</v>
+        <v>92080</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>170972</v>
+        <v>170064</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.3477935791015625</v>
+        <v>0.35125732421875</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" si="0">256*1024</f>
@@ -15439,15 +16794,15 @@
         <v>122</v>
       </c>
       <c r="B3">
-        <v>111500</v>
+        <v>112344</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C33" si="2">$E$2-B3</f>
-        <v>150644</v>
+        <v>149800</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D33" si="3">1-(C3/$E$2)</f>
-        <v>0.4253387451171875</v>
+        <v>0.428558349609375</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -15463,15 +16818,15 @@
         <v>123</v>
       </c>
       <c r="B4">
-        <v>140936</v>
+        <v>139628</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>121208</v>
+        <v>122516</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="3"/>
-        <v>0.537628173828125</v>
+        <v>0.5326385498046875</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -15487,15 +16842,15 @@
         <v>124</v>
       </c>
       <c r="B5">
-        <v>177676</v>
+        <v>176400</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>84468</v>
+        <v>85744</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="3"/>
-        <v>0.6777801513671875</v>
+        <v>0.67291259765625</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -15511,15 +16866,15 @@
         <v>125</v>
       </c>
       <c r="B6">
-        <v>157600</v>
+        <v>156784</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>104544</v>
+        <v>105360</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="3"/>
-        <v>0.6011962890625</v>
+        <v>0.59808349609375</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -15535,15 +16890,15 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>109716</v>
+        <v>110640</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>152428</v>
+        <v>151504</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>0.4185333251953125</v>
+        <v>0.42205810546875</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -15559,15 +16914,15 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>151076</v>
+        <v>151480</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>111068</v>
+        <v>110664</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>0.5763092041015625</v>
+        <v>0.577850341796875</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -15582,13 +16937,16 @@
       <c r="A9" t="s">
         <v>128</v>
       </c>
+      <c r="B9">
+        <v>178824</v>
+      </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>83320</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.682159423828125</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -15603,13 +16961,16 @@
       <c r="A10" t="s">
         <v>129</v>
       </c>
+      <c r="B10">
+        <v>227124</v>
+      </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>35020</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.8664093017578125</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -15624,13 +16985,16 @@
       <c r="A11" t="s">
         <v>130</v>
       </c>
+      <c r="B11">
+        <v>126344</v>
+      </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>135800</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.481964111328125</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -15645,13 +17009,16 @@
       <c r="A12" t="s">
         <v>131</v>
       </c>
+      <c r="B12">
+        <v>169956</v>
+      </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>92188</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6483306884765625</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -15666,13 +17033,16 @@
       <c r="A13" t="s">
         <v>132</v>
       </c>
+      <c r="B13">
+        <v>159204</v>
+      </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>102940</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6073150634765625</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -15687,13 +17057,16 @@
       <c r="A14" t="s">
         <v>133</v>
       </c>
+      <c r="B14">
+        <v>179892</v>
+      </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>82252</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6862335205078125</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -15708,13 +17081,16 @@
       <c r="A15" t="s">
         <v>134</v>
       </c>
+      <c r="B15">
+        <v>162496</v>
+      </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>99648</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.619873046875</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -15729,13 +17105,16 @@
       <c r="A16" t="s">
         <v>135</v>
       </c>
+      <c r="B16">
+        <v>160216</v>
+      </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>101928</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.611175537109375</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -15750,13 +17129,16 @@
       <c r="A17" t="s">
         <v>136</v>
       </c>
+      <c r="B17">
+        <v>204316</v>
+      </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>57828</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.7794036865234375</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -15771,13 +17153,16 @@
       <c r="A18" t="s">
         <v>137</v>
       </c>
+      <c r="B18">
+        <v>148952</v>
+      </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>113192</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.568206787109375</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -15792,13 +17177,16 @@
       <c r="A19" t="s">
         <v>138</v>
       </c>
+      <c r="B19">
+        <v>203000</v>
+      </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>59144</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.774383544921875</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -15813,13 +17201,16 @@
       <c r="A20" t="s">
         <v>139</v>
       </c>
+      <c r="B20">
+        <v>190946</v>
+      </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>71198</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.72840118408203125</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -15834,13 +17225,16 @@
       <c r="A21" t="s">
         <v>140</v>
       </c>
+      <c r="B21">
+        <v>253324</v>
+      </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>8820</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.9663543701171875</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -15855,13 +17249,16 @@
       <c r="A22" t="s">
         <v>141</v>
       </c>
+      <c r="B22">
+        <v>230488</v>
+      </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>31656</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.879241943359375</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -15876,13 +17273,16 @@
       <c r="A23" t="s">
         <v>142</v>
       </c>
+      <c r="B23">
+        <v>201840</v>
+      </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>60304</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.76995849609375</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -15897,13 +17297,16 @@
       <c r="A24" t="s">
         <v>143</v>
       </c>
+      <c r="B24">
+        <v>145284</v>
+      </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>116860</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5542144775390625</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -15918,13 +17321,16 @@
       <c r="A25" t="s">
         <v>144</v>
       </c>
+      <c r="B25">
+        <v>130528</v>
+      </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>131616</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4979248046875</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -15939,13 +17345,16 @@
       <c r="A26" t="s">
         <v>145</v>
       </c>
+      <c r="B26">
+        <v>170148</v>
+      </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>91996</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6490631103515625</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -15960,13 +17369,16 @@
       <c r="A27" t="s">
         <v>146</v>
       </c>
+      <c r="B27">
+        <v>178932</v>
+      </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>83212</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6825714111328125</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -15981,13 +17393,16 @@
       <c r="A28" t="s">
         <v>147</v>
       </c>
+      <c r="B28">
+        <v>237540</v>
+      </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>24604</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.9061431884765625</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -16002,13 +17417,16 @@
       <c r="A29" t="s">
         <v>148</v>
       </c>
+      <c r="B29">
+        <v>129252</v>
+      </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>132892</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4930572509765625</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -16023,13 +17441,16 @@
       <c r="A30" t="s">
         <v>149</v>
       </c>
+      <c r="B30">
+        <v>205560</v>
+      </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>56584</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.784149169921875</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -16044,13 +17465,16 @@
       <c r="A31" t="s">
         <v>150</v>
       </c>
+      <c r="B31">
+        <v>183604</v>
+      </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>78540</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.7003936767578125</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -16065,13 +17489,16 @@
       <c r="A32" t="s">
         <v>151</v>
       </c>
+      <c r="B32">
+        <v>227004</v>
+      </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>35140</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.8659515380859375</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
@@ -16086,13 +17513,16 @@
       <c r="A33" t="s">
         <v>152</v>
       </c>
+      <c r="B33">
+        <v>169192</v>
+      </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>262144</v>
+        <v>92952</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.645416259765625</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -16129,6 +17559,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16374,7 +17805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:Q291"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
+    <sheetView topLeftCell="A220" workbookViewId="0">
       <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
@@ -26188,8 +27619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30935,8 +32366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E70020B-64A4-492D-9830-6A4BD6B3C292}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF63A8-8BD6-4EAE-84A8-DDC1CE777006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B91086-424D-4523-AA75-619A1B14856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -4673,7 +4673,7 @@
                   <c:v>86504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129824</c:v>
+                  <c:v>106704</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>78900</c:v>
@@ -4700,7 +4700,7 @@
                   <c:v>60808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70880</c:v>
+                  <c:v>58040</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>64272</c:v>
@@ -4727,7 +4727,7 @@
                   <c:v>54224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>119224</c:v>
+                  <c:v>99744</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>85404</c:v>
@@ -4754,7 +4754,7 @@
                   <c:v>153964</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>198756</c:v>
+                  <c:v>159232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5518,10 +5518,10 @@
                   <c:v>82832</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>143968</c:v>
+                  <c:v>121900</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>92084</c:v>
+                  <c:v>77308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,28 +6102,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>193056</c:v>
+                  <c:v>182784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191532</c:v>
+                  <c:v>183848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156940</c:v>
+                  <c:v>151756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330172</c:v>
+                  <c:v>305792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248084</c:v>
+                  <c:v>236420</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>380064</c:v>
+                  <c:v>352460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412212</c:v>
+                  <c:v>382848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>194480</c:v>
+                  <c:v>184836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27619,8 +27622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28170,15 +28173,15 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>129824</v>
+        <v>106704</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
-        <v>132320</v>
+        <v>155440</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="6"/>
-        <v>0.4952392578125</v>
+        <v>0.40704345703125</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -28701,15 +28704,15 @@
         <v>102</v>
       </c>
       <c r="B19">
-        <v>70880</v>
+        <v>58040</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
-        <v>191264</v>
+        <v>204104</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>0.2703857421875</v>
+        <v>0.221405029296875</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -29232,15 +29235,15 @@
         <v>111</v>
       </c>
       <c r="B28">
-        <v>119224</v>
+        <v>99744</v>
       </c>
       <c r="C28">
         <f t="shared" si="5"/>
-        <v>142920</v>
+        <v>162400</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>0.454803466796875</v>
+        <v>0.3804931640625</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -29763,15 +29766,15 @@
         <v>120</v>
       </c>
       <c r="B37">
-        <v>198756</v>
+        <v>159232</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>63388</v>
+        <v>102912</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>0.7581939697265625</v>
+        <v>0.607421875</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
@@ -30314,8 +30317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32163,15 +32166,15 @@
         <v>151</v>
       </c>
       <c r="B32">
-        <v>143968</v>
+        <v>121900</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>118176</v>
+        <v>140244</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>0.5491943359375</v>
+        <v>0.4650115966796875</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
@@ -32205,15 +32208,15 @@
         <v>152</v>
       </c>
       <c r="B33">
-        <v>92084</v>
+        <v>77308</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>170060</v>
+        <v>184836</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
-        <v>0.3512725830078125</v>
+        <v>0.2949066162109375</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -32366,8 +32369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E70020B-64A4-492D-9830-6A4BD6B3C292}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32400,15 +32403,15 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>193056</v>
+        <v>182784</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>69088</v>
+        <v>79360</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.7364501953125</v>
+        <v>0.697265625</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E10" si="0">256*1024</f>
@@ -32423,15 +32426,15 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>191532</v>
+        <v>183848</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C10" si="1">$E$2-B3</f>
-        <v>70612</v>
+        <v>78296</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D10" si="2">1-(C3/$E$2)</f>
-        <v>0.7306365966796875</v>
+        <v>0.701324462890625</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -32446,15 +32449,15 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <v>156940</v>
+        <v>151756</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>105204</v>
+        <v>110388</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>0.5986785888671875</v>
+        <v>0.5789031982421875</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -32469,15 +32472,15 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>330172</v>
+        <v>305792</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>-68028</v>
+        <v>-43648</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>1.2595062255859375</v>
+        <v>1.16650390625</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -32492,15 +32495,15 @@
         <v>89</v>
       </c>
       <c r="B6">
-        <v>248084</v>
+        <v>236420</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>14060</v>
+        <v>25724</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>0.9463653564453125</v>
+        <v>0.9018707275390625</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -32515,15 +32518,15 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>380064</v>
+        <v>352460</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>-117920</v>
+        <v>-90316</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>1.4498291015625</v>
+        <v>1.3445281982421875</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -32538,15 +32541,15 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>412212</v>
+        <v>382848</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-150068</v>
+        <v>-120704</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>1.5724639892578125</v>
+        <v>1.46044921875</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -32561,15 +32564,15 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>194480</v>
+        <v>184836</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>67664</v>
+        <v>77308</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>0.74188232421875</v>
+        <v>0.7050933837890625</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -32583,13 +32586,16 @@
       <c r="A10" t="s">
         <v>93</v>
       </c>
+      <c r="B10">
+        <v>231068</v>
+      </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>262144</v>
+        <v>31076</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8814544677734375</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B91086-424D-4523-AA75-619A1B14856F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E91EA-B8E4-4DA4-9DB2-13BE59289742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -6704,7 +6704,7 @@
                   <c:v>203392</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>245248</c:v>
+                  <c:v>243080</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>150508</c:v>
@@ -6719,7 +6719,7 @@
                   <c:v>180836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>258596</c:v>
+                  <c:v>255260</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>216236</c:v>
@@ -15940,7 +15940,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16478,15 +16478,15 @@
         <v>143</v>
       </c>
       <c r="B24">
-        <v>245248</v>
+        <v>243080</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>16896</v>
+        <v>19064</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>0.935546875</v>
+        <v>0.927276611328125</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -16583,15 +16583,15 @@
         <v>148</v>
       </c>
       <c r="B29">
-        <v>258596</v>
+        <v>255260</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>3548</v>
+        <v>6884</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>0.9864654541015625</v>
+        <v>0.9737396240234375</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -27622,7 +27622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -29995,6 +29995,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -30151,162 +30307,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -30317,8 +30317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32311,7 +32311,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32322,8 +32322,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -32343,7 +32343,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32354,8 +32354,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E91EA-B8E4-4DA4-9DB2-13BE59289742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCCB589-23A5-469B-8411-894A05A1B65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="305">
   <si>
     <t>Memory</t>
   </si>
@@ -932,6 +932,54 @@
   <si>
     <t>Mobj trim</t>
   </si>
+  <si>
+    <t>Map28</t>
+  </si>
+  <si>
+    <t>sector_t</t>
+  </si>
+  <si>
+    <t>side_t</t>
+  </si>
+  <si>
+    <t>linedata_t</t>
+  </si>
+  <si>
+    <r>
+      <t>_g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>blocklinks</t>
+    </r>
+  </si>
+  <si>
+    <t>subsector_t</t>
+  </si>
+  <si>
+    <t>line_t</t>
+  </si>
+  <si>
+    <t>mobj_t</t>
+  </si>
+  <si>
+    <t>_g-&gt;blocklinks</t>
+  </si>
+  <si>
+    <t>Slim Structs</t>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +990,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1017,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE5C00"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -997,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,6 +1082,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,10 +1168,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Globals!$B$2:$B$49</c:f>
+              <c:f>Globals!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>112960</c:v>
                 </c:pt>
@@ -1245,6 +1315,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>24128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,10 +2869,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>D_DoomLoop!$B$2:$B$35</c:f>
+              <c:f>D_DoomLoop!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>627068</c:v>
                 </c:pt>
@@ -2901,6 +2974,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,10 +3005,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>D_DoomLoop!$F$2:$F$35</c:f>
+              <c:f>D_DoomLoop!$F$2:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -3033,6 +3109,9 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3306,10 +3385,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$B$2:$B$57</c:f>
+              <c:f>E1M1!$B$2:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>572432</c:v>
                 </c:pt>
@@ -3477,6 +3556,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>88032</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,10 +3587,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$F$2:$F$53</c:f>
+              <c:f>E1M1!$F$2:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -3663,6 +3745,21 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3936,10 +4033,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$B$2:$B$49</c:f>
+              <c:f>E1M2!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>367176</c:v>
                 </c:pt>
@@ -4083,6 +4180,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>135784</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>134836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,10 +4211,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$F$2:$F$45</c:f>
+              <c:f>E1M2!$F$2:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -4245,6 +4345,21 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -6719,7 +6834,7 @@
                   <c:v>180836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>255260</c:v>
+                  <c:v>257500</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>216236</c:v>
@@ -14757,10 +14872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14844,7 +14959,7 @@
         <v>0.19654083251953125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F49" si="3">256*1024</f>
+        <f t="shared" ref="F4:F50" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -15924,6 +16039,30 @@
         <v>9.2041015625E-2</v>
       </c>
       <c r="F49">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50">
+        <v>23256</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="5">B49-B50</f>
+        <v>872</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="6">$F$3-B50</f>
+        <v>238888</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50" si="7">1-(D50/$F$3)</f>
+        <v>8.8714599609375E-2</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -15937,10 +16076,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16583,15 +16722,15 @@
         <v>148</v>
       </c>
       <c r="B29">
-        <v>255260</v>
+        <v>257500</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>6884</v>
+        <v>4644</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>0.9737396240234375</v>
+        <v>0.9822845458984375</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -16683,7 +16822,116 @@
       </c>
       <c r="F33" s="4"/>
     </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41">
+        <v>74172</v>
+      </c>
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41">
+        <v>17836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42">
+        <v>44416</v>
+      </c>
+      <c r="E42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43">
+        <v>20168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43">
+        <v>20168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44">
+        <v>17836</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44">
+        <v>15640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45">
+        <v>15640</v>
+      </c>
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <v>13104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46">
+        <v>14328</v>
+      </c>
+      <c r="E46" t="s">
+        <v>301</v>
+      </c>
+      <c r="F46">
+        <v>14328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47">
+        <v>13104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47">
+        <v>74172</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:B47">
+    <sortCondition descending="1" ref="B41:B47"/>
+  </sortState>
   <conditionalFormatting sqref="C2:C33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -21584,10 +21832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21671,7 +21919,7 @@
         <v>1.1417999267578125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F35" si="3">256*1024</f>
+        <f t="shared" ref="F4:F36" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -22415,6 +22663,30 @@
         <v>0.158843994140625</v>
       </c>
       <c r="F35">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36">
+        <v>39304</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36" si="4">B35-B36</f>
+        <v>2336</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36" si="5">$F$3-B36</f>
+        <v>222840</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36" si="6">1-(D36/$F$3)</f>
+        <v>0.149932861328125</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -22427,10 +22699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C57"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22465,7 +22737,7 @@
         <v>2.18365478515625</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F57" si="2">256*1024</f>
+        <f t="shared" ref="F2:F58" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -23785,6 +24057,30 @@
         <v>0.3358154296875</v>
       </c>
       <c r="F57">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58">
+        <v>88128</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58" si="4">B57-B58</f>
+        <v>-96</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58" si="5">$F$2-B58</f>
+        <v>174016</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" ref="E58" si="6">1-(D58/$F$2)</f>
+        <v>0.336181640625</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -23797,10 +24093,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23835,7 +24131,7 @@
         <v>1.400665283203125</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F49" si="2">256*1024</f>
+        <f t="shared" ref="F2:F50" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -24963,6 +25259,30 @@
         <v>0.517974853515625</v>
       </c>
       <c r="F49">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50">
+        <v>134836</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="5">B49-B50</f>
+        <v>948</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="6">$F$2-B50</f>
+        <v>127308</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ref="E50" si="7">1-(D50/$F$2)</f>
+        <v>0.5143585205078125</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -27622,7 +27942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -29995,6 +30315,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J3:J3</xm:f>
+              <xm:sqref>K3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J4:J4</xm:f>
+              <xm:sqref>K4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J5:J5</xm:f>
+              <xm:sqref>K5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J6:J6</xm:f>
+              <xm:sqref>K6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J7:J7</xm:f>
+              <xm:sqref>K7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J8:J8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J9:J9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J10:J10</xm:f>
+              <xm:sqref>K10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J11:J11</xm:f>
+              <xm:sqref>K11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J12:J12</xm:f>
+              <xm:sqref>K12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J13:J13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J14:J14</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J15:J15</xm:f>
+              <xm:sqref>K15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J16:J16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J17:J17</xm:f>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J18:J18</xm:f>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J19:J19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J20:J20</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J21:J21</xm:f>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J22:J22</xm:f>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J23:J23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J24:J24</xm:f>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J25:J25</xm:f>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J26:J26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J27:J27</xm:f>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J28:J28</xm:f>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J29:J29</xm:f>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J30:J30</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J31:J31</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J32:J32</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J33:J33</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J34:J34</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J35:J35</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J36:J36</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J37:J37</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -30151,162 +30627,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J3:J3</xm:f>
-              <xm:sqref>K3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J4:J4</xm:f>
-              <xm:sqref>K4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J5:J5</xm:f>
-              <xm:sqref>K5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J6:J6</xm:f>
-              <xm:sqref>K6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J7:J7</xm:f>
-              <xm:sqref>K7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J8:J8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J9:J9</xm:f>
-              <xm:sqref>K9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J10:J10</xm:f>
-              <xm:sqref>K10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J11:J11</xm:f>
-              <xm:sqref>K11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J12:J12</xm:f>
-              <xm:sqref>K12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J13:J13</xm:f>
-              <xm:sqref>K13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J14:J14</xm:f>
-              <xm:sqref>K14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J15:J15</xm:f>
-              <xm:sqref>K15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J16:J16</xm:f>
-              <xm:sqref>K16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J17:J17</xm:f>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J18:J18</xm:f>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J19:J19</xm:f>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J20:J20</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J21:J21</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J22:J22</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J23:J23</xm:f>
-              <xm:sqref>K23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J24:J24</xm:f>
-              <xm:sqref>K24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J25:J25</xm:f>
-              <xm:sqref>K25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J26:J26</xm:f>
-              <xm:sqref>K26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J27:J27</xm:f>
-              <xm:sqref>K27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J28:J28</xm:f>
-              <xm:sqref>K28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J29:J29</xm:f>
-              <xm:sqref>K29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J30:J30</xm:f>
-              <xm:sqref>K30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J31:J31</xm:f>
-              <xm:sqref>K31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J32:J32</xm:f>
-              <xm:sqref>K32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J33:J33</xm:f>
-              <xm:sqref>K33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J34:J34</xm:f>
-              <xm:sqref>K34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J35:J35</xm:f>
-              <xm:sqref>K35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J36:J36</xm:f>
-              <xm:sqref>K36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J37:J37</xm:f>
-              <xm:sqref>K37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -32311,7 +32631,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32322,8 +32642,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -32343,7 +32663,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32354,8 +32674,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCCB589-23A5-469B-8411-894A05A1B65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13291755-723A-4483-AF26-6658BA26B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="306">
   <si>
     <t>Memory</t>
   </si>
@@ -980,6 +980,9 @@
   <si>
     <t>Slim Structs</t>
   </si>
+  <si>
+    <t>Slim globals</t>
+  </si>
 </sst>
 </file>
 
@@ -1168,10 +1171,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Globals!$B$2:$B$50</c:f>
+              <c:f>Globals!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>112960</c:v>
                 </c:pt>
@@ -1318,6 +1321,12 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>23256</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22104</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,10 +2878,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>D_DoomLoop!$B$2:$B$36</c:f>
+              <c:f>D_DoomLoop!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>627068</c:v>
                 </c:pt>
@@ -2977,6 +2986,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>39304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3005,10 +3017,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>D_DoomLoop!$F$2:$F$36</c:f>
+              <c:f>D_DoomLoop!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -3112,6 +3124,9 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -3385,10 +3400,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$B$2:$B$58</c:f>
+              <c:f>E1M1!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>572432</c:v>
                 </c:pt>
@@ -3559,6 +3574,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>88128</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>86976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,10 +3605,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M1!$F$2:$F$58</c:f>
+              <c:f>E1M1!$F$2:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -3760,6 +3778,9 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -4033,10 +4054,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$B$2:$B$50</c:f>
+              <c:f>E1M2!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>367176</c:v>
                 </c:pt>
@@ -4183,6 +4204,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>134836</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>133684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,10 +4235,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>E1M2!$F$2:$F$50</c:f>
+              <c:f>E1M2!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>262144</c:v>
                 </c:pt>
@@ -4360,6 +4384,9 @@
                   <c:v>262144</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>262144</c:v>
                 </c:pt>
               </c:numCache>
@@ -4764,10 +4791,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>88032</c:v>
+                  <c:v>86976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135784</c:v>
+                  <c:v>133684</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>138600</c:v>
@@ -14872,10 +14899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14959,7 +14986,7 @@
         <v>0.19654083251953125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F50" si="3">256*1024</f>
+        <f t="shared" ref="F4:F52" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -16063,6 +16090,54 @@
         <v>8.8714599609375E-2</v>
       </c>
       <c r="F50">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51">
+        <v>22104</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="8">B50-B51</f>
+        <v>1152</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="9">$F$3-B51</f>
+        <v>240040</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ref="E51" si="10">1-(D51/$F$3)</f>
+        <v>8.4320068359375E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52">
+        <v>22032</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52" si="11">B51-B52</f>
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52" si="12">$F$3-B52</f>
+        <v>240112</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" ref="E52" si="13">1-(D52/$F$3)</f>
+        <v>8.404541015625E-2</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -21832,10 +21907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21919,7 +21994,7 @@
         <v>1.1417999267578125</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F36" si="3">256*1024</f>
+        <f t="shared" ref="F4:F37" si="3">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -22687,6 +22762,30 @@
         <v>0.149932861328125</v>
       </c>
       <c r="F36">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37">
+        <v>38152</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="7">B36-B37</f>
+        <v>1152</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="8">$F$3-B37</f>
+        <v>223992</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37" si="9">1-(D37/$F$3)</f>
+        <v>0.145538330078125</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
@@ -22699,10 +22798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22737,7 +22836,7 @@
         <v>2.18365478515625</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F58" si="2">256*1024</f>
+        <f t="shared" ref="F2:F59" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -24081,6 +24180,30 @@
         <v>0.336181640625</v>
       </c>
       <c r="F58">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>304</v>
+      </c>
+      <c r="B59">
+        <v>86976</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59" si="7">B58-B59</f>
+        <v>1152</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59" si="8">$F$2-B59</f>
+        <v>175168</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" ref="E59" si="9">1-(D59/$F$2)</f>
+        <v>0.331787109375</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -24093,10 +24216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24131,7 +24254,7 @@
         <v>1.400665283203125</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F50" si="2">256*1024</f>
+        <f t="shared" ref="F2:F51" si="2">256*1024</f>
         <v>262144</v>
       </c>
     </row>
@@ -25283,6 +25406,30 @@
         <v>0.5143585205078125</v>
       </c>
       <c r="F50">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51">
+        <v>133684</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="8">B50-B51</f>
+        <v>1152</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="9">$F$2-B51</f>
+        <v>128460</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ref="E51" si="10">1-(D51/$F$2)</f>
+        <v>0.5099639892578125</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
@@ -27942,8 +28089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28021,15 +28168,15 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>88032</v>
+        <v>86976</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>174112</v>
+        <v>175168</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.3358154296875</v>
+        <v>0.331787109375</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E37" si="0">256*1024</f>
@@ -28064,8 +28211,7 @@
         <v>623</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="4"/>
-        <v>20.766666666666666</v>
+        <v>24.3</v>
       </c>
       <c r="O2" s="4">
         <v>22</v>
@@ -28080,15 +28226,15 @@
         <v>86</v>
       </c>
       <c r="B3">
-        <v>135784</v>
+        <v>133684</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C37" si="5">$E$2-B3</f>
-        <v>126360</v>
+        <v>128460</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D37" si="6">1-(C3/$E$2)</f>
-        <v>0.517974853515625</v>
+        <v>0.5099639892578125</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -28123,8 +28269,7 @@
         <v>448</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" si="4"/>
-        <v>14.933333333333334</v>
+        <v>17.5</v>
       </c>
       <c r="O3" s="4">
         <v>16</v>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13291755-723A-4483-AF26-6658BA26B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C3805-0F9E-4730-BBB3-25D6E4C85F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -5570,7 +5570,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>96804</c:v>
+                  <c:v>82132</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>113672</c:v>
@@ -6846,7 +6846,7 @@
                   <c:v>203392</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>243080</c:v>
+                  <c:v>234892</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>150508</c:v>
@@ -6861,7 +6861,7 @@
                   <c:v>180836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>257500</c:v>
+                  <c:v>260344</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>216236</c:v>
@@ -16151,10 +16151,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16692,15 +16692,15 @@
         <v>143</v>
       </c>
       <c r="B24">
-        <v>243080</v>
+        <v>234892</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>19064</v>
+        <v>27252</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>0.927276611328125</v>
+        <v>0.8960418701171875</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -16797,15 +16797,15 @@
         <v>148</v>
       </c>
       <c r="B29">
-        <v>257500</v>
+        <v>260344</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>4644</v>
+        <v>1800</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>0.9822845458984375</v>
+        <v>0.993133544921875</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>295</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" s="14" t="s">
         <v>302</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>17836</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" s="14" t="s">
         <v>297</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" s="14" t="s">
         <v>298</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>20168</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" s="14" t="s">
         <v>296</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>15640</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" s="15" t="s">
         <v>299</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>13104</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46" s="14" t="s">
         <v>301</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>14328</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" s="14" t="s">
         <v>300</v>
       </c>
@@ -17001,6 +17001,9 @@
       </c>
       <c r="F47">
         <v>74172</v>
+      </c>
+      <c r="H47">
+        <v>63008</v>
       </c>
     </row>
   </sheetData>
@@ -21909,7 +21912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
@@ -30783,7 +30786,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30861,15 +30864,15 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <v>96804</v>
+        <v>82132</v>
       </c>
       <c r="C2">
         <f>$E$2-B2</f>
-        <v>165340</v>
+        <v>180012</v>
       </c>
       <c r="D2" s="1">
         <f>1-(C2/$E$2)</f>
-        <v>0.3692779541015625</v>
+        <v>0.3133087158203125</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" si="0">256*1024</f>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C3805-0F9E-4730-BBB3-25D6E4C85F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD551412-F650-42A3-B99D-D8C436819EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Globals" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="308">
   <si>
     <t>Memory</t>
   </si>
@@ -982,6 +982,12 @@
   </si>
   <si>
     <t>Slim globals</t>
+  </si>
+  <si>
+    <t>Ver 2.2</t>
+  </si>
+  <si>
+    <t>No translate</t>
   </si>
 </sst>
 </file>
@@ -16153,7 +16159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4DB5C2-1263-4F5F-A356-135B21345C52}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -26139,10 +26145,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28067,7 +28074,7 @@
         <v>6892</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" ref="E68" si="152">C68+D68+B68</f>
+        <f t="shared" ref="E68:E69" si="152">C68+D68+B68</f>
         <v>31804</v>
       </c>
       <c r="F68" s="2">
@@ -28080,6 +28087,64 @@
       </c>
       <c r="H68">
         <v>32768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="2">
+        <v>21692</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3060</v>
+      </c>
+      <c r="D69" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="152"/>
+        <v>31644</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ref="F69" si="155">H69-E69</f>
+        <v>1125</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69" si="156">1-(F69/H69)</f>
+        <v>0.96566877231529802</v>
+      </c>
+      <c r="H69">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="2">
+        <v>21644</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3060</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6892</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" ref="E70" si="157">C70+D70+B70</f>
+        <v>31596</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ref="F70" si="158">H70-E70</f>
+        <v>1174</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" ref="G70" si="159">1-(F70/H70)</f>
+        <v>0.96417454989319495</v>
+      </c>
+      <c r="H70">
+        <v>32770</v>
       </c>
     </row>
   </sheetData>
@@ -30463,6 +30528,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -30619,162 +30840,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -32779,7 +32844,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32790,8 +32855,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -32811,7 +32876,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32822,8 +32887,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD551412-F650-42A3-B99D-D8C436819EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652537E6-6E4F-4EEE-AAFF-E2F6FA05A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26148,8 +26148,8 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28108,14 +28108,14 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" ref="F69" si="155">H69-E69</f>
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" ref="G69" si="156">1-(F69/H69)</f>
-        <v>0.96566877231529802</v>
+        <v>0.9656982421875</v>
       </c>
       <c r="H69">
-        <v>32769</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -28137,14 +28137,14 @@
       </c>
       <c r="F70" s="2">
         <f t="shared" ref="F70" si="158">H70-E70</f>
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" ref="G70" si="159">1-(F70/H70)</f>
-        <v>0.96417454989319495</v>
+        <v>0.9642333984375</v>
       </c>
       <c r="H70">
-        <v>32770</v>
+        <v>32768</v>
       </c>
     </row>
   </sheetData>
@@ -30528,6 +30528,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J2:J2</xm:f>
+              <xm:sqref>K2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J3:J3</xm:f>
+              <xm:sqref>K3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J4:J4</xm:f>
+              <xm:sqref>K4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J5:J5</xm:f>
+              <xm:sqref>K5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J6:J6</xm:f>
+              <xm:sqref>K6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J7:J7</xm:f>
+              <xm:sqref>K7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J8:J8</xm:f>
+              <xm:sqref>K8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J9:J9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J10:J10</xm:f>
+              <xm:sqref>K10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J11:J11</xm:f>
+              <xm:sqref>K11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J12:J12</xm:f>
+              <xm:sqref>K12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J13:J13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J14:J14</xm:f>
+              <xm:sqref>K14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J15:J15</xm:f>
+              <xm:sqref>K15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J16:J16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J17:J17</xm:f>
+              <xm:sqref>K17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J18:J18</xm:f>
+              <xm:sqref>K18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J19:J19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J20:J20</xm:f>
+              <xm:sqref>K20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J21:J21</xm:f>
+              <xm:sqref>K21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J22:J22</xm:f>
+              <xm:sqref>K22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J23:J23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J24:J24</xm:f>
+              <xm:sqref>K24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J25:J25</xm:f>
+              <xm:sqref>K25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J26:J26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J27:J27</xm:f>
+              <xm:sqref>K27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J28:J28</xm:f>
+              <xm:sqref>K28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J29:J29</xm:f>
+              <xm:sqref>K29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J30:J30</xm:f>
+              <xm:sqref>K30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J31:J31</xm:f>
+              <xm:sqref>K31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J32:J32</xm:f>
+              <xm:sqref>K32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J33:J33</xm:f>
+              <xm:sqref>K33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J34:J34</xm:f>
+              <xm:sqref>K34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J35:J35</xm:f>
+              <xm:sqref>K35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J36:J36</xm:f>
+              <xm:sqref>K36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!J37:J37</xm:f>
+              <xm:sqref>K37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -30684,162 +30840,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J2:J2</xm:f>
-              <xm:sqref>K2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J3:J3</xm:f>
-              <xm:sqref>K3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J4:J4</xm:f>
-              <xm:sqref>K4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J5:J5</xm:f>
-              <xm:sqref>K5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J6:J6</xm:f>
-              <xm:sqref>K6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J7:J7</xm:f>
-              <xm:sqref>K7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J8:J8</xm:f>
-              <xm:sqref>K8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J9:J9</xm:f>
-              <xm:sqref>K9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J10:J10</xm:f>
-              <xm:sqref>K10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J11:J11</xm:f>
-              <xm:sqref>K11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J12:J12</xm:f>
-              <xm:sqref>K12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J13:J13</xm:f>
-              <xm:sqref>K13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J14:J14</xm:f>
-              <xm:sqref>K14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J15:J15</xm:f>
-              <xm:sqref>K15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J16:J16</xm:f>
-              <xm:sqref>K16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J17:J17</xm:f>
-              <xm:sqref>K17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J18:J18</xm:f>
-              <xm:sqref>K18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J19:J19</xm:f>
-              <xm:sqref>K19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J20:J20</xm:f>
-              <xm:sqref>K20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J21:J21</xm:f>
-              <xm:sqref>K21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J22:J22</xm:f>
-              <xm:sqref>K22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J23:J23</xm:f>
-              <xm:sqref>K23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J24:J24</xm:f>
-              <xm:sqref>K24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J25:J25</xm:f>
-              <xm:sqref>K25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J26:J26</xm:f>
-              <xm:sqref>K26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J27:J27</xm:f>
-              <xm:sqref>K27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J28:J28</xm:f>
-              <xm:sqref>K28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J29:J29</xm:f>
-              <xm:sqref>K29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J30:J30</xm:f>
-              <xm:sqref>K30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J31:J31</xm:f>
-              <xm:sqref>K31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J32:J32</xm:f>
-              <xm:sqref>K32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J33:J33</xm:f>
-              <xm:sqref>K33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J34:J34</xm:f>
-              <xm:sqref>K34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J35:J35</xm:f>
-              <xm:sqref>K35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J36:J36</xm:f>
-              <xm:sqref>K36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!J37:J37</xm:f>
-              <xm:sqref>K37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -32844,7 +32844,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32855,8 +32855,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -32876,7 +32876,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32887,8 +32887,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/GBADoomMemory.xlsx
+++ b/GBADoomMemory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\GBADoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652537E6-6E4F-4EEE-AAFF-E2F6FA05A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D54EC9B-3CB2-4580-A16A-007B99C2D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="309">
   <si>
     <t>Memory</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>No translate</t>
+  </si>
+  <si>
+    <t>MaxMod</t>
   </si>
 </sst>
 </file>
@@ -26145,11 +26148,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28132,7 +28135,7 @@
         <v>6892</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" ref="E70" si="157">C70+D70+B70</f>
+        <f t="shared" ref="E70:E71" si="157">C70+D70+B70</f>
         <v>31596</v>
       </c>
       <c r="F70" s="2">
@@ -28144,6 +28147,35 @@
         <v>0.9642333984375</v>
       </c>
       <c r="H70">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="2">
+        <v>21644</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3060</v>
+      </c>
+      <c r="D71" s="2">
+        <v>6896</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="157"/>
+        <v>31600</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ref="F71" si="160">H71-E71</f>
+        <v>1168</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" ref="G71" si="161">1-(F71/H71)</f>
+        <v>0.96435546875</v>
+      </c>
+      <c r="H71">
         <v>32768</v>
       </c>
     </row>
@@ -30528,6 +30560,162 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G7:G7</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G8:G8</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G9:G9</xm:f>
+              <xm:sqref>H9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G15:G15</xm:f>
+              <xm:sqref>H15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G16:G16</xm:f>
+              <xm:sqref>H16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G17:G17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G18:G18</xm:f>
+              <xm:sqref>H18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G19:G19</xm:f>
+              <xm:sqref>H19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G20:G20</xm:f>
+              <xm:sqref>H20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G21:G21</xm:f>
+              <xm:sqref>H21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G22:G22</xm:f>
+              <xm:sqref>H22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G23:G23</xm:f>
+              <xm:sqref>H23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G24:G24</xm:f>
+              <xm:sqref>H24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G25:G25</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G26:G26</xm:f>
+              <xm:sqref>H26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G27:G27</xm:f>
+              <xm:sqref>H27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G28:G28</xm:f>
+              <xm:sqref>H28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G29:G29</xm:f>
+              <xm:sqref>H29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G30:G30</xm:f>
+              <xm:sqref>H30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G31:G31</xm:f>
+              <xm:sqref>H31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G32:G32</xm:f>
+              <xm:sqref>H32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G33:G33</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G34:G34</xm:f>
+              <xm:sqref>H34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G35:G35</xm:f>
+              <xm:sqref>H35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G36:G36</xm:f>
+              <xm:sqref>H36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Doom Levels'!G37:G37</xm:f>
+              <xm:sqref>H37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -30684,162 +30872,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0600-000000000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G7:G7</xm:f>
-              <xm:sqref>H7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G8:G8</xm:f>
-              <xm:sqref>H8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G9:G9</xm:f>
-              <xm:sqref>H9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G15:G15</xm:f>
-              <xm:sqref>H15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G16:G16</xm:f>
-              <xm:sqref>H16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G17:G17</xm:f>
-              <xm:sqref>H17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G23:G23</xm:f>
-              <xm:sqref>H23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G24:G24</xm:f>
-              <xm:sqref>H24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G25:G25</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G26:G26</xm:f>
-              <xm:sqref>H26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G27:G27</xm:f>
-              <xm:sqref>H27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G28:G28</xm:f>
-              <xm:sqref>H28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G29:G29</xm:f>
-              <xm:sqref>H29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G30:G30</xm:f>
-              <xm:sqref>H30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G31:G31</xm:f>
-              <xm:sqref>H31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G32:G32</xm:f>
-              <xm:sqref>H32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G33:G33</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G34:G34</xm:f>
-              <xm:sqref>H34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G35:G35</xm:f>
-              <xm:sqref>H35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G36:G36</xm:f>
-              <xm:sqref>H36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Doom Levels'!G37:G37</xm:f>
-              <xm:sqref>H37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -32844,7 +32876,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32855,8 +32887,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
-              <xm:sqref>M2</xm:sqref>
+              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -32876,7 +32908,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{00000000-0003-0000-0700-000002000000}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{D21CAF72-2AF7-4E10-80D4-49E1123EB21E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -32887,8 +32919,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Doom2 Levels'!G2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
+              <xm:f>'Doom2 Levels'!L2:L2</xm:f>
+              <xm:sqref>M2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
